--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,11 +526,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>79-81</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>184.5</v>
+        <v>172.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,26 +548,26 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,19 +577,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>88-97</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>30.5</v>
+        <v>14.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>184.5</v>
+        <v>161.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45765</v>
+        <v>45774</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -608,17 +608,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,19 +628,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>71-153</t>
+          <t>74-124</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.5</v>
+        <v>60.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>178.5</v>
+        <v>180.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,48 +679,48 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>89-141</t>
+          <t>75-77</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>181.5</v>
+        <v>176.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,11 +730,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>52-117</t>
+          <t>50-121</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>32.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45781</v>
+        <v>45786</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,29 +771,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>62-77</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-12.5</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45773</v>
+        <v>45779</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -812,17 +812,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +832,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>118-73</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-12.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>180.5</v>
+        <v>174.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Brisbane Lions</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>L</t>
@@ -883,11 +883,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-12.5</v>
+        <v>12.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -895,26 +895,26 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>174.5</v>
+        <v>180.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45759</v>
+        <v>45767</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>118-97</t>
+          <t>56-127</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-9.5</v>
+        <v>6.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>172.5</v>
+        <v>181.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,40 +956,40 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45752</v>
+        <v>45760</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Norwood Oval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>118-90</t>
+          <t>82-110</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-37.5</v>
+        <v>17.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>177.5</v>
+        <v>168.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,68 +1026,68 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>90-87</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>76-94</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1095,11 +1095,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1109,26 +1109,26 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45768</v>
+        <v>45773</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1138,11 +1138,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>86-79</t>
+          <t>118-73</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1150,87 +1150,87 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>175.5</v>
+        <v>180.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45757</v>
+        <v>45764</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>119-100</t>
+          <t>53-105</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>179.5</v>
+        <v>174.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45751</v>
+        <v>45759</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Norwood Oval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>85-46</t>
+          <t>118-97</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-22.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1252,36 +1252,36 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>173.5</v>
+        <v>172.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>73-87</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-6.5</v>
+        <v>23.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1313,48 +1313,48 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>81-113</t>
+          <t>108-76</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-12.5</v>
+        <v>-14.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>173.5</v>
+        <v>161.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1364,48 +1364,48 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45766</v>
+        <v>45771</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>34-52</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>185.5</v>
+        <v>176.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,26 +1415,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>107-97</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-17.5</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>168.5</v>
+        <v>166.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45753</v>
+        <v>45759</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,39 +1485,39 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>132-51</t>
+          <t>57-96</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-42.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>174.5</v>
+        <v>169.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1531,26 +1531,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>49.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>177.5</v>
+        <v>172.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45771</v>
+        <v>45781</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>63-83</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>19.5</v>
+        <v>49.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>176.5</v>
+        <v>177.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,11 +1619,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45766</v>
+        <v>45771</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1633,34 +1633,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>80-69</t>
+          <t>63-83</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>36.5</v>
+        <v>19.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>184.5</v>
+        <v>176.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,11 +1670,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1689,29 +1689,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>47-108</t>
+          <t>80-69</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,11 +1721,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45752</v>
+        <v>45760</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Barossa Park</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1750,38 +1750,38 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>90-118</t>
+          <t>47-108</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>177.5</v>
+        <v>176.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1801,29 +1801,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>14.5</v>
+        <v>36.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>161.5</v>
+        <v>175.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45774</v>
+        <v>45778</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>74-124</t>
+          <t>62-65</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>60.5</v>
+        <v>17.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1864,36 +1864,36 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>180.5</v>
+        <v>184.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45765</v>
+        <v>45773</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>88-97</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1915,31 +1915,31 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>50-121</t>
+          <t>71-153</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>32.5</v>
+        <v>15.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1966,36 +1966,36 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>176.5</v>
+        <v>178.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45753</v>
+        <v>45759</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Barossa Park</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>51-132</t>
+          <t>89-141</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>42.5</v>
+        <v>16.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>174.5</v>
+        <v>181.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>96-106</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>16.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>170.5</v>
+        <v>181.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2078,28 +2078,28 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>W</t>
@@ -2107,19 +2107,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-30.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>184.5</v>
+        <v>170.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2129,16 +2129,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45767</v>
+        <v>45773</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>85-77</t>
+          <t>113-81</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2170,26 +2170,26 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>170.5</v>
+        <v>173.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>121-91</t>
+          <t>127-56</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>13.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>172.5</v>
+        <v>181.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45753</v>
+        <v>45759</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Norwood Oval</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2260,11 +2260,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>72-89</t>
+          <t>97-118</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-15.5</v>
+        <v>9.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2272,26 +2272,26 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-16.5</v>
+        <v>8.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,40 +2333,40 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>67-85</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>178.5</v>
+        <v>184.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2384,91 +2384,91 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45766</v>
+        <v>45772</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-5.5</v>
+        <v>17.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>185.5</v>
+        <v>168.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45757</v>
+        <v>45765</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>100-119</t>
+          <t>77-75</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-6.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2476,26 +2476,26 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>179.5</v>
+        <v>176.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,21 +2505,21 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>90-91</t>
+          <t>96-57</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>185.5</v>
+        <v>169.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,26 +2537,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2566,15 +2566,15 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>49-66</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2588,48 +2588,48 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-11.5</v>
+        <v>16.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2639,40 +2639,40 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>69-80</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-36.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2684,22 +2684,22 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45759</v>
+        <v>45767</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>141-89</t>
+          <t>85-77</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-16.5</v>
+        <v>19.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2731,26 +2731,26 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>181.5</v>
+        <v>170.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45752</v>
+        <v>45760</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2770,38 +2770,38 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>91-90</t>
+          <t>121-91</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-2.5</v>
+        <v>13.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>185.5</v>
+        <v>172.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,29 +2811,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-16.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>113-81</t>
+          <t>90-87</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2894,67 +2894,67 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>127-56</t>
+          <t>76-94</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-6.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>181.5</v>
+        <v>174.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45759</v>
+        <v>45768</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2964,48 +2964,48 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>97-118</t>
+          <t>86-79</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45753</v>
+        <v>45757</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3015,29 +3015,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>81-97</t>
+          <t>119-100</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>168.5</v>
+        <v>179.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3047,26 +3047,26 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3076,38 +3076,38 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>105-101</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-17.5</v>
+        <v>15.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>184.5</v>
+        <v>174.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>66-107</t>
+          <t>73-87</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>17.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3139,50 +3139,50 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>168.5</v>
+        <v>169.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45765</v>
+        <v>45773</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>77-75</t>
+          <t>81-113</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-19.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3190,17 +3190,17 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>176.5</v>
+        <v>173.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45759</v>
+        <v>45766</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3219,29 +3219,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96-57</t>
+          <t>34-52</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>169.5</v>
+        <v>185.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3251,26 +3251,26 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45743</v>
+        <v>45760</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Norwood Oval</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3280,11 +3280,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>72-60</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3292,26 +3292,26 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>175.5</v>
+        <v>168.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45781</v>
+        <v>45785</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,48 +3321,48 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>169.5</v>
+        <v>160.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45774</v>
+        <v>45779</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>79-117</t>
+          <t>33-94</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,26 +3394,26 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45767</v>
+        <v>45772</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,29 +3423,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-19.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>170.5</v>
+        <v>178.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45758</v>
+        <v>45766</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>78-109</t>
+          <t>97-107</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>170.5</v>
+        <v>166.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45752</v>
+        <v>45760</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Barossa Park</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>117-52</t>
+          <t>108-47</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-10.5</v>
+        <v>-35.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45780</v>
+        <v>45785</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3586,11 +3586,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>108-76</t>
+          <t>97-83</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-14.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>161.5</v>
+        <v>160.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45771</v>
+        <v>45780</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3627,39 +3627,39 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-19.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45766</v>
+        <v>45772</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>107-66</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>166.5</v>
+        <v>168.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3710,48 +3710,48 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45759</v>
+        <v>45764</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>57-96</t>
+          <t>105-53</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-1.5</v>
+        <v>12.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>169.5</v>
+        <v>174.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3761,77 +3761,77 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>46-85</t>
+          <t>109-78</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>22.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>173.5</v>
+        <v>170.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3841,19 +3841,19 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>109-44</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-49.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>177.5</v>
+        <v>175.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3892,38 +3892,38 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>124-74</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-60.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>180.5</v>
+        <v>174.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45768</v>
+        <v>45772</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>79-86</t>
+          <t>67-85</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>175.5</v>
+        <v>178.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3974,58 +3974,58 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>91-121</t>
+          <t>52-34</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-13.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>172.5</v>
+        <v>185.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45745</v>
+        <v>45757</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4035,21 +4035,21 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>76-64</t>
+          <t>100-119</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-12.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,17 +4057,17 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>166.5</v>
+        <v>179.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45779</v>
+        <v>45787</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4076,39 +4076,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>63-71</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-1.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4118,16 +4118,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4137,48 +4137,48 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>180.5</v>
+        <v>169.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4198,11 +4198,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>56-127</t>
+          <t>79-117</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4220,16 +4220,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>77-85</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>17.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4261,17 +4261,17 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>168.5</v>
+        <v>170.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45753</v>
+        <v>45758</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4290,43 +4290,43 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>89-72</t>
+          <t>78-109</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45780</v>
+        <v>45786</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4341,29 +4341,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>50-110</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>16.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>174.5</v>
+        <v>167.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4373,11 +4373,11 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4387,30 +4387,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>50-110</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4424,11 +4424,11 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45765</v>
+        <v>45774</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4453,11 +4453,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>153-71</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-15.5</v>
+        <v>12.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4465,21 +4465,21 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>178.5</v>
+        <v>174.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4489,12 +4489,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>121-50</t>
+          <t>153-71</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-32.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4516,21 +4516,21 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>176.5</v>
+        <v>178.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45750</v>
+        <v>45759</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4540,34 +4540,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>46-63</t>
+          <t>121-50</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>10.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>167.5</v>
+        <v>176.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4577,99 +4577,99 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45779</v>
+        <v>45787</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>33-94</t>
+          <t>106-96</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>174.5</v>
+        <v>181.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>49-66</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>-3.5</v>
+        <v>12.5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>178.5</v>
+        <v>175.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4679,48 +4679,48 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>97-107</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>-4.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>166.5</v>
+        <v>175.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4730,16 +4730,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4754,24 +4754,24 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>108-47</t>
+          <t>69-80</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>-35.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4781,26 +4781,26 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45753</v>
+        <v>45759</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Barossa Park</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4810,11 +4810,11 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>97-81</t>
+          <t>141-89</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>168.5</v>
+        <v>181.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4841,49 +4841,49 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>91-56</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>-3.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4912,11 +4912,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>109-44</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>-17.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4924,36 +4924,36 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>168.5</v>
+        <v>177.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45764</v>
+        <v>45774</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4963,125 +4963,125 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>105-53</t>
+          <t>124-74</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>12.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>174.5</v>
+        <v>180.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45758</v>
+        <v>45768</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>109-78</t>
+          <t>79-86</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-10.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45750</v>
+        <v>45760</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>63-46</t>
+          <t>91-121</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-10.5</v>
+        <v>-13.5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,16 +5163,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45514</v>
+        <v>45780</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5192,11 +5192,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97-102</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-11.5</v>
+        <v>14.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>174.5</v>
+        <v>161.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -5214,16 +5214,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45500</v>
+        <v>45765</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5243,19 +5243,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>66-106</t>
+          <t>75-77</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>28.5</v>
+        <v>19.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -5265,16 +5265,16 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45437</v>
+        <v>45746</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5294,11 +5294,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>48-107</t>
+          <t>68-106</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>39.5</v>
+        <v>27.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5306,26 +5306,26 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>173.5</v>
+        <v>167.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45409</v>
+        <v>45732</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5345,11 +5345,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>81-138</t>
+          <t>49-136</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>28.5</v>
+        <v>13.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>175.5</v>
+        <v>166.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5367,16 +5367,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45164</v>
+        <v>45522</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5386,58 +5386,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>132-97</t>
+          <t>34-99</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>171.5</v>
+        <v>164.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45751</v>
+        <v>45444</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5447,11 +5447,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>85-46</t>
+          <t>82-68</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-22.5</v>
+        <v>6.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>173.5</v>
+        <v>167.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5469,26 +5469,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45731</v>
+        <v>45109</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5498,43 +5498,43 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>147-69</t>
+          <t>85-77</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-10.5</v>
+        <v>-46.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45528</v>
+        <v>44766</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5549,11 +5549,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>168-75</t>
+          <t>90-62</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-40.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -5561,36 +5561,36 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>177.5</v>
+        <v>165.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45507</v>
+        <v>44647</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5600,38 +5600,38 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>90-85</t>
+          <t>65-55</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-17.5</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>173.5</v>
+        <v>163.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45493</v>
+        <v>45781</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5641,29 +5641,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>48-95</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-17.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5673,40 +5673,40 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45437</v>
+        <v>45764</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>53-105</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-6.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>179.5</v>
+        <v>174.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5724,21 +5724,21 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45073</v>
+        <v>45745</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5753,19 +5753,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>81-74</t>
+          <t>70-61</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>40.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>175.5</v>
+        <v>160.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -5775,40 +5775,40 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45781</v>
+        <v>45739</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>94-75</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>49.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>177.5</v>
+        <v>175.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -5826,72 +5826,72 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45771</v>
+        <v>45542</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>63-83</t>
+          <t>99-71</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>19.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>176.5</v>
+        <v>166.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45752</v>
+        <v>45471</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5906,11 +5906,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>90-118</t>
+          <t>81-86</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>37.5</v>
+        <v>19.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5918,119 +5918,119 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>177.5</v>
+        <v>168.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45729</v>
+        <v>45009</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>82-69</t>
+          <t>82-93</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>46.5</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45528</v>
+        <v>44792</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>66-94</t>
+          <t>115-57</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17.5</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45480</v>
+        <v>45788</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -6039,31 +6039,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>West Coast</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>58-112</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>28.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -6071,17 +6071,17 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>164.5</v>
+        <v>172.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45052</v>
+        <v>45781</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -6110,11 +6110,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>58-104</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>35.5</v>
+        <v>49.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>169.5</v>
+        <v>177.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44759</v>
+        <v>45771</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6161,11 +6161,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>77-102</t>
+          <t>63-83</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -6173,17 +6173,17 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>159.5</v>
+        <v>176.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44745</v>
+        <v>45752</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -6192,17 +6192,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -6212,11 +6212,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>93-128</t>
+          <t>90-118</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>40.5</v>
+        <v>37.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>172.5</v>
+        <v>177.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45773</v>
+        <v>45729</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6263,62 +6263,62 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>82-69</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-30.5</v>
+        <v>46.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>184.5</v>
+        <v>176.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45760</v>
+        <v>45465</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>121-91</t>
+          <t>67-70</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13.5</v>
+        <v>33.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6326,36 +6326,36 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>172.5</v>
+        <v>170.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45753</v>
+        <v>45157</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6365,70 +6365,70 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>72-89</t>
+          <t>72-101</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-15.5</v>
+        <v>31.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45738</v>
+        <v>45045</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>140-68</t>
+          <t>49-139</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-48.5</v>
+        <v>44.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>176.5</v>
+        <v>177.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -6438,40 +6438,40 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45548</v>
+        <v>44751</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>75-72</t>
+          <t>81-88</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>52.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -6479,58 +6479,58 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>165.5</v>
+        <v>161.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45780</v>
+        <v>44640</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>58-78</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-16.5</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>174.5</v>
+        <v>157.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -6540,16 +6540,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6569,11 +6569,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>127-56</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-5.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6581,77 +6581,77 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>185.5</v>
+        <v>181.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45757</v>
+        <v>45744</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>100-119</t>
+          <t>83-75</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-6.5</v>
+        <v>1.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>179.5</v>
+        <v>170.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45746</v>
+        <v>45731</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6671,19 +6671,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>114-78</t>
+          <t>113-97</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-35.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>188.5</v>
+        <v>174.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -6693,16 +6693,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45732</v>
+        <v>45522</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6722,11 +6722,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135-72</t>
+          <t>138-42</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-15.5</v>
+        <v>-39.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>159.5</v>
+        <v>176.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -6744,16 +6744,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45428</v>
+        <v>45506</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6773,11 +6773,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>164-100</t>
+          <t>110-59</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9.5</v>
+        <v>-13.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6785,26 +6785,26 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>162.5</v>
+        <v>171.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45423</v>
+        <v>45787</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120-52</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-43.5</v>
+        <v>8.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6836,26 +6836,26 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45080</v>
+        <v>45778</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6875,38 +6875,38 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>112-87</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>158.5</v>
+        <v>184.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45073</v>
+        <v>45743</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>84-77</t>
+          <t>72-60</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -6938,26 +6938,26 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>158.5</v>
+        <v>175.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44716</v>
+        <v>45520</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6967,29 +6967,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>109-47</t>
+          <t>59-98</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-30.5</v>
+        <v>8.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>163.5</v>
+        <v>174.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -6999,21 +6999,21 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45073</v>
+        <v>45514</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7028,11 +7028,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>77-84</t>
+          <t>86-87</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-6.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>158.5</v>
+        <v>172.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -7050,16 +7050,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7069,29 +7069,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-17.5</v>
+        <v>9.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -7101,16 +7101,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45743</v>
+        <v>45773</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -7130,38 +7130,38 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>72-60</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>175.5</v>
+        <v>184.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45520</v>
+        <v>45760</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7171,48 +7171,48 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>59-98</t>
+          <t>121-91</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45514</v>
+        <v>45753</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>86-87</t>
+          <t>72-89</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-5.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -7244,58 +7244,58 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>172.5</v>
+        <v>167.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45500</v>
+        <v>45738</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>55-108</t>
+          <t>140-68</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-4.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>159.5</v>
+        <v>176.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7305,16 +7305,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45752</v>
+        <v>45757</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7334,11 +7334,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>117-52</t>
+          <t>119-100</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-10.5</v>
+        <v>6.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -7346,26 +7346,26 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>175.5</v>
+        <v>179.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45520</v>
+        <v>45540</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7385,11 +7385,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>98-59</t>
+          <t>138-54</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -7397,26 +7397,26 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>174.5</v>
+        <v>164.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45480</v>
+        <v>45388</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7426,25 +7426,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>82-84</t>
+          <t>95-91</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-22.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -7452,22 +7452,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45435</v>
+        <v>45373</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7487,19 +7487,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>102-88</t>
+          <t>96-77</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-17.5</v>
+        <v>14.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -7509,16 +7509,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45136</v>
+        <v>45092</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7528,29 +7528,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>101-99</t>
+          <t>72-110</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>171.5</v>
+        <v>162.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -7560,16 +7560,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45771</v>
+        <v>45753</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>132-51</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-19.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -7601,26 +7601,26 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45766</v>
+        <v>45725</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7640,11 +7640,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>104-52</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -7652,26 +7652,26 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>166.5</v>
+        <v>169.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45745</v>
+        <v>45549</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7691,11 +7691,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>62-120</t>
+          <t>100-105</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-6.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>170.5</v>
+        <v>167.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -7713,16 +7713,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45732</v>
+        <v>45521</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7732,21 +7732,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>74-77</t>
+          <t>101-92</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -7754,26 +7754,26 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>165.5</v>
+        <v>162.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45527</v>
+        <v>45493</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>57-103</t>
+          <t>89-50</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -7815,67 +7815,67 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45781</v>
+        <v>45521</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>109-44</t>
+          <t>92-101</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-49.5</v>
+        <v>8.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>177.5</v>
+        <v>162.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45768</v>
+        <v>45094</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7895,11 +7895,11 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>79-86</t>
+          <t>36-106</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-5.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45736</v>
+        <v>45780</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -7926,49 +7926,49 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80-60</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-8.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45730</v>
+        <v>45772</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>111-85</t>
+          <t>107-66</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-20.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45541</v>
+        <v>45750</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -8028,17 +8028,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -8048,11 +8048,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>99-62</t>
+          <t>63-46</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>164.5</v>
+        <v>167.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45438</v>
+        <v>45737</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8089,39 +8089,39 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>62-100</t>
+          <t>76-70</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>19.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>153.5</v>
+        <v>176.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45372</v>
+        <v>45731</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -8150,11 +8150,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>94-79</t>
+          <t>136-45</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>163.5</v>
+        <v>165.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45178</v>
+        <v>45738</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -8181,27 +8181,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>77-101</t>
+          <t>161-100</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -8209,11 +8209,11 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>159.5</v>
+        <v>176.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45094</v>
+        <v>45444</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8252,11 +8252,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>70-90</t>
+          <t>80-107</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -8264,17 +8264,17 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>162.5</v>
+        <v>169.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45017</v>
+        <v>45430</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -8283,31 +8283,31 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>92-74</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-2.5</v>
+        <v>19.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -8315,17 +8315,17 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>161.5</v>
+        <v>167.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45774</v>
+        <v>45130</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -8334,31 +8334,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>93-97</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -8366,17 +8366,17 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>174.5</v>
+        <v>166.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45750</v>
+        <v>45102</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8405,19 +8405,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>46-63</t>
+          <t>80-82</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>167.5</v>
+        <v>165.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -8427,16 +8427,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45736</v>
+        <v>45781</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -8446,29 +8446,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>60-80</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>170.5</v>
+        <v>169.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -8478,26 +8478,26 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45729</v>
+        <v>45767</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -8507,11 +8507,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>69-82</t>
+          <t>77-85</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-46.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -8529,16 +8529,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45515</v>
+        <v>45731</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8558,11 +8558,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>38-112</t>
+          <t>82-86</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -8580,16 +8580,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45772</v>
+        <v>45723</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8599,48 +8599,48 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>76-96</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>178.5</v>
+        <v>170.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45753</v>
+        <v>45555</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8660,11 +8660,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>97-81</t>
+          <t>95-59</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-5.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -8676,22 +8676,22 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45746</v>
+        <v>45429</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8701,29 +8701,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>106-68</t>
+          <t>65-117</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-27.5</v>
+        <v>12.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -8733,21 +8733,21 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45739</v>
+        <v>45072</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -8762,11 +8762,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>65-68</t>
+          <t>51-77</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>164.5</v>
+        <v>170.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -8784,16 +8784,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45529</v>
+        <v>45787</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8803,109 +8803,109 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>67-87</t>
+          <t>106-96</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>159.5</v>
+        <v>181.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45436</v>
+        <v>45428</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>75-75</t>
+          <t>164-100</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-12.5</v>
+        <v>9.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>154.5</v>
+        <v>162.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45080</v>
+        <v>45423</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8915,19 +8915,19 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>120-57</t>
+          <t>120-52</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-64.5</v>
+        <v>-43.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -8937,52 +8937,154 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44703</v>
+        <v>45080</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>112-87</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TIO Stadium</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>84-77</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TIO Stadium</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>Away</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>80-44</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Under</t>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>54-121</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Over</t>
         </is>
       </c>
     </row>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,28 +497,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>West Coast</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>L</t>
@@ -526,38 +526,38 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>79-81</t>
+          <t>80-108</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45780</v>
+        <v>45786</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,11 +577,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>62-77</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -589,17 +589,17 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>161.5</v>
+        <v>167.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45774</v>
+        <v>45779</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -608,31 +608,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74-124</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>60.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -640,26 +640,26 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180.5</v>
+        <v>174.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45765</v>
+        <v>45773</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,38 +679,38 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>176.5</v>
+        <v>180.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45759</v>
+        <v>45767</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,11 +730,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>50-121</t>
+          <t>56-127</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>32.5</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,26 +742,26 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>176.5</v>
+        <v>181.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45786</v>
+        <v>45792</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,48 +771,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>62-77</t>
+          <t>104-96</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>167.5</v>
+        <v>187.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45779</v>
+        <v>45787</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +832,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>106-96</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -844,31 +844,31 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>174.5</v>
+        <v>181.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>49-66</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -895,58 +895,58 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180.5</v>
+        <v>175.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>56-127</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,26 +956,26 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -985,11 +985,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>69-80</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>17.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,54 +997,54 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>168.5</v>
+        <v>184.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Brisbane Lions</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>99-88</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-36.5</v>
+        <v>31.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1052,22 +1052,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1077,29 +1077,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-12.5</v>
+        <v>23.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1109,16 +1109,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1138,11 +1138,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>118-73</t>
+          <t>108-76</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-12.5</v>
+        <v>-14.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180.5</v>
+        <v>161.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1179,29 +1179,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-12.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>174.5</v>
+        <v>176.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1211,26 +1211,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45759</v>
+        <v>45766</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>118-97</t>
+          <t>107-97</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-9.5</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45787</v>
+        <v>45793</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1281,29 +1281,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>23.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>169.5</v>
+        <v>164.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,48 +1332,48 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>108-76</t>
+          <t>63-71</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-14.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>161.5</v>
+        <v>171.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45771</v>
+        <v>45781</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-19.5</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>176.5</v>
+        <v>169.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,48 +1415,48 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>79-117</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>166.5</v>
+        <v>175.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45759</v>
+        <v>45767</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>57-96</t>
+          <t>77-85</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-1.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1526,39 +1526,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>68-78</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-10.5</v>
+        <v>15.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>172.5</v>
+        <v>173.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1568,16 +1568,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1587,21 +1587,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>49.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>177.5</v>
+        <v>175.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,48 +1619,48 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45771</v>
+        <v>45780</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>63-83</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,48 +1670,48 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45766</v>
+        <v>45772</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>80-69</t>
+          <t>67-85</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>36.5</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>184.5</v>
+        <v>178.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1740,29 +1740,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>47-108</t>
+          <t>52-34</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>35.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>176.5</v>
+        <v>185.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,21 +1791,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>36.5</v>
+        <v>19.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>79-81</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>184.5</v>
+        <v>172.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1874,26 +1874,26 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>88-97</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>30.5</v>
+        <v>14.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>184.5</v>
+        <v>161.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45765</v>
+        <v>45774</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1934,17 +1934,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,19 +1954,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>71-153</t>
+          <t>74-124</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15.5</v>
+        <v>60.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>178.5</v>
+        <v>180.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,38 +2005,38 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>89-141</t>
+          <t>75-77</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>181.5</v>
+        <v>176.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,48 +2046,48 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96-106</t>
+          <t>95-61</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-2.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45780</v>
+        <v>45785</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2097,29 +2097,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-16.5</v>
+        <v>8.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>170.5</v>
+        <v>160.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2129,16 +2129,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45773</v>
+        <v>45779</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2148,48 +2148,48 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>113-81</t>
+          <t>33-94</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>173.5</v>
+        <v>174.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45767</v>
+        <v>45772</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>127-56</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-6.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,36 +2221,36 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>181.5</v>
+        <v>178.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45759</v>
+        <v>45766</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2260,11 +2260,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>97-118</t>
+          <t>97-107</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,29 +2352,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-17.5</v>
+        <v>9.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2384,16 +2384,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45772</v>
+        <v>45780</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2413,11 +2413,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>66-107</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>168.5</v>
+        <v>170.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2435,26 +2435,26 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45765</v>
+        <v>45773</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>77-75</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-19.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2476,26 +2476,26 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45759</v>
+        <v>45767</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96-57</t>
+          <t>85-77</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.5</v>
+        <v>19.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,44 +2537,44 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2588,26 +2588,26 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2617,66 +2617,66 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>16.5</v>
+        <v>36.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>62-65</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-30.5</v>
+        <v>17.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2684,46 +2684,46 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45767</v>
+        <v>45773</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>85-77</t>
+          <t>88-97</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>19.5</v>
+        <v>30.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2731,26 +2731,26 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>170.5</v>
+        <v>184.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45760</v>
+        <v>45765</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>121-91</t>
+          <t>71-153</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>172.5</v>
+        <v>178.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,17 +2811,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2833,26 +2833,26 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>174.5</v>
+        <v>173.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45780</v>
+        <v>45785</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>90-87</t>
+          <t>97-83</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2903,19 +2903,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Geelong</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>L</t>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>76-94</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-12.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,17 +2935,17 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45768</v>
+        <v>45772</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>86-79</t>
+          <t>107-66</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2986,26 +2986,26 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>175.5</v>
+        <v>168.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45757</v>
+        <v>45764</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>119-100</t>
+          <t>105-53</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3037,26 +3037,26 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>179.5</v>
+        <v>174.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45788</v>
+        <v>45792</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,29 +3066,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>105-101</t>
+          <t>96-104</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>174.5</v>
+        <v>187.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3098,16 +3098,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3117,25 +3117,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>73-87</t>
+          <t>91-56</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-6.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3149,16 +3149,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3168,72 +3168,72 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>81-113</t>
+          <t>109-44</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-12.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>173.5</v>
+        <v>177.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>34-52</t>
+          <t>124-74</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3241,26 +3241,26 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>185.5</v>
+        <v>180.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45760</v>
+        <v>45768</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Norwood Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3270,48 +3270,48 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>79-86</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-17.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>168.5</v>
+        <v>175.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45785</v>
+        <v>45795</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3331,11 +3331,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>33-94</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-3.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>178.5</v>
+        <v>175.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3474,29 +3474,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>97-107</t>
+          <t>118-73</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-4.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>166.5</v>
+        <v>180.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,48 +3506,48 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45760</v>
+        <v>45764</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>108-47</t>
+          <t>53-105</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-35.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45785</v>
+        <v>45793</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,39 +3576,39 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>97-83</t>
+          <t>62-78</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-8.5</v>
+        <v>4.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>160.5</v>
+        <v>164.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45780</v>
+        <v>45786</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3617,119 +3617,119 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>171.5</v>
+        <v>167.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45772</v>
+        <v>45780</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>50-110</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-17.5</v>
+        <v>16.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>168.5</v>
+        <v>174.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45764</v>
+        <v>45774</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>105-53</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3761,26 +3761,26 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45758</v>
+        <v>45765</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>109-78</t>
+          <t>153-71</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-10.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>170.5</v>
+        <v>178.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3812,40 +3812,40 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-9.5</v>
+        <v>6.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3863,26 +3863,26 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>105-101</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3908,22 +3908,22 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>67-85</t>
+          <t>73-87</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>178.5</v>
+        <v>169.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,39 +3984,39 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>81-113</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-5.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>185.5</v>
+        <v>173.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45757</v>
+        <v>45766</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4025,19 +4025,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Adelaide</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>L</t>
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>100-119</t>
+          <t>34-52</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,17 +4057,17 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>179.5</v>
+        <v>185.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4096,11 +4096,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>63-71</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-8.5</v>
+        <v>23.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4118,28 +4118,28 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Sydney</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>W</t>
@@ -4147,11 +4147,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45774</v>
+        <v>45778</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>79-117</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>11.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4210,36 +4210,36 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>175.5</v>
+        <v>184.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45767</v>
+        <v>45772</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-19.5</v>
+        <v>17.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4261,26 +4261,26 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45758</v>
+        <v>45765</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4290,21 +4290,21 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>78-109</t>
+          <t>77-75</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>10.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4312,17 +4312,17 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>170.5</v>
+        <v>176.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45786</v>
+        <v>45795</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4331,31 +4331,31 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-7.5</v>
+        <v>9.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4373,40 +4373,40 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>50-110</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4433,39 +4433,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>12.5</v>
+        <v>49.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>174.5</v>
+        <v>177.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4475,16 +4475,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45765</v>
+        <v>45771</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4494,48 +4494,48 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>153-71</t>
+          <t>63-83</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-15.5</v>
+        <v>19.5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>178.5</v>
+        <v>176.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45759</v>
+        <v>45766</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4555,11 +4555,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>121-50</t>
+          <t>80-69</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-32.5</v>
+        <v>36.5</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4577,26 +4577,26 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4606,11 +4606,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>106-96</t>
+          <t>115-39</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2.5</v>
+        <v>18.5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4618,36 +4618,36 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4657,11 +4657,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>49-66</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>12.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4669,36 +4669,36 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4708,11 +4708,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>90-87</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>-11.5</v>
+        <v>3.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4730,16 +4730,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>69-80</t>
+          <t>76-94</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>-36.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>184.5</v>
+        <v>174.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4781,26 +4781,26 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45759</v>
+        <v>45768</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Barossa Park</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4810,11 +4810,11 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>141-89</t>
+          <t>86-79</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>-16.5</v>
+        <v>5.5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4822,36 +4822,36 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>91-56</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4883,67 +4883,67 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>109-44</t>
+          <t>96-106</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>-49.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>177.5</v>
+        <v>181.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4963,19 +4963,19 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>124-74</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-60.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>180.5</v>
+        <v>170.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4985,16 +4985,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45768</v>
+        <v>45773</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5004,80 +5004,80 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>79-86</t>
+          <t>113-81</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-5.5</v>
+        <v>12.5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>91-121</t>
+          <t>127-56</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-13.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>172.5</v>
+        <v>181.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,16 +5163,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5182,48 +5182,48 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>161.5</v>
+        <v>174.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45765</v>
+        <v>45773</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5243,48 +5243,48 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>176.5</v>
+        <v>180.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45746</v>
+        <v>45767</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5294,11 +5294,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>68-106</t>
+          <t>56-127</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27.5</v>
+        <v>6.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>167.5</v>
+        <v>181.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5316,16 +5316,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45732</v>
+        <v>45745</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5335,29 +5335,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>49-136</t>
+          <t>135-53</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>166.5</v>
+        <v>174.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5367,16 +5367,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45522</v>
+        <v>45738</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5386,48 +5386,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>34-99</t>
+          <t>98-91</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>164.5</v>
+        <v>173.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45766</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5437,29 +5437,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>82-68</t>
+          <t>69-80</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>167.5</v>
+        <v>184.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5469,16 +5469,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45109</v>
+        <v>45514</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5498,38 +5498,38 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>85-77</t>
+          <t>87-86</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-46.5</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44766</v>
+        <v>45479</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5539,29 +5539,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>90-62</t>
+          <t>83-87</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-18.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>165.5</v>
+        <v>172.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5571,48 +5571,48 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44647</v>
+        <v>45451</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>65-55</t>
+          <t>48-51</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>-13.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>163.5</v>
+        <v>162.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5622,48 +5622,48 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45781</v>
+        <v>45437</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-12.5</v>
+        <v>14.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5673,16 +5673,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45764</v>
+        <v>45787</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5702,11 +5702,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-12.5</v>
+        <v>23.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>174.5</v>
+        <v>169.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5724,16 +5724,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45745</v>
+        <v>45771</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5753,19 +5753,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>70-61</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-11.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160.5</v>
+        <v>176.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -5775,16 +5775,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45739</v>
+        <v>45766</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5804,38 +5804,38 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>94-75</t>
+          <t>107-97</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-49.5</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>175.5</v>
+        <v>166.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45542</v>
+        <v>45745</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5845,29 +5845,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>99-71</t>
+          <t>62-120</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-20.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>166.5</v>
+        <v>170.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -5877,11 +5877,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45471</v>
+        <v>45732</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5891,12 +5891,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5906,11 +5906,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>81-86</t>
+          <t>74-77</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19.5</v>
+        <v>9.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>168.5</v>
+        <v>165.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5928,21 +5928,21 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45009</v>
+        <v>45563</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -5957,11 +5957,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>82-93</t>
+          <t>60-120</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5979,16 +5979,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44792</v>
+        <v>45410</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>115-57</t>
+          <t>118-42</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -6020,17 +6020,17 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45788</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -6039,31 +6039,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>77-82</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-10.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45781</v>
+        <v>45366</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6100,39 +6100,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>102-69</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>49.5</v>
+        <v>14.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>177.5</v>
+        <v>166.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45771</v>
+        <v>45177</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6161,19 +6161,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>63-83</t>
+          <t>68-74</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>176.5</v>
+        <v>166.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -6183,67 +6183,67 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45752</v>
+        <v>45787</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>90-118</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>37.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>177.5</v>
+        <v>175.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45729</v>
+        <v>45780</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>82-69</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>46.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -6285,40 +6285,40 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45465</v>
+        <v>45766</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>67-70</t>
+          <t>52-34</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>33.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>170.5</v>
+        <v>185.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -6336,26 +6336,26 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45157</v>
+        <v>45757</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6365,19 +6365,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>72-101</t>
+          <t>100-119</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>31.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>170.5</v>
+        <v>179.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -6387,48 +6387,48 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45045</v>
+        <v>45746</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>North Melbourne</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>49-139</t>
+          <t>114-78</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>44.5</v>
+        <v>-35.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>177.5</v>
+        <v>188.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -6438,16 +6438,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44751</v>
+        <v>45759</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6467,38 +6467,38 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>81-88</t>
+          <t>50-121</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>52.5</v>
+        <v>32.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>161.5</v>
+        <v>176.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44640</v>
+        <v>45438</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6518,11 +6518,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>58-78</t>
+          <t>38-137</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6.5</v>
+        <v>29.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -6530,58 +6530,58 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>157.5</v>
+        <v>163.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45767</v>
+        <v>45368</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>127-56</t>
+          <t>70-120</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-6.5</v>
+        <v>45.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>181.5</v>
+        <v>173.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -6591,16 +6591,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45744</v>
+        <v>45087</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6610,72 +6610,72 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>83-75</t>
+          <t>52-174</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.5</v>
+        <v>61.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170.5</v>
+        <v>173.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45731</v>
+        <v>45038</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>113-97</t>
+          <t>69-109</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-26.5</v>
+        <v>38.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6683,26 +6683,26 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>174.5</v>
+        <v>178.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45522</v>
+        <v>45785</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6712,29 +6712,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>138-42</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-39.5</v>
+        <v>8.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>176.5</v>
+        <v>160.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -6744,16 +6744,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45506</v>
+        <v>45772</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6773,11 +6773,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>110-59</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-13.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>171.5</v>
+        <v>178.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -6795,16 +6795,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45787</v>
+        <v>45753</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>97-81</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6836,36 +6836,36 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>171.5</v>
+        <v>168.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45778</v>
+        <v>45746</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6875,38 +6875,38 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>106-68</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-17.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>184.5</v>
+        <v>167.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6916,29 +6916,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>72-60</t>
+          <t>65-68</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -6948,48 +6948,48 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45520</v>
+        <v>45529</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>59-98</t>
+          <t>87-67</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>174.5</v>
+        <v>159.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -6999,62 +6999,62 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45514</v>
+        <v>45158</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>86-87</t>
+          <t>74-58</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-5.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>172.5</v>
+        <v>168.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45787</v>
+        <v>44745</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7064,12 +7064,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -7079,11 +7079,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>91-99</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -7091,54 +7091,54 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>175.5</v>
+        <v>155.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>62-65</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-30.5</v>
+        <v>17.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -7146,22 +7146,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45760</v>
+        <v>45765</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7171,29 +7171,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>121-91</t>
+          <t>71-153</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>172.5</v>
+        <v>178.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -7203,16 +7203,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>72-89</t>
+          <t>52-117</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-15.5</v>
+        <v>10.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -7254,16 +7254,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45738</v>
+        <v>45739</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>140-68</t>
+          <t>125-66</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-48.5</v>
+        <v>18.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>176.5</v>
+        <v>173.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7305,16 +7305,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45757</v>
+        <v>45731</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7324,21 +7324,21 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>119-100</t>
+          <t>97-113</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6.5</v>
+        <v>26.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>179.5</v>
+        <v>174.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -7356,16 +7356,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45540</v>
+        <v>45459</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7385,19 +7385,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>138-54</t>
+          <t>119-118</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>164.5</v>
+        <v>173.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -7407,21 +7407,21 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45388</v>
+        <v>45443</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -7431,20 +7431,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>95-91</t>
+          <t>82-100</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-2.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -7458,26 +7458,26 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45373</v>
+        <v>45424</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7487,11 +7487,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96-77</t>
+          <t>103-37</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>14.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -7499,26 +7499,26 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45092</v>
+        <v>45114</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7528,48 +7528,48 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>72-110</t>
+          <t>89-77</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>162.5</v>
+        <v>166.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45753</v>
+        <v>45074</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7589,19 +7589,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>132-51</t>
+          <t>105-70</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-42.5</v>
+        <v>-58.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>174.5</v>
+        <v>164.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -7611,26 +7611,26 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45725</v>
+        <v>45787</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7640,11 +7640,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>104-52</t>
+          <t>91-56</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-7.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -7662,16 +7662,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45549</v>
+        <v>45781</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7681,109 +7681,109 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>100-105</t>
+          <t>109-44</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-3.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>167.5</v>
+        <v>177.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45521</v>
+        <v>45768</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>101-92</t>
+          <t>79-86</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-8.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>162.5</v>
+        <v>175.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45493</v>
+        <v>45736</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7793,11 +7793,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>89-50</t>
+          <t>80-60</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-17.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>168.5</v>
+        <v>170.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -7815,48 +7815,48 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45521</v>
+        <v>45730</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>92-101</t>
+          <t>111-85</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>162.5</v>
+        <v>170.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -7866,16 +7866,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45094</v>
+        <v>45752</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7885,21 +7885,21 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>36-106</t>
+          <t>118-90</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-4.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -7907,17 +7907,17 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>169.5</v>
+        <v>177.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45780</v>
+        <v>45563</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -7926,39 +7926,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>120-60</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45772</v>
+        <v>45556</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7977,17 +7977,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>95-85</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-17.5</v>
+        <v>5.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>168.5</v>
+        <v>173.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45750</v>
+        <v>45521</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -8028,35 +8028,35 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Collingwood</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>63-46</t>
+          <t>78-79</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-10.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -8070,7 +8070,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45737</v>
+        <v>45393</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>76-70</t>
+          <t>82-60</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-2.5</v>
+        <v>15.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>176.5</v>
+        <v>166.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -8121,26 +8121,26 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45731</v>
+        <v>45765</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -8150,11 +8150,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>136-45</t>
+          <t>153-71</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-8.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>165.5</v>
+        <v>178.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -8172,77 +8172,77 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45738</v>
+        <v>45744</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>161-100</t>
+          <t>75-83</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45444</v>
+        <v>45529</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8252,11 +8252,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>80-107</t>
+          <t>74-76</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -8264,36 +8264,36 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>169.5</v>
+        <v>166.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45430</v>
+        <v>45499</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -8303,19 +8303,19 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>65-79</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>19.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>167.5</v>
+        <v>180.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -8325,48 +8325,48 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45130</v>
+        <v>45494</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>93-97</t>
+          <t>107-88</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>16.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>166.5</v>
+        <v>186.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -8376,16 +8376,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45102</v>
+        <v>45423</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -8405,19 +8405,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>80-82</t>
+          <t>62-82</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>19.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>165.5</v>
+        <v>177.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -8427,95 +8427,95 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45781</v>
+        <v>45402</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>98-117</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45767</v>
+        <v>45165</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>105-73</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-19.5</v>
+        <v>21.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -8523,32 +8523,32 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45731</v>
+        <v>45025</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8558,11 +8558,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>82-86</t>
+          <t>75-88</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -8580,26 +8580,26 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45723</v>
+        <v>44786</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8609,15 +8609,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>76-96</t>
+          <t>57-62</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-1.5</v>
+        <v>28.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -8625,50 +8625,50 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45555</v>
+        <v>45772</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>95-59</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-19.5</v>
+        <v>17.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -8676,32 +8676,32 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45429</v>
+        <v>45738</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8711,11 +8711,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>65-117</t>
+          <t>100-161</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>12.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>170.5</v>
+        <v>176.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -8733,16 +8733,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45072</v>
+        <v>45730</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8762,11 +8762,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>51-77</t>
+          <t>85-111</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-1.5</v>
+        <v>20.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -8778,22 +8778,22 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45787</v>
+        <v>45508</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8813,11 +8813,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>106-96</t>
+          <t>90-89</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>181.5</v>
+        <v>167.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -8835,67 +8835,67 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45428</v>
+        <v>45486</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>164-100</t>
+          <t>67-84</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>9.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>162.5</v>
+        <v>165.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45423</v>
+        <v>45795</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -8910,16 +8910,16 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>120-52</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-43.5</v>
+        <v>9.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -8927,26 +8927,26 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45080</v>
+        <v>45788</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8966,89 +8966,89 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>112-87</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>4.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>158.5</v>
+        <v>172.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45073</v>
+        <v>45781</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>84-77</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>6.5</v>
+        <v>49.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>158.5</v>
+        <v>177.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44709</v>
+        <v>45771</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9068,11 +9068,11 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>54-121</t>
+          <t>63-83</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -9080,11 +9080,470 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>162.5</v>
+        <v>176.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>90-118</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
           <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>101-105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>85-46</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>147-69</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45528</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>168-75</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>90-85</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>95-48</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>104-79</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>66-94</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Under</t>
         </is>
       </c>
     </row>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,11 +526,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80-108</t>
+          <t>62-128</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-19.5</v>
+        <v>50.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,91 +548,91 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45786</v>
+        <v>45795</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>62-77</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>79-81</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1.5</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180.5</v>
+        <v>161.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,19 +730,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>56-127</t>
+          <t>74-124</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>60.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>181.5</v>
+        <v>180.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,11 +781,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>104-96</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>187.5</v>
+        <v>178.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,26 +803,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +832,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>106-96</t>
+          <t>115-39</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>18.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -844,36 +844,36 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -883,11 +883,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>49-66</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -895,36 +895,36 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>90-87</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-11.5</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,16 +956,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -985,11 +985,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>69-80</t>
+          <t>76-94</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-36.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>184.5</v>
+        <v>174.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1007,11 +1007,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>99-88</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>31.5</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1058,11 +1058,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1072,48 +1072,48 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>99-88</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>23.5</v>
+        <v>31.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1123,48 +1123,48 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>108-76</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-14.5</v>
+        <v>23.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>161.5</v>
+        <v>169.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45771</v>
+        <v>45780</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>108-76</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-19.5</v>
+        <v>-14.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1201,17 +1201,17 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>176.5</v>
+        <v>161.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45766</v>
+        <v>45771</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1252,26 +1252,26 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>166.5</v>
+        <v>176.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45793</v>
+        <v>45802</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1281,29 +1281,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-4.5</v>
+        <v>12.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>63-71</t>
+          <t>80-108</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-8.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1354,26 +1354,26 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45781</v>
+        <v>45786</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1383,29 +1383,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>62-77</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>169.5</v>
+        <v>167.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,67 +1415,67 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45774</v>
+        <v>45779</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>79-117</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45767</v>
+        <v>45773</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-19.5</v>
+        <v>12.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,17 +1507,17 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>170.5</v>
+        <v>180.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1546,48 +1546,48 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>68-78</t>
+          <t>78-131</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>15.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>173.5</v>
+        <v>167.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45787</v>
+        <v>45793</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-9.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,48 +1619,48 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>63-71</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-16.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,48 +1670,48 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>67-85</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>178.5</v>
+        <v>169.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,79 +1721,79 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>79-117</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-5.5</v>
+        <v>11.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>185.5</v>
+        <v>175.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>West Coast</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>W</t>
@@ -1801,11 +1801,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>79-81</t>
+          <t>68-78</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>172.5</v>
+        <v>173.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1874,40 +1874,40 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1915,50 +1915,50 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>161.5</v>
+        <v>175.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>74-124</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>60.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1966,17 +1966,17 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>180.5</v>
+        <v>174.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45765</v>
+        <v>45772</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,19 +2005,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>67-85</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>19.5</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>176.5</v>
+        <v>178.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>95-61</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-6.5</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2068,38 +2068,38 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45785</v>
+        <v>45794</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>L</t>
@@ -2107,11 +2107,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2119,26 +2119,26 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45779</v>
+        <v>45788</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2148,25 +2148,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>33-94</t>
+          <t>105-101</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.5</v>
+        <v>15.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2174,54 +2174,54 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>73-87</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>178.5</v>
+        <v>169.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2231,26 +2231,26 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2260,11 +2260,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>97-107</t>
+          <t>81-113</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-4.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>166.5</v>
+        <v>173.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2282,26 +2282,26 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45794</v>
+        <v>45800</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-18.5</v>
+        <v>18.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2384,40 +2384,40 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2425,50 +2425,50 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-30.5</v>
+        <v>49.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2476,26 +2476,26 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>184.5</v>
+        <v>177.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45767</v>
+        <v>45771</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>85-77</t>
+          <t>63-83</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>170.5</v>
+        <v>176.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2566,19 +2566,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>80-61</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2588,16 +2588,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45788</v>
+        <v>45792</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2607,21 +2607,21 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>104-96</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>36.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2629,50 +2629,50 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>175.5</v>
+        <v>187.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>106-96</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>17.5</v>
+        <v>2.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2680,26 +2680,26 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>184.5</v>
+        <v>181.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,38 +2719,38 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>88-97</t>
+          <t>49-66</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>30.5</v>
+        <v>12.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45765</v>
+        <v>45774</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>71-153</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>15.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>178.5</v>
+        <v>175.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2821,19 +2821,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-15.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>173.5</v>
+        <v>167.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45785</v>
+        <v>45794</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>97-83</t>
+          <t>95-61</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2884,38 +2884,38 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45780</v>
+        <v>45785</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Collingwood</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>L</t>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-3.5</v>
+        <v>8.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2945,77 +2945,77 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45772</v>
+        <v>45779</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>33-94</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-17.5</v>
+        <v>1.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>168.5</v>
+        <v>174.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>105-53</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>12.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>174.5</v>
+        <v>178.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45792</v>
+        <v>45801</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,39 +3066,39 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96-104</t>
+          <t>108-63</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>187.5</v>
+        <v>175.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3107,17 +3107,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3127,19 +3127,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>91-56</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-23.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>169.5</v>
+        <v>173.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3149,26 +3149,26 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45781</v>
+        <v>45785</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3178,11 +3178,11 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>109-44</t>
+          <t>97-83</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-49.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3190,26 +3190,26 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>177.5</v>
+        <v>160.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3219,21 +3219,21 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>124-74</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-60.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>180.5</v>
+        <v>171.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45768</v>
+        <v>45772</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3260,70 +3260,70 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>79-86</t>
+          <t>107-66</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-5.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>175.5</v>
+        <v>168.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Brisbane Lions</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>L</t>
@@ -3331,11 +3331,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>60-93</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-31.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,26 +3343,26 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45788</v>
+        <v>45792</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>96-104</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-36.5</v>
+        <v>5.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,36 +3394,36 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>175.5</v>
+        <v>187.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>91-56</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-12.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,26 +3455,26 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>118-73</t>
+          <t>109-44</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-12.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3496,26 +3496,26 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>180.5</v>
+        <v>177.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45764</v>
+        <v>45774</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3525,21 +3525,21 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>124-74</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-12.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3547,26 +3547,26 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>174.5</v>
+        <v>180.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45793</v>
+        <v>45801</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,29 +3576,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>62-78</t>
+          <t>93-60</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>164.5</v>
+        <v>172.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3608,67 +3608,67 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45786</v>
+        <v>45795</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-7.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>50-110</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>16.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3710,16 +3710,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3739,11 +3739,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>12.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45765</v>
+        <v>45773</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>153-71</t>
+          <t>118-73</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-15.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>178.5</v>
+        <v>180.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45794</v>
+        <v>45800</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,29 +3831,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,53 +3882,53 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>105-101</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3938,24 +3938,24 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>73-87</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,21 +3984,21 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>81-113</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-12.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,26 +4006,26 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>173.5</v>
+        <v>184.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45766</v>
+        <v>45772</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>34-52</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>5.5</v>
+        <v>17.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,1029 +4057,9 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>185.5</v>
+        <v>168.5</v>
       </c>
       <c r="K71" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>36-127</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>71-63</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>65-62</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45772</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>66-107</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>168.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45765</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Optus Stadium</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>77-75</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>-19.5</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45795</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>74-78</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>81-79</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45781</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>44-109</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45771</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>63-83</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45766</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>80-69</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Adelaide Oval</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>115-39</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>101-105</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45780</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>90-87</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45774</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>76-94</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45768</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>86-79</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>127-36</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TIO Stadium</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>96-106</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45780</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mars Stadium</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>131-41</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>-16.5</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Manuka Oval</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>113-81</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>127-56</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>Over</t>
         </is>
@@ -5096,7 +4076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,28 +4143,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45779</v>
+        <v>45795</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>W</t>
@@ -5192,11 +4172,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-1.5</v>
+        <v>19.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -5204,26 +4184,26 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5233,7 +4213,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5243,11 +4223,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -5255,7 +4235,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>180.5</v>
+        <v>161.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -5265,26 +4245,26 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5294,38 +4274,38 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>56-127</t>
+          <t>75-77</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.5</v>
+        <v>19.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>181.5</v>
+        <v>176.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5335,29 +4315,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>135-53</t>
+          <t>68-106</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-20.5</v>
+        <v>27.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>174.5</v>
+        <v>167.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5367,16 +4347,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45738</v>
+        <v>45732</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5386,29 +4366,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>98-91</t>
+          <t>49-136</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>173.5</v>
+        <v>166.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5418,16 +4398,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45766</v>
+        <v>45514</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5437,29 +4417,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>69-80</t>
+          <t>73-62</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-36.5</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>184.5</v>
+        <v>168.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5469,16 +4449,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45514</v>
+        <v>45066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5488,29 +4468,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>87-86</t>
+          <t>77-106</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>172.5</v>
+        <v>170.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5520,16 +4500,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45479</v>
+        <v>44730</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5539,21 +4519,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>83-87</t>
+          <t>81-63</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-20.5</v>
+        <v>-46.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -5561,7 +4541,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>172.5</v>
+        <v>151.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5571,26 +4551,26 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45451</v>
+        <v>45109</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5600,11 +4580,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>48-51</t>
+          <t>45-47</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-13.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -5612,7 +4592,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>162.5</v>
+        <v>158.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5622,21 +4602,21 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45437</v>
+        <v>45793</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5646,24 +4626,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>176.5</v>
+        <v>164.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5673,16 +4653,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45787</v>
+        <v>45781</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5692,25 +4672,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>23.5</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -5724,16 +4704,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45771</v>
+        <v>45767</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5743,17 +4723,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>77-85</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -5761,11 +4741,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -5775,16 +4755,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45766</v>
+        <v>45731</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5794,48 +4774,48 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>82-86</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>166.5</v>
+        <v>176.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45745</v>
+        <v>45723</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5845,7 +4825,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5855,11 +4835,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>62-120</t>
+          <t>76-96</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5877,26 +4857,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45732</v>
+        <v>45528</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5906,50 +4886,50 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>74-77</t>
+          <t>90-121</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45563</v>
+        <v>44765</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Sydney</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>L</t>
@@ -5957,11 +4937,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>60-120</t>
+          <t>85-118</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-3.5</v>
+        <v>28.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5969,7 +4949,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>170.5</v>
+        <v>154.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5979,48 +4959,48 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45410</v>
+        <v>45794</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>118-42</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-25.5</v>
+        <v>6.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>168.5</v>
+        <v>175.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -6030,72 +5010,72 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45382</v>
+        <v>45753</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>77-82</t>
+          <t>132-51</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-15.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>172.5</v>
+        <v>174.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45366</v>
+        <v>45725</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6110,11 +5090,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>102-69</t>
+          <t>104-52</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>14.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -6122,36 +5102,36 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>166.5</v>
+        <v>169.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45177</v>
+        <v>45549</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6161,48 +5141,48 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>68-74</t>
+          <t>100-105</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>166.5</v>
+        <v>167.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45787</v>
+        <v>45521</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -6212,48 +5192,48 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>101-92</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-9.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>175.5</v>
+        <v>162.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45780</v>
+        <v>45081</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6263,11 +5243,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>110-104</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-16.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -6275,26 +5255,26 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>174.5</v>
+        <v>164.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45766</v>
+        <v>45774</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6304,7 +5284,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6314,11 +5294,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-5.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6326,50 +5306,50 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>185.5</v>
+        <v>175.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45757</v>
+        <v>45752</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Adelaide</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>100-119</t>
+          <t>91-90</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -6377,26 +5357,26 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>179.5</v>
+        <v>185.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45746</v>
+        <v>45521</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6406,29 +5386,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>114-78</t>
+          <t>63-117</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-35.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>188.5</v>
+        <v>167.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -6438,26 +5418,26 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45759</v>
+        <v>45500</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6467,11 +5447,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>50-121</t>
+          <t>65-93</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>32.5</v>
+        <v>8.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -6479,7 +5459,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>176.5</v>
+        <v>172.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -6489,48 +5469,48 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45438</v>
+        <v>45487</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>38-137</t>
+          <t>96-82</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>29.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>163.5</v>
+        <v>165.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -6540,16 +5520,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45368</v>
+        <v>44696</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6559,7 +5539,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6569,11 +5549,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>70-120</t>
+          <t>33-69</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>45.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6581,31 +5561,31 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>173.5</v>
+        <v>150.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45087</v>
+        <v>45794</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6615,16 +5595,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>52-174</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>61.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6636,32 +5616,32 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45038</v>
+        <v>45780</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6671,11 +5651,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>69-109</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>38.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6683,26 +5663,26 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>178.5</v>
+        <v>171.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45785</v>
+        <v>45772</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6712,29 +5692,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>107-66</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160.5</v>
+        <v>168.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -6744,16 +5724,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45772</v>
+        <v>45750</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6763,7 +5743,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6773,11 +5753,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>63-46</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-3.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6785,7 +5765,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>178.5</v>
+        <v>167.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -6795,21 +5775,21 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45753</v>
+        <v>45737</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6824,11 +5804,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>97-81</t>
+          <t>76-70</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6836,109 +5816,109 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>168.5</v>
+        <v>176.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45746</v>
+        <v>45801</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>106-68</t>
+          <t>60-93</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-27.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45739</v>
+        <v>45787</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>65-68</t>
+          <t>91-56</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-6.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>164.5</v>
+        <v>169.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -6948,26 +5928,26 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45529</v>
+        <v>45781</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6977,11 +5957,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>87-67</t>
+          <t>109-44</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -6989,7 +5969,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>159.5</v>
+        <v>177.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -6999,16 +5979,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45158</v>
+        <v>45768</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7018,29 +5998,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>74-58</t>
+          <t>79-86</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-9.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>168.5</v>
+        <v>175.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -7050,16 +6030,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44745</v>
+        <v>45736</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7069,21 +6049,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>91-99</t>
+          <t>80-60</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>20.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -7091,36 +6071,36 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>155.5</v>
+        <v>170.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45778</v>
+        <v>45795</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -7130,38 +6110,38 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>17.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45765</v>
+        <v>45781</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7171,48 +6151,48 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>71-153</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>178.5</v>
+        <v>175.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45752</v>
+        <v>45764</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7222,7 +6202,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7232,11 +6212,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>52-117</t>
+          <t>53-105</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -7244,7 +6224,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -7254,16 +6234,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45739</v>
+        <v>45745</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7273,7 +6253,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7283,89 +6263,89 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>125-66</t>
+          <t>70-61</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>18.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>173.5</v>
+        <v>160.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45731</v>
+        <v>45739</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>97-113</t>
+          <t>94-75</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>26.5</v>
+        <v>-49.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45459</v>
+        <v>45528</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7375,58 +6355,58 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>119-118</t>
+          <t>67-87</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-34.5</v>
+        <v>30.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45443</v>
+        <v>45059</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7436,11 +6416,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>82-100</t>
+          <t>45-87</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-10.5</v>
+        <v>23.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -7448,36 +6428,36 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>169.5</v>
+        <v>181.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45424</v>
+        <v>44752</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7487,11 +6467,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>103-37</t>
+          <t>100-90</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-40.5</v>
+        <v>28.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -7499,2051 +6479,11 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>172.5</v>
+        <v>177.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45114</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>89-77</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45074</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>105-70</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>-58.5</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>91-56</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45781</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>109-44</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>-49.5</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45768</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>79-86</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>80-60</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>111-85</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>-20.5</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45752</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>118-90</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45563</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>120-60</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45556</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>95-85</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45521</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>78-79</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>82-60</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45765</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>153-71</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>75-83</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45529</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>74-76</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45499</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>65-79</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>-18.5</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45494</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>107-88</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>-30.5</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45423</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>62-82</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45402</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>98-117</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45165</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>105-73</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45025</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>75-88</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44786</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>57-62</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45772</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>66-107</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>168.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45738</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Adelaide</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>100-161</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>85-111</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>90-89</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45486</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>67-84</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>165.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45795</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>74-78</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>81-79</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45781</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>44-109</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45771</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>63-83</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45752</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>90-118</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>101-105</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>85-46</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>-22.5</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45731</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>147-69</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45528</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>168-75</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>-40.5</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45507</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Adelaide</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>90-85</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45493</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>95-48</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45164</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>104-79</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44772</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>66-94</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>163.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Under</t>
         </is>
       </c>
     </row>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,26 +497,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,11 +526,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>62-128</t>
+          <t>63-91</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>50.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,26 +538,26 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,11 +577,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.5</v>
+        <v>1.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,16 +599,16 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,21 +618,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>79-81</t>
+          <t>99-88</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>31.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -640,26 +640,26 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -691,50 +691,50 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>161.5</v>
+        <v>169.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>West Coast</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>74-124</t>
+          <t>108-76</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>60.5</v>
+        <v>-14.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>180.5</v>
+        <v>161.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,11 +781,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-1.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -793,26 +793,26 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>178.5</v>
+        <v>170.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +832,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>115-39</t>
+          <t>108-63</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -854,16 +854,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -895,26 +895,26 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>174.5</v>
+        <v>173.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45780</v>
+        <v>45785</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>90-87</t>
+          <t>97-83</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -965,19 +965,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Geelong</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>L</t>
@@ -985,11 +985,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>76-94</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-12.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,26 +997,26 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,29 +1026,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>82-110</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1058,16 +1058,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45795</v>
+        <v>45793</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1077,39 +1077,39 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>99-88</t>
+          <t>62-78</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>31.5</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45787</v>
+        <v>45786</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1118,39 +1118,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>23.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>169.5</v>
+        <v>167.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1179,39 +1179,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>108-76</t>
+          <t>50-110</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-14.5</v>
+        <v>16.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>161.5</v>
+        <v>174.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-19.5</v>
+        <v>12.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1262,26 +1262,26 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45802</v>
+        <v>45806</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>72-90</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>12.5</v>
+        <v>42.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,77 +1313,77 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>80-108</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-19.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45786</v>
+        <v>45794</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>62-77</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45779</v>
+        <v>45787</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-1.5</v>
+        <v>8.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,21 +1485,21 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,36 +1507,36 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>180.5</v>
+        <v>184.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>78-131</t>
+          <t>63-108</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-1.5</v>
+        <v>34.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1558,36 +1558,36 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45793</v>
+        <v>45795</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-4.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>164.5</v>
+        <v>175.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,26 +1619,26 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45787</v>
+        <v>45788</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1648,19 +1648,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>63-71</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-8.5</v>
+        <v>36.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,40 +1670,40 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45781</v>
+        <v>45778</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>62-65</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6.5</v>
+        <v>17.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>169.5</v>
+        <v>184.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1750,19 +1750,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>79-117</t>
+          <t>88-97</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>11.5</v>
+        <v>30.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>175.5</v>
+        <v>184.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,29 +1791,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>-50.5</v>
+        <v>38.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>165.5</v>
+        <v>171.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1823,28 +1823,28 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Adelaide</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>L</t>
@@ -1852,48 +1852,48 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>68-78</t>
+          <t>62-128</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>15.5</v>
+        <v>50.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>173.5</v>
+        <v>165.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,15 +1903,15 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-9.5</v>
+        <v>19.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1919,46 +1919,46 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>79-81</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-16.5</v>
+        <v>10.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45772</v>
+        <v>45780</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>67-85</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>14.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2017,21 +2017,21 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>178.5</v>
+        <v>161.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,33 +2056,33 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>169.5</v>
+        <v>173.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2092,48 +2092,48 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2143,48 +2143,48 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>105-101</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15.5</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2199,43 +2199,43 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>73-87</t>
+          <t>105-101</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-6.5</v>
+        <v>15.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>169.5</v>
+        <v>174.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2260,11 +2260,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>81-113</t>
+          <t>73-87</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-12.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2272,26 +2272,26 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>173.5</v>
+        <v>169.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45800</v>
+        <v>45801</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>51-100</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2362,15 +2362,15 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>9.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2384,16 +2384,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45788</v>
+        <v>45787</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2403,29 +2403,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-10.5</v>
+        <v>9.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2435,16 +2435,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>49.5</v>
+        <v>16.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2476,50 +2476,50 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>177.5</v>
+        <v>170.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45771</v>
+        <v>45773</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>63-83</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>19.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,26 +2527,26 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>176.5</v>
+        <v>184.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2566,11 +2566,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>80-61</t>
+          <t>116-73</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-12.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2582,22 +2582,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2617,11 +2617,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>104-96</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>187.5</v>
+        <v>178.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2639,26 +2639,26 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>106-96</t>
+          <t>115-39</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2.5</v>
+        <v>18.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2680,36 +2680,36 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>49-66</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>12.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2731,36 +2731,36 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>90-87</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-11.5</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2792,48 +2792,48 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-18.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>95-61</t>
+          <t>80-61</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-6.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2894,16 +2894,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2913,29 +2913,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>104-96</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>160.5</v>
+        <v>187.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2945,99 +2945,99 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45779</v>
+        <v>45787</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>33-94</t>
+          <t>106-96</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>174.5</v>
+        <v>181.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>49-66</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-3.5</v>
+        <v>12.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>178.5</v>
+        <v>175.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,21 +3066,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>77-80</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-34.5</v>
+        <v>44.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45794</v>
+        <v>45800</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3107,31 +3107,31 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-15.5</v>
+        <v>18.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>173.5</v>
+        <v>165.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3149,40 +3149,40 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45785</v>
+        <v>45795</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>97-83</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3190,17 +3190,17 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3219,21 +3219,21 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-3.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3241,17 +3241,17 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3260,58 +3260,58 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-17.5</v>
+        <v>49.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>168.5</v>
+        <v>177.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3331,11 +3331,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>60-93</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-10.5</v>
+        <v>5.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45792</v>
+        <v>45802</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96-104</t>
+          <t>78-131</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>187.5</v>
+        <v>167.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3404,26 +3404,26 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45787</v>
+        <v>45793</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>91-56</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-23.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>169.5</v>
+        <v>164.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,48 +3455,48 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>109-44</t>
+          <t>63-71</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-49.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>177.5</v>
+        <v>171.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3535,38 +3535,38 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>124-74</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-60.5</v>
+        <v>6.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>180.5</v>
+        <v>169.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3586,11 +3586,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>93-60</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3608,16 +3608,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3627,29 +3627,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-31.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,19 +3688,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>68-78</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-36.5</v>
+        <v>15.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3710,26 +3710,26 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3739,15 +3739,15 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-12.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3761,26 +3761,26 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>118-73</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-12.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3802,38 +3802,38 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>180.5</v>
+        <v>174.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Essendon</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>W</t>
@@ -3841,19 +3841,19 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-18.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>165.5</v>
+        <v>174.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,29 +3882,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>36-127</t>
+          <t>93-60</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>23.5</v>
+        <v>10.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3914,16 +3914,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3933,53 +3933,53 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>8.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3989,16 +3989,16 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-17.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4016,52 +4016,562 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45772</v>
+        <v>45781</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>Gabba</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>66-49</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>113-127</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>127-36</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TIO Stadium</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>96-106</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mars Stadium</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>131-41</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Manuka Oval</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>113-81</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>MCG</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Away</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Collingwood</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>66-107</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>56-107</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J71" t="n">
-        <v>168.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="J77" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>60-93</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TIO Stadium</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Gold Coast</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>96-104</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>91-56</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>109-44</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-49.5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4143,16 +4653,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4162,7 +4672,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4172,11 +4682,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19.5</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4184,7 +4694,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4194,16 +4704,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4213,7 +4723,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4223,11 +4733,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4235,26 +4745,26 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>161.5</v>
+        <v>169.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45765</v>
+        <v>45771</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4264,21 +4774,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4296,16 +4806,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45746</v>
+        <v>45766</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4320,24 +4830,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>68-106</t>
+          <t>107-97</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27.5</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>167.5</v>
+        <v>166.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4347,16 +4857,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45732</v>
+        <v>45745</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4376,11 +4886,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>49-136</t>
+          <t>62-120</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4388,7 +4898,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>166.5</v>
+        <v>170.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4398,26 +4908,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45514</v>
+        <v>45807</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4427,11 +4937,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>73-62</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4439,7 +4949,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>168.5</v>
+        <v>170.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4449,40 +4959,40 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45066</v>
+        <v>45794</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>77-106</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-22.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4490,50 +5000,50 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>170.5</v>
+        <v>173.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44730</v>
+        <v>45780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Geelong</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>81-63</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-46.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4541,26 +5051,26 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>151.5</v>
+        <v>171.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45109</v>
+        <v>45772</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4570,48 +5080,48 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45-47</t>
+          <t>107-66</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-27.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>158.5</v>
+        <v>168.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45793</v>
+        <v>45750</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4631,11 +5141,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>63-46</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-4.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -4643,7 +5153,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>164.5</v>
+        <v>167.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4653,26 +5163,26 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45781</v>
+        <v>45786</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4682,11 +5192,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4694,7 +5204,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>169.5</v>
+        <v>167.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4704,16 +5214,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4723,29 +5233,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-19.5</v>
+        <v>12.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -4755,26 +5265,26 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45731</v>
+        <v>45750</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4784,11 +5294,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>82-86</t>
+          <t>46-63</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4796,7 +5306,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>176.5</v>
+        <v>167.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -4806,16 +5316,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45723</v>
+        <v>45736</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4835,11 +5345,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>76-96</t>
+          <t>60-80</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-1.5</v>
+        <v>8.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4851,22 +5361,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45528</v>
+        <v>45729</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4876,7 +5386,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4886,11 +5396,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>90-121</t>
+          <t>69-82</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>18.5</v>
+        <v>-46.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4898,87 +5408,87 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>173.5</v>
+        <v>176.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44765</v>
+        <v>45800</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>85-118</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>28.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>154.5</v>
+        <v>165.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45794</v>
+        <v>45772</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4988,11 +5498,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.5</v>
+        <v>17.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5000,26 +5510,26 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>175.5</v>
+        <v>168.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45753</v>
+        <v>45738</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5029,29 +5539,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>132-51</t>
+          <t>100-161</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-42.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>174.5</v>
+        <v>176.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -5061,67 +5571,67 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45725</v>
+        <v>45730</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>104-52</t>
+          <t>85-111</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-7.5</v>
+        <v>20.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45549</v>
+        <v>45508</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5131,25 +5641,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>100-105</t>
+          <t>90-89</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-3.5</v>
+        <v>1.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -5163,11 +5673,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45521</v>
+        <v>45773</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5182,29 +5692,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>101-92</t>
+          <t>81-113</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-8.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>162.5</v>
+        <v>173.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5214,26 +5724,26 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45081</v>
+        <v>45508</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5243,38 +5753,38 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>110-104</t>
+          <t>84-82</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-1.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>164.5</v>
+        <v>167.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45774</v>
+        <v>45407</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5284,7 +5794,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5294,11 +5804,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>113-59</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-11.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5306,7 +5816,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5316,16 +5826,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45752</v>
+        <v>45395</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5335,7 +5845,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5345,11 +5855,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>91-90</t>
+          <t>80-79</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-2.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5357,7 +5867,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>185.5</v>
+        <v>164.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5367,67 +5877,67 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45521</v>
+        <v>45130</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Gold Coast</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>63-117</t>
+          <t>103-63</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-12.5</v>
+        <v>-13.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>167.5</v>
+        <v>166.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45500</v>
+        <v>45799</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5437,48 +5947,48 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>65-93</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>172.5</v>
+        <v>178.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45487</v>
+        <v>45788</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5488,29 +5998,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96-82</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-12.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>165.5</v>
+        <v>174.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5520,48 +6030,48 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44696</v>
+        <v>45751</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>33-69</t>
+          <t>85-46</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-15.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>150.5</v>
+        <v>173.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5571,16 +6081,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45794</v>
+        <v>45731</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5590,7 +6100,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5600,38 +6110,38 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>147-69</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-15.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>173.5</v>
+        <v>170.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45780</v>
+        <v>45528</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5641,29 +6151,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>168-75</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-3.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>171.5</v>
+        <v>177.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5673,7 +6183,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45772</v>
+        <v>45800</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5682,12 +6192,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5697,34 +6207,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>168.5</v>
+        <v>165.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45750</v>
+        <v>45795</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -5733,7 +6243,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5743,21 +6253,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>63-46</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-10.5</v>
+        <v>9.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -5765,7 +6275,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5775,7 +6285,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45737</v>
+        <v>45788</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -5784,17 +6294,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5804,19 +6314,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>76-70</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-2.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>176.5</v>
+        <v>172.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5826,7 +6336,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45801</v>
+        <v>45781</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -5835,19 +6345,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Hawthorn</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>L</t>
@@ -5855,11 +6365,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>60-93</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-10.5</v>
+        <v>49.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -5867,7 +6377,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>172.5</v>
+        <v>177.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5877,7 +6387,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45787</v>
+        <v>45771</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -5886,7 +6396,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5901,24 +6411,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>91-56</t>
+          <t>63-83</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-23.5</v>
+        <v>19.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>169.5</v>
+        <v>176.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5928,7 +6438,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45781</v>
+        <v>45802</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -5937,49 +6447,49 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>109-44</t>
+          <t>78-131</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-49.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>177.5</v>
+        <v>167.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45768</v>
+        <v>45563</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5988,17 +6498,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6008,11 +6518,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>79-86</t>
+          <t>60-120</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -6020,17 +6530,17 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45736</v>
+        <v>45410</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -6039,19 +6549,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Hawthorn</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>W</t>
@@ -6059,11 +6569,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>80-60</t>
+          <t>118-42</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-8.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -6071,7 +6581,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -6081,26 +6591,26 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45795</v>
+        <v>45382</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6110,11 +6620,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>77-82</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-31.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -6122,36 +6632,36 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45781</v>
+        <v>45366</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6161,11 +6671,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>102-69</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-12.5</v>
+        <v>14.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -6173,26 +6683,26 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>175.5</v>
+        <v>166.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45764</v>
+        <v>45802</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6202,58 +6712,58 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-12.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>174.5</v>
+        <v>165.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45745</v>
+        <v>45787</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6263,11 +6773,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>70-61</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-11.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -6275,7 +6785,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -6285,16 +6795,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45739</v>
+        <v>45780</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6304,7 +6814,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6314,19 +6824,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>94-75</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-49.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -6336,40 +6846,40 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45528</v>
+        <v>45766</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>67-87</t>
+          <t>52-34</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>30.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -6377,7 +6887,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>171.5</v>
+        <v>185.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -6387,26 +6897,26 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45059</v>
+        <v>45757</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6416,11 +6926,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>45-87</t>
+          <t>100-119</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>23.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -6428,60 +6938,774 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>181.5</v>
+        <v>179.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44752</v>
+        <v>45465</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>152-73</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Adelaide Oval</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>90-90</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Adelaide Oval</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>78-95</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Adelaide Oval</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>72-126</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44758</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Adelaide Oval</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>99-59</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Essendon</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>127-36</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>127-56</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Away</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>83-75</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>113-97</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45522</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>138-42</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>124-74</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>-60.5</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Brisbane Lions</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>100-90</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>100-75</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J47" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="J58" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>98-91</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>113-68</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>93-122</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>Over</t>
         </is>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,26 +497,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,11 +526,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>63-91</t>
+          <t>52-62</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-11.5</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,16 +548,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,29 +567,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.5</v>
+        <v>38.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,16 +599,16 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,29 +618,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>99-88</t>
+          <t>62-128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31.5</v>
+        <v>50.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,48 +669,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>23.5</v>
+        <v>19.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -720,21 +720,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>108-76</t>
+          <t>79-81</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-14.5</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,17 +742,17 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>161.5</v>
+        <v>172.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45807</v>
+        <v>45816</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -812,82 +812,82 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>82-110</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-34.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45794</v>
+        <v>45793</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>62-78</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-15.5</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>173.5</v>
+        <v>164.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>97-83</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-8.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,11 +946,11 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160.5</v>
+        <v>167.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -960,22 +960,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -985,11 +985,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>50-110</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-3.5</v>
+        <v>16.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1031,43 +1031,43 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>66-50</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-4.5</v>
+        <v>16.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45793</v>
+        <v>45801</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1087,11 +1087,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>62-78</t>
+          <t>51-100</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>18.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>164.5</v>
+        <v>167.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1109,48 +1109,48 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45786</v>
+        <v>45794</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-7.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1189,19 +1189,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>50-110</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1211,77 +1211,77 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45774</v>
+        <v>45780</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45806</v>
+        <v>45817</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>72-90</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>42.5</v>
+        <v>24.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45800</v>
+        <v>45809</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,29 +1332,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>63-91</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-18.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1364,77 +1364,77 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>36-127</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23.5</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>99-88</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8.5</v>
+        <v>31.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,26 +1456,26 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,21 +1485,21 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-17.5</v>
+        <v>23.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>184.5</v>
+        <v>169.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1517,11 +1517,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45801</v>
+        <v>45816</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1536,29 +1536,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>63-108</t>
+          <t>62-52</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>34.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1568,11 +1568,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1582,26 +1582,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>63-108</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-9.5</v>
+        <v>34.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1619,11 +1619,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1633,30 +1633,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>36.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1670,11 +1670,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>17.5</v>
+        <v>36.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,11 +1721,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>88-97</t>
+          <t>62-65</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>30.5</v>
+        <v>17.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1766,134 +1766,134 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>75-64</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>62-128</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>50.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>95-61</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1919,32 +1919,32 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45788</v>
+        <v>45785</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,48 +1954,48 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>79-81</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>172.5</v>
+        <v>160.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>33-94</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.5</v>
+        <v>1.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>161.5</v>
+        <v>174.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-44.5</v>
+        <v>18.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2078,16 +2078,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2097,21 +2097,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>72-90</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>42.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2119,26 +2119,26 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>169.5</v>
+        <v>174.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45794</v>
+        <v>45800</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2148,29 +2148,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2180,16 +2180,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2199,53 +2199,53 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>105-101</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2255,24 +2255,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>73-87</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2282,48 +2282,48 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>51-100</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>18.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,67 +2333,67 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45794</v>
+        <v>45809</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>116-73</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-18.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45787</v>
+        <v>45799</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2403,21 +2403,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2425,77 +2425,77 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>175.5</v>
+        <v>178.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>115-39</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45773</v>
+        <v>45788</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,21 +2505,21 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-30.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>184.5</v>
+        <v>174.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45809</v>
+        <v>45814</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2556,21 +2556,21 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>116-73</t>
+          <t>63-68</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-38.5</v>
+        <v>10.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2582,22 +2582,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2617,38 +2617,38 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-1.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>178.5</v>
+        <v>174.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>115-39</t>
+          <t>93-60</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2690,16 +2690,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-15.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,48 +2760,48 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>90-87</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>50-66</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,26 +2843,26 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45802</v>
+        <v>45808</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,19 +2872,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>80-61</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-12.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>171.5</v>
+        <v>173.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2894,26 +2894,26 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45792</v>
+        <v>45801</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>104-96</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>187.5</v>
+        <v>169.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2945,16 +2945,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2964,48 +2964,48 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>106-96</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3015,48 +3015,48 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>49-66</t>
+          <t>105-101</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45808</v>
+        <v>45813</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,21 +3066,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>77-80</t>
+          <t>81-59</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>44.5</v>
+        <v>1.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>56-107</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>165.5</v>
+        <v>170.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3178,19 +3178,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>60-93</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3200,40 +3200,40 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45788</v>
+        <v>45792</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>96-104</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-10.5</v>
+        <v>5.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3241,17 +3241,17 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>172.5</v>
+        <v>187.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3270,29 +3270,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>91-56</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>49.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>177.5</v>
+        <v>169.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,21 +3321,21 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3353,67 +3353,67 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45802</v>
+        <v>45808</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Sydney</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>78-131</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-1.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45793</v>
+        <v>45802</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-4.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3445,26 +3445,26 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>164.5</v>
+        <v>165.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3484,19 +3484,19 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>63-71</t>
+          <t>68-78</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-8.5</v>
+        <v>15.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>171.5</v>
+        <v>173.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,26 +3506,26 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45781</v>
+        <v>45787</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3535,19 +3535,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3586,11 +3586,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>91-63</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-5.5</v>
+        <v>11.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3612,12 +3612,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3627,48 +3627,48 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-50.5</v>
+        <v>12.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>165.5</v>
+        <v>171.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45794</v>
+        <v>45795</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,62 +3688,62 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>68-78</t>
+          <t>80-108</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>15.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45787</v>
+        <v>45786</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>62-77</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-9.5</v>
+        <v>7.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3761,16 +3761,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-16.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,21 +3831,21 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-42.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45801</v>
+        <v>45799</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,48 +3882,48 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>93-60</t>
+          <t>113-127</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>172.5</v>
+        <v>178.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3933,25 +3933,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-31.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3959,22 +3959,22 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45788</v>
+        <v>45787</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3994,11 +3994,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>96-106</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-36.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,26 +4006,26 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>175.5</v>
+        <v>181.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Mars Stadium</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-12.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,521 +4057,11 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45799</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GMHBA Stadium</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>113-127</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
           <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>127-36</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TIO Stadium</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>96-106</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45780</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Mars Stadium</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>131-41</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>-16.5</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Manuka Oval</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>113-81</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>56-107</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45801</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>60-93</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45792</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TIO Stadium</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>96-104</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>91-56</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45781</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>MCG</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>109-44</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>-49.5</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Under</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,16 +4143,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4672,29 +4162,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>38.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4704,16 +4194,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4723,99 +4213,99 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23.5</v>
+        <v>19.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45771</v>
+        <v>45780</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-19.5</v>
+        <v>14.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>176.5</v>
+        <v>161.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4825,21 +4315,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>75-77</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>19.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4847,26 +4337,26 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>166.5</v>
+        <v>176.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4876,7 +4366,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4886,11 +4376,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>62-120</t>
+          <t>68-106</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-6.5</v>
+        <v>27.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4898,7 +4388,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>170.5</v>
+        <v>167.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4908,26 +4398,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45807</v>
+        <v>45522</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4937,11 +4427,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>99-34</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-8.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4949,7 +4439,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>170.5</v>
+        <v>164.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4959,26 +4449,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45794</v>
+        <v>45116</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4988,19 +4478,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>98-45</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-15.5</v>
+        <v>12.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>173.5</v>
+        <v>159.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5010,48 +4500,48 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45780</v>
+        <v>45045</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>152-44</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-3.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>171.5</v>
+        <v>173.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5061,26 +4551,26 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45772</v>
+        <v>44752</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5090,11 +4580,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>116-53</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-17.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -5102,7 +4592,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>168.5</v>
+        <v>157.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5112,48 +4602,48 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45750</v>
+        <v>44674</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>63-46</t>
+          <t>62-97</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-10.5</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>167.5</v>
+        <v>161.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5163,48 +4653,48 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45786</v>
+        <v>45794</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-7.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5214,16 +4704,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45774</v>
+        <v>45787</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5233,21 +4723,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5255,7 +4745,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -5265,40 +4755,40 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45750</v>
+        <v>45773</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>46-63</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5306,26 +4796,26 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>167.5</v>
+        <v>184.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45736</v>
+        <v>45760</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5340,53 +4830,53 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>60-80</t>
+          <t>121-91</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45729</v>
+        <v>45753</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5396,11 +4886,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>69-82</t>
+          <t>72-89</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-46.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5408,7 +4898,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>176.5</v>
+        <v>167.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5418,48 +4908,48 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45800</v>
+        <v>45759</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Essendon</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>57-96</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-18.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5469,16 +4959,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45772</v>
+        <v>45386</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5488,80 +4978,80 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>66-107</t>
+          <t>78-63</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>168.5</v>
+        <v>169.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45738</v>
+        <v>45381</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>100-161</t>
+          <t>96-89</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-2.5</v>
+        <v>11.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>176.5</v>
+        <v>165.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -5571,16 +5061,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45730</v>
+        <v>45065</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5590,7 +5080,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5600,11 +5090,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>85-111</t>
+          <t>76-80</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>20.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5616,54 +5106,54 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45508</v>
+        <v>45031</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Essendon</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>90-89</t>
+          <t>77-104</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>167.5</v>
+        <v>166.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -5673,91 +5163,91 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45773</v>
+        <v>45451</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>81-113</t>
+          <t>74-65</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-12.5</v>
+        <v>19.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>173.5</v>
+        <v>156.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45508</v>
+        <v>45137</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>84-82</t>
+          <t>67-72</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-7.5</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5775,26 +5265,26 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45407</v>
+        <v>45010</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5804,11 +5294,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>113-59</t>
+          <t>73-72</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-7.5</v>
+        <v>36.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5816,50 +5306,50 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>171.5</v>
+        <v>158.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45395</v>
+        <v>44687</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>80-79</t>
+          <t>24-102</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-18.5</v>
+        <v>33.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5867,7 +5357,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>164.5</v>
+        <v>160.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5877,16 +5367,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45130</v>
+        <v>45801</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5896,7 +5386,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5906,11 +5396,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>103-63</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-13.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5918,7 +5408,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>166.5</v>
+        <v>167.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5928,16 +5418,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45799</v>
+        <v>45785</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5947,29 +5437,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>-1.5</v>
+        <v>8.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>178.5</v>
+        <v>160.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -5979,16 +5469,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45788</v>
+        <v>45772</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5998,48 +5488,48 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-15.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>174.5</v>
+        <v>178.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45751</v>
+        <v>45753</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6049,7 +5539,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6059,11 +5549,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>85-46</t>
+          <t>97-81</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-22.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6071,36 +5561,36 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>173.5</v>
+        <v>168.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45731</v>
+        <v>45746</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6110,11 +5600,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>147-69</t>
+          <t>106-68</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-10.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6122,7 +5612,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170.5</v>
+        <v>167.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -6132,40 +5622,40 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45528</v>
+        <v>45816</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>168-75</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-40.5</v>
+        <v>18.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6173,11 +5663,11 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>177.5</v>
+        <v>171.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -6192,35 +5682,35 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>18.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -6234,7 +5724,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45795</v>
+        <v>45772</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -6243,17 +5733,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6263,29 +5753,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>175.5</v>
+        <v>168.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45788</v>
+        <v>45738</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6294,7 +5784,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6304,21 +5794,21 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>100-161</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-10.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6326,17 +5816,17 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45781</v>
+        <v>45730</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6345,7 +5835,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6365,11 +5855,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>85-111</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>49.5</v>
+        <v>20.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -6377,17 +5867,17 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>177.5</v>
+        <v>170.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45771</v>
+        <v>45780</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6396,7 +5886,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6406,39 +5896,39 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>63-83</t>
+          <t>90-87</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>19.5</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45802</v>
+        <v>45774</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -6447,7 +5937,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6457,7 +5947,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6467,11 +5957,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>78-131</t>
+          <t>76-94</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-1.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -6479,17 +5969,17 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>167.5</v>
+        <v>174.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45563</v>
+        <v>45768</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -6498,7 +5988,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6508,39 +5998,39 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>60-120</t>
+          <t>86-79</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45410</v>
+        <v>45556</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -6549,49 +6039,49 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>118-42</t>
+          <t>85-95</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-25.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>168.5</v>
+        <v>173.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45382</v>
+        <v>45485</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -6600,7 +6090,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6610,29 +6100,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>77-82</t>
+          <t>91-71</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-15.5</v>
+        <v>9.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>172.5</v>
+        <v>169.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -6642,26 +6132,26 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45366</v>
+        <v>45806</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6671,38 +6161,38 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>102-69</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>14.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>166.5</v>
+        <v>174.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45802</v>
+        <v>45795</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6712,29 +6202,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-50.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>165.5</v>
+        <v>175.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -6744,26 +6234,26 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45787</v>
+        <v>45781</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6773,15 +6263,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -6795,16 +6285,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45780</v>
+        <v>45764</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6814,25 +6304,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>53-105</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-16.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -6846,16 +6336,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45766</v>
+        <v>45745</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6865,7 +6355,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6875,19 +6365,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>70-61</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-5.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>185.5</v>
+        <v>160.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -6897,91 +6387,91 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45757</v>
+        <v>45514</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>100-119</t>
+          <t>82-64</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-6.5</v>
+        <v>18.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>179.5</v>
+        <v>177.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45465</v>
+        <v>44709</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Brisbane Lions</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>152-73</t>
+          <t>96-110</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2.5</v>
+        <v>32.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -6989,7 +6479,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>168.5</v>
+        <v>175.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -6999,99 +6489,99 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45424</v>
+        <v>45745</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>90-90</t>
+          <t>76-64</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>168.5</v>
+        <v>166.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45074</v>
+        <v>45528</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>78-95</t>
+          <t>170-46</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-1.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>171.5</v>
+        <v>176.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -7101,48 +6591,48 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45003</v>
+        <v>45486</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>72-126</t>
+          <t>87-74</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>170.5</v>
+        <v>159.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -7152,21 +6642,21 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44758</v>
+        <v>45451</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -7181,11 +6671,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>99-59</t>
+          <t>85-79</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-17.5</v>
+        <v>14.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7193,26 +6683,26 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>172.5</v>
+        <v>160.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45794</v>
+        <v>45423</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7222,7 +6712,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7232,11 +6722,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>58-53</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-23.5</v>
+        <v>11.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -7244,7 +6734,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>175.5</v>
+        <v>159.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -7254,26 +6744,26 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45767</v>
+        <v>45039</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7283,29 +6773,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>127-56</t>
+          <t>79-76</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-6.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>181.5</v>
+        <v>174.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45744</v>
+        <v>45802</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -7314,39 +6804,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>83-75</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -7356,7 +6846,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45731</v>
+        <v>45779</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -7365,7 +6855,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7375,7 +6865,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7385,15 +6875,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>113-97</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-26.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -7401,13 +6891,13 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45522</v>
+        <v>45773</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -7416,7 +6906,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7426,29 +6916,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>138-42</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-39.5</v>
+        <v>12.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>176.5</v>
+        <v>180.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -7458,7 +6948,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45774</v>
+        <v>45767</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7467,31 +6957,31 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>124-74</t>
+          <t>56-127</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-60.5</v>
+        <v>6.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -7499,7 +6989,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>180.5</v>
+        <v>181.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -7509,7 +6999,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45438</v>
+        <v>45745</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -7518,7 +7008,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7528,7 +7018,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7538,11 +7028,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>100-75</t>
+          <t>135-53</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>15.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -7550,7 +7040,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>166.5</v>
+        <v>174.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -7560,7 +7050,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45417</v>
+        <v>45813</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -7569,49 +7059,49 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Hawthorn</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>98-91</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>20.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45403</v>
+        <v>45794</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -7620,17 +7110,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7640,11 +7130,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>113-68</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-16.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -7652,17 +7142,17 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45137</v>
+        <v>45767</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -7671,7 +7161,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7686,26 +7176,128 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>93-122</t>
+          <t>127-56</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>83-75</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>113-97</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J61" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
+      <c r="J63" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>Over</t>
         </is>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45816</v>
+        <v>45820</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,25 +516,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>52-62</t>
+          <t>132-60</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -542,22 +542,22 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45809</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,11 +577,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>38.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -593,22 +593,22 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45802</v>
+        <v>45799</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,11 +628,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>62-128</t>
+          <t>113-127</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>50.5</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>165.5</v>
+        <v>178.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -695,22 +695,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45788</v>
+        <v>45787</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,29 +730,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>79-81</t>
+          <t>96-106</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>172.5</v>
+        <v>181.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,21 +771,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-18.5</v>
+        <v>24.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -832,38 +832,38 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>77-80</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-4.5</v>
+        <v>44.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>169.5</v>
+        <v>173.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -883,11 +883,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>62-78</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>18.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>164.5</v>
+        <v>165.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45786</v>
+        <v>45795</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -914,31 +914,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-7.5</v>
+        <v>9.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,40 +956,40 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45780</v>
+        <v>45788</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>50-110</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>66-50</t>
+          <t>107-96</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1052,34 +1052,34 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>L</t>
@@ -1087,11 +1087,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>51-100</t>
+          <t>50-66</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1109,16 +1109,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45794</v>
+        <v>45808</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1128,21 +1128,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-18.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1160,40 +1160,40 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45787</v>
+        <v>45801</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1201,36 +1201,36 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1252,36 +1252,36 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45817</v>
+        <v>45815</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,15 +1291,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>37-61</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>24.5</v>
+        <v>10.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>63-91</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-11.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>80-61</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1405,36 +1405,36 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45795</v>
+        <v>45792</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>99-88</t>
+          <t>104-96</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>31.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>175.5</v>
+        <v>187.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,58 +1485,58 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>106-96</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>23.5</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>169.5</v>
+        <v>181.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1546,15 +1546,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>62-52</t>
+          <t>72-71</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-5.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1568,16 +1568,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>63-108</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>34.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,28 +1619,28 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>North Melbourne</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>W</t>
@@ -1648,15 +1648,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>108-63</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-9.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1670,16 +1670,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45788</v>
+        <v>45794</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1689,29 +1689,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>36.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45778</v>
+        <v>45785</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1740,21 +1740,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>97-83</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>17.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1762,87 +1762,87 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>184.5</v>
+        <v>160.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45808</v>
+        <v>45820</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>75-64</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45801</v>
+        <v>45809</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>91-63</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-18.5</v>
+        <v>11.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1874,48 +1874,48 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>95-61</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-6.5</v>
+        <v>12.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45785</v>
+        <v>45795</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1934,17 +1934,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>80-108</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1976,26 +1976,26 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45779</v>
+        <v>45786</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>33-94</t>
+          <t>62-77</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>174.5</v>
+        <v>167.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2027,40 +2027,40 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>18.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2078,16 +2078,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45806</v>
+        <v>45815</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2097,21 +2097,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>72-90</t>
+          <t>66-50</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>42.5</v>
+        <v>16.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2129,48 +2129,48 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45800</v>
+        <v>45801</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>51-100</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-18.5</v>
+        <v>18.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>36-127</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>23.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2250,21 +2250,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>80-36</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-10.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2333,87 +2333,87 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>116-73</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-38.5</v>
+        <v>5.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>78-131</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>178.5</v>
+        <v>167.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2435,26 +2435,26 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45794</v>
+        <v>45793</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>115-39</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>18.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2486,26 +2486,26 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45788</v>
+        <v>45787</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>63-71</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-15.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,26 +2527,26 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45814</v>
+        <v>45823</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2556,21 +2556,21 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>63-68</t>
+          <t>86-52</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2588,16 +2588,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45806</v>
+        <v>45816</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2617,11 +2617,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-42.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2643,73 +2643,73 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>93-60</t>
+          <t>82-110</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>172.5</v>
+        <v>169.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45795</v>
+        <v>45793</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>62-78</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-31.5</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2731,26 +2731,26 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45788</v>
+        <v>45786</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-36.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2821,19 +2821,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>50-66</t>
+          <t>67-73</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-16.5</v>
+        <v>31.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,19 +2872,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>62-52</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-44.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2903,82 +2903,82 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>63-108</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4.5</v>
+        <v>34.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45794</v>
+        <v>45795</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Ninja</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>105-101</t>
+          <t>71-71</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>15.5</v>
+        <v>36.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3037,26 +3037,26 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3076,11 +3076,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>81-59</t>
+          <t>151-56</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3092,54 +3092,54 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45807</v>
+        <v>45815</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>56-107</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3149,99 +3149,99 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45801</v>
+        <v>45809</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>60-93</t>
+          <t>116-73</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-10.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96-104</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>187.5</v>
+        <v>178.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3280,11 +3280,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>91-56</t>
+          <t>115-39</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-23.5</v>
+        <v>18.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45814</v>
+        <v>45822</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,21 +3321,21 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-10.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3347,46 +3347,46 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Adelaide</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>63-68</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-5.5</v>
+        <v>10.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45802</v>
+        <v>45806</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3433,29 +3433,29 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-50.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>165.5</v>
+        <v>174.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3474,21 +3474,21 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>68-78</t>
+          <t>93-60</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>173.5</v>
+        <v>172.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,40 +3506,40 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-9.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3551,22 +3551,22 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45809</v>
+        <v>45822</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>91-63</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>11.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>169.5</v>
+        <v>161.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3608,21 +3608,21 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45802</v>
+        <v>45808</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3632,24 +3632,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>75-64</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3668,90 +3668,90 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>80-108</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-19.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45786</v>
+        <v>45794</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>62-77</t>
+          <t>95-61</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>7.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3761,16 +3761,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45779</v>
+        <v>45785</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3780,48 +3780,48 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-1.5</v>
+        <v>8.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>174.5</v>
+        <v>160.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>56-151</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-1.5</v>
+        <v>30.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3857,22 +3857,22 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45799</v>
+        <v>45816</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3892,62 +3892,62 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>113-127</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1.5</v>
+        <v>18.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>178.5</v>
+        <v>171.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45794</v>
+        <v>45806</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>72-90</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-23.5</v>
+        <v>42.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,103 +3965,103 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45787</v>
+        <v>45800</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>96-106</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-2.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>181.5</v>
+        <v>165.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mars Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Western Bulldogs</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-16.5</v>
+        <v>23.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4143,44 +4143,44 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45809</v>
+        <v>45820</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>132-60</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>38.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -4194,16 +4194,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45795</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4213,48 +4213,48 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4264,48 +4264,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>161.5</v>
+        <v>175.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45765</v>
+        <v>45767</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4315,21 +4315,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>127-56</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4337,87 +4337,87 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>176.5</v>
+        <v>181.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>68-106</t>
+          <t>83-75</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27.5</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45522</v>
+        <v>45766</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4427,11 +4427,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>99-34</t>
+          <t>80-69</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-17.5</v>
+        <v>36.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>164.5</v>
+        <v>184.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4449,16 +4449,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45116</v>
+        <v>45745</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4468,99 +4468,99 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>98-45</t>
+          <t>53-135</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12.5</v>
+        <v>20.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>159.5</v>
+        <v>174.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45045</v>
+        <v>45515</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>152-44</t>
+          <t>51-99</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-30.5</v>
+        <v>26.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>173.5</v>
+        <v>160.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44752</v>
+        <v>45507</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4570,48 +4570,48 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>116-53</t>
+          <t>77-90</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-11.5</v>
+        <v>8.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>157.5</v>
+        <v>175.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44674</v>
+        <v>45151</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4631,11 +4631,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>62-97</t>
+          <t>57-93</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>161.5</v>
+        <v>166.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4653,16 +4653,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45794</v>
+        <v>45808</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4672,21 +4672,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-18.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4704,16 +4704,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4733,15 +4733,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -4755,16 +4755,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45773</v>
+        <v>45753</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4784,19 +4784,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>132-51</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-30.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>184.5</v>
+        <v>174.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -4806,16 +4806,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45760</v>
+        <v>45725</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4835,11 +4835,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>121-91</t>
+          <t>104-52</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4847,26 +4847,26 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>172.5</v>
+        <v>169.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45753</v>
+        <v>45549</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4886,11 +4886,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>72-89</t>
+          <t>100-105</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-15.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4902,32 +4902,32 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45759</v>
+        <v>45493</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4937,11 +4937,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>57-96</t>
+          <t>50-89</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1.5</v>
+        <v>17.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>169.5</v>
+        <v>168.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45386</v>
+        <v>44653</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4978,29 +4978,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>78-63</t>
+          <t>57-83</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-1.5</v>
+        <v>15.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>169.5</v>
+        <v>149.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -5010,16 +5010,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45381</v>
+        <v>45801</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5039,11 +5039,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96-89</t>
+          <t>108-63</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5051,26 +5051,26 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>165.5</v>
+        <v>175.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45065</v>
+        <v>45459</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5080,21 +5080,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>76-80</t>
+          <t>119-118</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-4.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5102,36 +5102,36 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>170.5</v>
+        <v>173.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45031</v>
+        <v>45443</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5141,11 +5141,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>77-104</t>
+          <t>82-100</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-18.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>166.5</v>
+        <v>169.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -5163,21 +5163,21 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45451</v>
+        <v>45424</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5192,11 +5192,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>74-65</t>
+          <t>103-37</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>19.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>156.5</v>
+        <v>172.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5214,16 +5214,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45137</v>
+        <v>45114</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5233,29 +5233,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>67-72</t>
+          <t>89-77</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>167.5</v>
+        <v>166.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5265,77 +5265,77 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45010</v>
+        <v>45820</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>73-72</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>36.5</v>
+        <v>20.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>158.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44687</v>
+        <v>45802</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5345,11 +5345,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24-102</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>33.5</v>
+        <v>12.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160.5</v>
+        <v>171.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5367,28 +5367,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45801</v>
+        <v>45779</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>W</t>
@@ -5396,11 +5396,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-18.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>167.5</v>
+        <v>174.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5418,16 +5418,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45785</v>
+        <v>45773</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5447,11 +5447,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160.5</v>
+        <v>180.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -5469,67 +5469,67 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45772</v>
+        <v>45767</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>56-127</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45753</v>
+        <v>45823</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5549,11 +5549,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>97-81</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -5561,87 +5561,87 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>168.5</v>
+        <v>171.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45746</v>
+        <v>45794</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>106-68</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-27.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45816</v>
+        <v>45787</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5673,16 +5673,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45800</v>
+        <v>45773</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5702,70 +5702,70 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-18.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>165.5</v>
+        <v>184.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45772</v>
+        <v>45760</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>66-107</t>
+          <t>121-91</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>168.5</v>
+        <v>172.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5775,26 +5775,26 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45738</v>
+        <v>45758</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5804,11 +5804,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>100-161</t>
+          <t>78-109</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-2.5</v>
+        <v>10.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5826,16 +5826,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45730</v>
+        <v>45507</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5855,11 +5855,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>85-111</t>
+          <t>36-148</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>20.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5877,16 +5877,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45780</v>
+        <v>45458</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5906,11 +5906,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>90-87</t>
+          <t>109-67</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>171.5</v>
+        <v>168.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5928,16 +5928,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45774</v>
+        <v>45157</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5947,29 +5947,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>76-94</t>
+          <t>74-73</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-12.5</v>
+        <v>7.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5979,26 +5979,26 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45768</v>
+        <v>45030</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>86-79</t>
+          <t>122-78</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -6020,17 +6020,17 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45556</v>
+        <v>45816</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6049,21 +6049,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>85-95</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-5.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -6071,17 +6071,17 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45485</v>
+        <v>45786</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6110,11 +6110,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>91-71</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>169.5</v>
+        <v>167.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -6132,16 +6132,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45806</v>
+        <v>45774</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6161,15 +6161,15 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-42.5</v>
+        <v>12.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -6183,26 +6183,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45795</v>
+        <v>45750</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6212,11 +6212,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>46-63</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-31.5</v>
+        <v>10.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -6224,26 +6224,26 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45781</v>
+        <v>45736</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6253,29 +6253,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>60-80</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-12.5</v>
+        <v>8.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -6285,40 +6285,40 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45764</v>
+        <v>45795</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-12.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -6336,48 +6336,48 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45745</v>
+        <v>45465</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>70-61</t>
+          <t>67-70</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-11.5</v>
+        <v>33.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>160.5</v>
+        <v>170.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -6387,16 +6387,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45514</v>
+        <v>45157</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6406,21 +6406,21 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>82-64</t>
+          <t>72-101</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>18.5</v>
+        <v>31.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -6428,26 +6428,26 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>177.5</v>
+        <v>170.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44709</v>
+        <v>45045</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6467,19 +6467,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96-110</t>
+          <t>49-139</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>32.5</v>
+        <v>44.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>175.5</v>
+        <v>177.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -6489,67 +6489,67 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45745</v>
+        <v>44751</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>76-64</t>
+          <t>81-88</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-12.5</v>
+        <v>52.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>166.5</v>
+        <v>161.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45528</v>
+        <v>45815</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6569,11 +6569,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>170-46</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-38.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -6581,26 +6581,26 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45486</v>
+        <v>45799</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6620,11 +6620,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>87-74</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>159.5</v>
+        <v>178.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -6642,16 +6642,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45451</v>
+        <v>45788</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6666,24 +6666,24 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>85-79</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>160.5</v>
+        <v>174.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -6693,16 +6693,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45423</v>
+        <v>45751</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6722,11 +6722,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>58-53</t>
+          <t>85-46</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>11.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>159.5</v>
+        <v>173.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -6744,26 +6744,26 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45039</v>
+        <v>45731</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6773,48 +6773,48 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>79-76</t>
+          <t>147-69</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-15.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45802</v>
+        <v>44659</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>70-80</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>171.5</v>
+        <v>168.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -6846,26 +6846,26 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45779</v>
+        <v>45822</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6875,19 +6875,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-1.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>174.5</v>
+        <v>161.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -6897,16 +6897,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45773</v>
+        <v>45801</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6916,58 +6916,58 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>12.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>180.5</v>
+        <v>167.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45767</v>
+        <v>45785</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>56-127</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>181.5</v>
+        <v>160.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -6999,16 +6999,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45745</v>
+        <v>45772</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7028,11 +7028,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>135-53</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-20.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -7040,87 +7040,87 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>174.5</v>
+        <v>178.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45813</v>
+        <v>45753</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Western Bulldogs</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>97-81</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-1.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>171.5</v>
+        <v>168.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45794</v>
+        <v>45765</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7130,19 +7130,19 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>77-75</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-23.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -7152,26 +7152,26 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45767</v>
+        <v>45416</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7181,38 +7181,38 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>127-56</t>
+          <t>77-71</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-6.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>181.5</v>
+        <v>176.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45744</v>
+        <v>45101</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7222,58 +7222,58 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>83-75</t>
+          <t>61-93</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>170.5</v>
+        <v>153.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45731</v>
+        <v>45073</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7283,21 +7283,72 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>113-97</t>
+          <t>96-46</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-26.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Optus Stadium</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>97-107</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J63" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="J64" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>Over</t>
         </is>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,26 +497,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,11 +526,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-20.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>171.5</v>
+        <v>153.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,40 +548,40 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-1.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,16 +599,16 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,48 +618,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>113-127</t>
+          <t>75-64</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>178.5</v>
+        <v>170.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-23.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -701,16 +701,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -720,58 +720,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96-106</t>
+          <t>95-61</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-2.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>181.5</v>
+        <v>175.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,11 +781,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>24.5</v>
+        <v>30.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -793,36 +793,36 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45808</v>
+        <v>45820</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,38 +832,38 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>77-80</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>44.5</v>
+        <v>20.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45800</v>
+        <v>45809</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -873,29 +873,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>91-63</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,19 +934,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,21 +956,21 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -980,16 +980,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>80-108</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-10.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -997,26 +997,26 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,29 +1026,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>107-96</t>
+          <t>56-135</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>19.5</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1087,11 +1087,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>50-66</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-16.5</v>
+        <v>24.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1118,35 +1118,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Greater Western Sydney</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>77-80</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-44.5</v>
+        <v>44.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1160,16 +1160,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45801</v>
+        <v>45800</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1179,48 +1179,48 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>18.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>169.5</v>
+        <v>165.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45794</v>
+        <v>45795</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,15 +1240,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1262,16 +1262,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45815</v>
+        <v>45821</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>37-61</t>
+          <t>44-47</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,21 +1332,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45802</v>
+        <v>45808</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>80-61</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-12.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45792</v>
+        <v>45802</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>104-96</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-5.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>187.5</v>
+        <v>165.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,40 +1466,40 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>106-96</t>
+          <t>68-78</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>181.5</v>
+        <v>173.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45817</v>
+        <v>45829</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1546,29 +1546,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>108-74</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-24.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1582,12 +1582,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>72-71</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-8.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,11 +1619,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-34.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,11 +1670,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1699,19 +1699,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>108-63</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-15.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,11 +1721,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45785</v>
+        <v>45794</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1750,38 +1750,38 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>97-83</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-8.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160.5</v>
+        <v>173.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45820</v>
+        <v>45823</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.5</v>
+        <v>25.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1813,26 +1813,26 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>91-63</t>
+          <t>52-62</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1874,16 +1874,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12.5</v>
+        <v>38.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1919,22 +1919,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>80-108</t>
+          <t>62-128</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-19.5</v>
+        <v>50.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1976,67 +1976,67 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45786</v>
+        <v>45795</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>62-77</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2078,16 +2078,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45815</v>
+        <v>45813</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>66-50</t>
+          <t>81-59</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2129,16 +2129,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>51-100</t>
+          <t>56-107</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2180,16 +2180,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>60-93</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-18.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2231,26 +2231,26 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45787</v>
+        <v>45792</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2260,29 +2260,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>96-104</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>175.5</v>
+        <v>187.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80-36</t>
+          <t>84-73</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-24.5</v>
+        <v>24.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45808</v>
+        <v>45822</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2362,19 +2362,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>67-73</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5.5</v>
+        <v>31.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>175.5</v>
+        <v>161.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2384,67 +2384,67 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45802</v>
+        <v>45816</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>78-131</t>
+          <t>62-52</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-1.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45793</v>
+        <v>45801</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2454,29 +2454,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>63-108</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-4.5</v>
+        <v>34.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>164.5</v>
+        <v>175.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2486,16 +2486,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,21 +2505,21 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>63-71</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-8.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2556,72 +2556,72 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>86-52</t>
+          <t>99-106</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-25.5</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>155.5</v>
+        <v>160.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>37-61</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-18.5</v>
+        <v>10.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2639,16 +2639,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-4.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2680,26 +2680,26 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45793</v>
+        <v>45802</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,29 +2709,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>62-78</t>
+          <t>80-61</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2741,26 +2741,26 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45786</v>
+        <v>45792</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TIO Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>104-96</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-7.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2782,36 +2782,36 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>167.5</v>
+        <v>187.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2821,19 +2821,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>67-73</t>
+          <t>68-93</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>31.5</v>
+        <v>2.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>161.5</v>
+        <v>171.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,21 +2862,21 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>62-52</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-5.5</v>
+        <v>24.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2894,16 +2894,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45801</v>
+        <v>45809</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>63-108</t>
+          <t>63-91</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>34.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2974,43 +2974,43 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-9.5</v>
+        <v>1.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ninja</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3020,16 +3020,16 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>71-71</t>
+          <t>99-88</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>36.5</v>
+        <v>31.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3041,22 +3041,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3076,11 +3076,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>151-56</t>
+          <t>71-52</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-30.5</v>
+        <v>9.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3088,11 +3088,11 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>80-36</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-10.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3149,87 +3149,87 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>116-73</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-38.5</v>
+        <v>5.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>78-131</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3237,11 +3237,11 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>178.5</v>
+        <v>167.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3251,26 +3251,26 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45794</v>
+        <v>45793</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3280,11 +3280,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>115-39</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>18.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,29 +3321,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96-107</t>
+          <t>135-56</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-19.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45814</v>
+        <v>45820</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,21 +3372,21 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>63-68</t>
+          <t>132-60</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3398,22 +3398,22 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,21 +3423,21 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-42.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45801</v>
+        <v>45799</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3474,48 +3474,48 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>93-60</t>
+          <t>113-127</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>172.5</v>
+        <v>178.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3525,25 +3525,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-31.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3551,46 +3551,46 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-31.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3608,26 +3608,26 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45808</v>
+        <v>45823</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>75-64</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>16.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3659,26 +3659,26 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>66-50</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-18.5</v>
+        <v>16.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3710,48 +3710,48 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>95-61</t>
+          <t>51-100</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-6.5</v>
+        <v>18.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3761,16 +3761,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45785</v>
+        <v>45794</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3802,17 +3802,17 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>56-151</t>
+          <t>73-84</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>30.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3853,26 +3853,26 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,21 +3882,21 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>86-52</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>18.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3914,48 +3914,48 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45806</v>
+        <v>45816</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Essendon</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>72-90</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>42.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45800</v>
+        <v>45801</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,48 +3984,48 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>82-110</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-18.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45794</v>
+        <v>45793</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>36-127</t>
+          <t>62-78</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>23.5</v>
+        <v>4.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4143,26 +4143,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4172,11 +4172,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-20.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>171.5</v>
+        <v>153.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4194,40 +4194,40 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-1.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4274,11 +4274,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-23.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4296,16 +4296,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45767</v>
+        <v>45785</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4315,29 +4315,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>127-56</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>181.5</v>
+        <v>160.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4347,26 +4347,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4376,11 +4376,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>83-75</t>
+          <t>85-67</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>170.5</v>
+        <v>178.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4398,67 +4398,67 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45766</v>
+        <v>45795</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80-69</t>
+          <t>80-108</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>36.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45745</v>
+        <v>45444</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4468,72 +4468,72 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>53-135</t>
+          <t>82-68</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>20.5</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>174.5</v>
+        <v>167.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45515</v>
+        <v>45109</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>51-99</t>
+          <t>85-77</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>26.5</v>
+        <v>-46.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160.5</v>
+        <v>174.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4551,16 +4551,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45507</v>
+        <v>44766</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4570,29 +4570,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>77-90</t>
+          <t>90-62</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4602,16 +4602,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45151</v>
+        <v>44647</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4621,29 +4621,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>57-93</t>
+          <t>65-55</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>166.5</v>
+        <v>163.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4653,16 +4653,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4672,21 +4672,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-44.5</v>
+        <v>24.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4704,26 +4704,26 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45794</v>
+        <v>45800</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>18.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -4755,16 +4755,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45753</v>
+        <v>45795</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4774,21 +4774,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>132-51</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-42.5</v>
+        <v>9.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4796,26 +4796,26 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45725</v>
+        <v>45788</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4835,19 +4835,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>104-52</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-7.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>169.5</v>
+        <v>172.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4857,26 +4857,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45549</v>
+        <v>45781</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4886,11 +4886,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>100-105</t>
+          <t>44-109</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-3.5</v>
+        <v>49.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4898,26 +4898,26 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>167.5</v>
+        <v>177.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45493</v>
+        <v>45794</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4937,19 +4937,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>50-89</t>
+          <t>68-78</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>168.5</v>
+        <v>173.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44653</v>
+        <v>45738</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4978,48 +4978,48 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>57-83</t>
+          <t>161-100</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15.5</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>149.5</v>
+        <v>176.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45801</v>
+        <v>45444</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5029,109 +5029,109 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>80-107</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-34.5</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45459</v>
+        <v>45430</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Collingwood</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>119-118</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-34.5</v>
+        <v>19.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>173.5</v>
+        <v>167.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45443</v>
+        <v>45130</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5141,19 +5141,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>82-100</t>
+          <t>93-97</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-10.5</v>
+        <v>16.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>169.5</v>
+        <v>166.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45424</v>
+        <v>45829</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5192,11 +5192,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>103-37</t>
+          <t>108-74</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-40.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5204,17 +5204,17 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>172.5</v>
+        <v>170.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45114</v>
+        <v>45801</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5243,11 +5243,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>89-77</t>
+          <t>108-63</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-10.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>166.5</v>
+        <v>175.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45820</v>
+        <v>45459</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -5274,31 +5274,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>119-118</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20.5</v>
+        <v>-34.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>171.5</v>
+        <v>173.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45802</v>
+        <v>45443</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5345,11 +5345,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>82-100</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5357,17 +5357,17 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45779</v>
+        <v>45424</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5396,11 +5396,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>103-37</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-1.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45773</v>
+        <v>45774</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5427,17 +5427,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5447,15 +5447,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>74-124</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12.5</v>
+        <v>60.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -5469,7 +5469,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45767</v>
+        <v>45493</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5478,19 +5478,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>L</t>
@@ -5498,11 +5498,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>56-127</t>
+          <t>41-113</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6.5</v>
+        <v>28.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -5510,50 +5510,50 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>181.5</v>
+        <v>165.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45823</v>
+        <v>45466</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>92-122</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-2.5</v>
+        <v>31.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -5561,36 +5561,36 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45794</v>
+        <v>45424</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5600,11 +5600,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>37-103</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-18.5</v>
+        <v>40.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5622,26 +5622,26 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45787</v>
+        <v>45382</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5651,19 +5651,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>30-106</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9.5</v>
+        <v>41.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>175.5</v>
+        <v>179.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5673,16 +5673,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45773</v>
+        <v>45821</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5702,38 +5702,38 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-30.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>184.5</v>
+        <v>161.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45760</v>
+        <v>45745</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5753,70 +5753,70 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>121-91</t>
+          <t>76-64</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>13.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45758</v>
+        <v>45528</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>78-109</t>
+          <t>170-46</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>170.5</v>
+        <v>176.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5826,48 +5826,48 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45507</v>
+        <v>45486</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>36-148</t>
+          <t>87-74</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-10.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>168.5</v>
+        <v>159.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5877,26 +5877,26 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45458</v>
+        <v>45451</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5906,11 +5906,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>109-67</t>
+          <t>85-79</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-25.5</v>
+        <v>14.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>168.5</v>
+        <v>160.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5928,16 +5928,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45157</v>
+        <v>45528</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5947,48 +5947,48 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>74-73</t>
+          <t>46-170</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.5</v>
+        <v>38.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45030</v>
+        <v>45017</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5998,48 +5998,48 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>122-78</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45816</v>
+        <v>45808</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6049,21 +6049,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-18.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -6081,26 +6081,26 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45786</v>
+        <v>45774</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6110,11 +6110,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-7.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -6122,26 +6122,26 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45774</v>
+        <v>45752</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6161,19 +6161,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>91-90</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>12.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>174.5</v>
+        <v>185.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -6183,26 +6183,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45750</v>
+        <v>45521</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6212,11 +6212,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>46-63</t>
+          <t>63-117</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -6228,22 +6228,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45736</v>
+        <v>45500</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>60-80</t>
+          <t>65-93</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -6285,16 +6285,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45795</v>
+        <v>45521</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6314,38 +6314,38 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>117-63</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-9.5</v>
+        <v>12.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45465</v>
+        <v>45052</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6355,48 +6355,48 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>67-70</t>
+          <t>90-85</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>33.5</v>
+        <v>-21.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>170.5</v>
+        <v>165.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45157</v>
+        <v>44646</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6406,58 +6406,58 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>72-101</t>
+          <t>82-69</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>31.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>170.5</v>
+        <v>156.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45045</v>
+        <v>45808</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6467,11 +6467,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>49-139</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>44.5</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -6479,50 +6479,50 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>177.5</v>
+        <v>175.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44751</v>
+        <v>45793</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>81-88</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>52.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -6530,26 +6530,26 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>161.5</v>
+        <v>164.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45815</v>
+        <v>45781</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6569,11 +6569,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-10.5</v>
+        <v>6.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -6591,16 +6591,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45799</v>
+        <v>45767</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6610,48 +6610,48 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>77-85</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-1.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>178.5</v>
+        <v>170.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45788</v>
+        <v>45731</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>82-86</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-15.5</v>
+        <v>1.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -6683,36 +6683,36 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>174.5</v>
+        <v>176.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45751</v>
+        <v>45501</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6722,11 +6722,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>85-46</t>
+          <t>87-48</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-22.5</v>
+        <v>24.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>173.5</v>
+        <v>177.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -6744,40 +6744,40 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45731</v>
+        <v>45120</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>147-69</t>
+          <t>76-78</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-10.5</v>
+        <v>2.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -6785,26 +6785,26 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>170.5</v>
+        <v>166.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44659</v>
+        <v>44750</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>70-80</t>
+          <t>67-120</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -6836,50 +6836,50 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>168.5</v>
+        <v>157.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-31.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -6897,16 +6897,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45801</v>
+        <v>45823</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-18.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -6948,16 +6948,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45785</v>
+        <v>45794</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -6989,26 +6989,26 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>160.5</v>
+        <v>175.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45772</v>
+        <v>45787</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7023,16 +7023,16 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-3.5</v>
+        <v>9.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>178.5</v>
+        <v>175.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -7050,16 +7050,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45753</v>
+        <v>45773</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7079,19 +7079,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>97-81</t>
+          <t>97-88</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-5.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>168.5</v>
+        <v>184.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -7101,16 +7101,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45765</v>
+        <v>45780</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7120,21 +7120,21 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>77-75</t>
+          <t>50-110</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-19.5</v>
+        <v>16.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -7152,21 +7152,21 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45416</v>
+        <v>45759</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7181,15 +7181,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>77-71</t>
+          <t>121-50</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-8.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -7203,16 +7203,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45101</v>
+        <v>45442</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7222,29 +7222,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>61-93</t>
+          <t>107-71</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>153.5</v>
+        <v>164.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -7254,16 +7254,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45073</v>
+        <v>45388</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96-46</t>
+          <t>73-63</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-27.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>170.5</v>
+        <v>165.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -7305,16 +7305,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44736</v>
+        <v>45029</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7334,11 +7334,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>97-107</t>
+          <t>62-118</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-13.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>166.5</v>
+        <v>175.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,26 +497,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45827</v>
+        <v>45837</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,11 +526,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>104-63</t>
+          <t>122-54</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-29.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>153.5</v>
+        <v>174.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,16 +548,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45822</v>
+        <v>45821</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,21 +567,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>44-47</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-31.5</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -599,26 +599,26 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,19 +628,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>75-64</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,26 +650,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-18.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -701,26 +701,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,11 +730,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95-61</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-6.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,26 +742,26 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,11 +781,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>74-108</t>
+          <t>85-104</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30.5</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,26 +803,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45820</v>
+        <v>45823</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +832,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>68-93</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>20.5</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -848,46 +848,46 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45809</v>
+        <v>45817</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>91-63</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -905,28 +905,28 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>L</t>
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>63-91</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,48 +956,48 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>80-108</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-19.5</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1007,21 +1007,21 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45830</v>
+        <v>45835</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>56-135</t>
+          <t>96-105</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>8.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1058,48 +1058,48 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>71-52</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>24.5</v>
+        <v>9.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1109,40 +1109,40 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>77-80</t>
+          <t>80-36</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>44.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1160,26 +1160,26 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>165.5</v>
+        <v>175.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1220,17 +1220,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1240,62 +1240,62 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>78-131</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45821</v>
+        <v>45837</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>44-47</t>
+          <t>81-69</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>161.5</v>
+        <v>165.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45814</v>
+        <v>45827</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1342,38 +1342,38 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-10.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>171.5</v>
+        <v>153.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45808</v>
+        <v>45822</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,19 +1393,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-5.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>175.5</v>
+        <v>161.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,26 +1415,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45802</v>
+        <v>45808</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>75-64</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-50.5</v>
+        <v>16.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,50 +1456,50 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>165.5</v>
+        <v>170.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>68-78</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>15.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>173.5</v>
+        <v>167.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1517,40 +1517,40 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>108-74</t>
+          <t>69-81</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-30.5</v>
+        <v>22.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1558,50 +1558,50 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>170.5</v>
+        <v>165.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45817</v>
+        <v>45829</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Collingwood</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-24.5</v>
+        <v>30.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1609,26 +1609,26 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45807</v>
+        <v>45820</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1638,48 +1638,48 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-8.5</v>
+        <v>20.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45801</v>
+        <v>45809</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>91-63</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-34.5</v>
+        <v>11.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1740,21 +1740,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-15.5</v>
+        <v>12.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,80 +1791,80 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>52-86</t>
+          <t>150-65</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>25.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>155.5</v>
+        <v>157.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45816</v>
+        <v>45821</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>52-62</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1874,44 +1874,44 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45809</v>
+        <v>45813</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>81-59</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>38.5</v>
+        <v>1.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1919,22 +1919,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45802</v>
+        <v>45807</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>62-128</t>
+          <t>56-107</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>50.5</v>
+        <v>8.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1966,26 +1966,26 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>165.5</v>
+        <v>170.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1995,58 +1995,58 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>60-93</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>19.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>175.5</v>
+        <v>172.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>47-44</t>
+          <t>92-51</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-2.5</v>
+        <v>15.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>161.5</v>
+        <v>168.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2078,44 +2078,44 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>81-59</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2123,22 +2123,22 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>56-107</t>
+          <t>63-68</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2180,16 +2180,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2199,21 +2199,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>60-93</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-10.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>172.5</v>
+        <v>174.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2231,72 +2231,72 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45792</v>
+        <v>45801</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Hawthorn</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96-104</t>
+          <t>93-60</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>187.5</v>
+        <v>172.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45829</v>
+        <v>45834</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>84-73</t>
+          <t>110-60</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2323,26 +2323,26 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>165.5</v>
+        <v>164.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2362,19 +2362,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>67-73</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>31.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2384,16 +2384,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2413,11 +2413,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>62-52</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2435,48 +2435,48 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>63-108</t>
+          <t>66-50</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>34.5</v>
+        <v>16.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2486,16 +2486,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45795</v>
+        <v>45801</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,21 +2505,21 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>51-100</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-9.5</v>
+        <v>18.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,26 +2537,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2566,11 +2566,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>99-106</t>
+          <t>51-92</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2578,26 +2578,26 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>160.5</v>
+        <v>168.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2607,25 +2607,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>37-61</t>
+          <t>151-56</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2633,54 +2633,54 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Gold Coast</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2690,16 +2690,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>80-61</t>
+          <t>116-73</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-12.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2735,22 +2735,22 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TIO Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>104-96</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>187.5</v>
+        <v>178.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2792,26 +2792,26 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45823</v>
+        <v>45837</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>68-93</t>
+          <t>54-122</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2.5</v>
+        <v>37.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2833,36 +2833,36 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45817</v>
+        <v>45830</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,38 +2872,38 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>56-135</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24.5</v>
+        <v>48.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45809</v>
+        <v>45815</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>63-91</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-11.5</v>
+        <v>24.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2945,40 +2945,40 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45802</v>
+        <v>45808</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>77-80</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.5</v>
+        <v>44.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2986,26 +2986,26 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>167.5</v>
+        <v>173.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3015,48 +3015,48 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>99-88</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>31.5</v>
+        <v>18.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,39 +3066,39 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>71-52</t>
+          <t>63-104</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9.5</v>
+        <v>29.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>170.5</v>
+        <v>153.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3107,35 +3107,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>80-36</t>
+          <t>56-151</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-24.5</v>
+        <v>30.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3143,32 +3143,32 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3178,19 +3178,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45802</v>
+        <v>45806</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3229,38 +3229,38 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>78-131</t>
+          <t>72-90</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-1.5</v>
+        <v>42.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>167.5</v>
+        <v>174.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3280,11 +3280,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-4.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>164.5</v>
+        <v>165.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45830</v>
+        <v>45836</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3331,11 +3331,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>135-56</t>
+          <t>104-85</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-48.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45820</v>
+        <v>45830</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,29 +3372,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>99-106</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-20.5</v>
+        <v>4.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3404,26 +3404,26 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>37-61</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-1.5</v>
+        <v>10.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3455,26 +3455,26 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>113-127</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3496,17 +3496,17 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>178.5</v>
+        <v>170.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3515,17 +3515,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>80-61</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-23.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3557,26 +3557,26 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>52-71</t>
+          <t>59-88</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-9.5</v>
+        <v>60.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3612,12 +3612,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3627,29 +3627,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-2.5</v>
+        <v>25.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45815</v>
+        <v>45816</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3678,25 +3678,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>66-50</t>
+          <t>52-62</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3710,7 +3710,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45801</v>
+        <v>45809</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3719,17 +3719,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3739,11 +3739,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>51-100</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>18.5</v>
+        <v>38.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3751,17 +3751,17 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45794</v>
+        <v>45802</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3770,17 +3770,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>62-128</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-18.5</v>
+        <v>50.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3802,26 +3802,26 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45829</v>
+        <v>45830</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,48 +3831,48 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>73-84</t>
+          <t>106-99</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-24.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>165.5</v>
+        <v>160.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45823</v>
+        <v>45822</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>86-52</t>
+          <t>107-96</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-25.5</v>
+        <v>19.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3904,26 +3904,26 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>155.5</v>
+        <v>171.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3933,21 +3933,21 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>50-66</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-18.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,21 +3984,21 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-4.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,46 +4006,46 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>169.5</v>
+        <v>173.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45793</v>
+        <v>45801</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>62-78</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -4053,15 +4053,1035 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Adelaide Oval</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>60-110</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J71" t="n">
+      <c r="J72" t="n">
         <v>164.5</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Under</t>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>73-84</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Optus Stadium</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>86-52</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>78-70</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>82-110</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>88-59</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>-60.5</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>108-74</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>72-71</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>107-56</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>108-63</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-34.5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>UTAS Stadium</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>65-150</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>84-73</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Optus Stadium</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>67-73</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bunbury</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>62-52</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>63-108</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SCG</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>105-96</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>135-56</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>132-60</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>59-81</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GMHBA Stadium</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>113-127</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Over</t>
         </is>
       </c>
     </row>
@@ -4076,7 +5096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4143,16 +5163,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45827</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4162,7 +5182,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4172,48 +5192,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>104-63</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-29.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>153.5</v>
+        <v>171.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45822</v>
+        <v>45802</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4223,43 +5243,43 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-31.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>161.5</v>
+        <v>165.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45801</v>
+        <v>45787</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4274,19 +5294,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-18.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4296,16 +5316,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45785</v>
+        <v>45780</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4315,48 +5335,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160.5</v>
+        <v>174.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45772</v>
+        <v>45766</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4366,7 +5386,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4376,11 +5396,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>85-67</t>
+          <t>52-34</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-3.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4388,7 +5408,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>178.5</v>
+        <v>185.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4398,16 +5418,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45795</v>
+        <v>45823</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4417,7 +5437,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4427,11 +5447,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80-108</t>
+          <t>68-93</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-19.5</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4439,58 +5459,58 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45444</v>
+        <v>45759</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>82-68</t>
+          <t>57-96</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4500,16 +5520,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45109</v>
+        <v>45386</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4519,7 +5539,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4529,19 +5549,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>85-77</t>
+          <t>78-63</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-46.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>174.5</v>
+        <v>169.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4551,16 +5571,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44766</v>
+        <v>45381</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4570,7 +5590,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4580,11 +5600,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>90-62</t>
+          <t>96-89</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-18.5</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -4596,22 +5616,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44647</v>
+        <v>45065</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4621,29 +5641,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>65-55</t>
+          <t>76-80</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>163.5</v>
+        <v>170.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4653,16 +5673,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45815</v>
+        <v>45835</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4672,7 +5692,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4682,11 +5702,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>96-105</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>24.5</v>
+        <v>8.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4694,36 +5714,36 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4733,11 +5753,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4745,7 +5765,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>165.5</v>
+        <v>175.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -4755,16 +5775,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45795</v>
+        <v>45793</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4774,21 +5794,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4796,7 +5816,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -4806,16 +5826,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45788</v>
+        <v>45781</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4825,7 +5845,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4835,19 +5855,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-10.5</v>
+        <v>6.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>172.5</v>
+        <v>169.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4857,26 +5877,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45781</v>
+        <v>45767</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4886,11 +5906,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>44-109</t>
+          <t>77-85</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>49.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4898,7 +5918,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>177.5</v>
+        <v>170.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4908,16 +5928,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45794</v>
+        <v>45472</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4927,21 +5947,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>68-78</t>
+          <t>99-98</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>15.5</v>
+        <v>24.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4949,26 +5969,26 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>173.5</v>
+        <v>172.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45738</v>
+        <v>45059</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4978,7 +5998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4988,11 +6008,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>161-100</t>
+          <t>103-86</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2.5</v>
+        <v>24.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5000,7 +6020,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>176.5</v>
+        <v>166.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -5010,16 +6030,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45444</v>
+        <v>45829</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5029,7 +6049,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5039,11 +6059,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>80-107</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.5</v>
+        <v>30.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5051,7 +6071,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -5061,26 +6081,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45430</v>
+        <v>45820</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5090,48 +6110,48 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45130</v>
+        <v>45802</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5141,29 +6161,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>93-97</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>166.5</v>
+        <v>171.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45829</v>
+        <v>45779</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -5172,7 +6192,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5182,7 +6202,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5192,11 +6212,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>108-74</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-30.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5204,17 +6224,17 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45801</v>
+        <v>45773</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -5223,49 +6243,49 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>73-118</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-34.5</v>
+        <v>12.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>175.5</v>
+        <v>180.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45459</v>
+        <v>45813</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -5274,7 +6294,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5284,7 +6304,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5294,29 +6314,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>119-118</t>
+          <t>81-59</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-34.5</v>
+        <v>1.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45443</v>
+        <v>45774</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5325,7 +6345,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5335,21 +6355,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>82-100</t>
+          <t>124-74</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-10.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5357,7 +6377,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>169.5</v>
+        <v>180.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5367,7 +6387,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45424</v>
+        <v>45438</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5376,7 +6396,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5386,7 +6406,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5396,11 +6416,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>103-37</t>
+          <t>100-75</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-40.5</v>
+        <v>15.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5408,17 +6428,17 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45774</v>
+        <v>45417</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5427,7 +6447,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5437,21 +6457,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>74-124</t>
+          <t>98-91</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>60.5</v>
+        <v>20.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5459,7 +6479,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>180.5</v>
+        <v>172.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -5469,7 +6489,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45493</v>
+        <v>45403</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5478,7 +6498,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5488,58 +6508,58 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>41-113</t>
+          <t>113-68</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>28.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45466</v>
+        <v>45822</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5549,19 +6569,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>92-122</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>31.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>166.5</v>
+        <v>171.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5571,40 +6591,40 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45424</v>
+        <v>45806</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>37-103</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>40.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -5612,7 +6632,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>172.5</v>
+        <v>174.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5622,26 +6642,26 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45382</v>
+        <v>45795</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5651,11 +6671,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30-106</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -5663,26 +6683,26 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>179.5</v>
+        <v>175.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45821</v>
+        <v>45781</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5692,7 +6712,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5702,11 +6722,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>47-44</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-2.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -5714,7 +6734,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>161.5</v>
+        <v>175.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -5724,16 +6744,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45745</v>
+        <v>45764</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5743,17 +6763,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>76-64</t>
+          <t>53-105</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -5765,7 +6785,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>166.5</v>
+        <v>174.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5775,48 +6795,48 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45528</v>
+        <v>45178</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>170-46</t>
+          <t>75-123</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-38.5</v>
+        <v>15.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>176.5</v>
+        <v>167.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5826,67 +6846,67 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45486</v>
+        <v>44639</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>87-74</t>
+          <t>69-80</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-3.5</v>
+        <v>8.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>159.5</v>
+        <v>168.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45451</v>
+        <v>45828</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5896,150 +6916,150 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>85-79</t>
+          <t>51-92</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>14.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160.5</v>
+        <v>168.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45528</v>
+        <v>45815</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>46-170</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>38.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45017</v>
+        <v>45799</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>169.5</v>
+        <v>178.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45808</v>
+        <v>45788</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6049,7 +7069,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6059,11 +7079,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-16.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -6071,26 +7091,26 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45774</v>
+        <v>45751</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6100,7 +7120,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6110,11 +7130,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>85-46</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-11.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -6122,58 +7142,58 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>175.5</v>
+        <v>173.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45752</v>
+        <v>45444</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>91-90</t>
+          <t>69-99</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-2.5</v>
+        <v>44.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>185.5</v>
+        <v>175.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -6183,26 +7203,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45521</v>
+        <v>45794</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6212,11 +7232,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>63-117</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-12.5</v>
+        <v>23.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -6224,26 +7244,26 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45500</v>
+        <v>45787</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6253,17 +7273,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>65-93</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -6271,11 +7291,11 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -6285,26 +7305,26 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45521</v>
+        <v>45778</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6314,48 +7334,48 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>117-63</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>12.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>167.5</v>
+        <v>184.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45052</v>
+        <v>45743</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6365,62 +7385,62 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>90-85</t>
+          <t>72-60</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-21.5</v>
+        <v>1.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>165.5</v>
+        <v>175.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44646</v>
+        <v>45520</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>82-69</t>
+          <t>59-98</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-30.5</v>
+        <v>8.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -6428,7 +7448,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>156.5</v>
+        <v>174.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -6438,48 +7458,48 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45808</v>
+        <v>45802</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>80-61</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -6489,48 +7509,48 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45793</v>
+        <v>45766</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>69-80</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-4.5</v>
+        <v>-36.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>164.5</v>
+        <v>184.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -6540,26 +7560,26 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45781</v>
+        <v>45514</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6569,11 +7589,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>87-86</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -6581,36 +7601,36 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>169.5</v>
+        <v>172.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45767</v>
+        <v>45479</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6620,11 +7640,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>83-87</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-19.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -6632,7 +7652,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -6642,26 +7662,26 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45731</v>
+        <v>45451</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6671,11 +7691,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>82-86</t>
+          <t>48-51</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1.5</v>
+        <v>-13.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -6683,7 +7703,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>176.5</v>
+        <v>162.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -6693,48 +7713,48 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45501</v>
+        <v>45823</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>87-48</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>177.5</v>
+        <v>155.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -6744,26 +7764,26 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45120</v>
+        <v>45809</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6773,70 +7793,70 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>76-78</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2.5</v>
+        <v>38.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>166.5</v>
+        <v>171.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44750</v>
+        <v>45795</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>67-120</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>157.5</v>
+        <v>175.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -6846,16 +7866,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45829</v>
+        <v>45780</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6865,7 +7885,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6875,11 +7895,11 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>52-71</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-9.5</v>
+        <v>14.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -6887,26 +7907,26 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>170.5</v>
+        <v>161.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45823</v>
+        <v>45765</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6916,21 +7936,21 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>75-77</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-2.5</v>
+        <v>19.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -6938,7 +7958,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>171.5</v>
+        <v>176.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -6948,48 +7968,48 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45794</v>
+        <v>45375</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>108-43</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-18.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -6999,26 +8019,26 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45787</v>
+        <v>45011</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7028,62 +8048,62 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>81-100</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>9.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>175.5</v>
+        <v>164.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45773</v>
+        <v>44660</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>97-88</t>
+          <t>54-88</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-30.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -7091,21 +8111,21 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>184.5</v>
+        <v>158.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45780</v>
+        <v>45829</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7115,12 +8135,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7130,11 +8150,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>50-110</t>
+          <t>73-84</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>16.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -7142,7 +8162,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>174.5</v>
+        <v>165.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -7152,11 +8172,11 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45759</v>
+        <v>45816</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7171,7 +8191,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7181,19 +8201,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>121-50</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-32.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -7203,11 +8223,11 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45442</v>
+        <v>45786</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7222,7 +8242,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7232,11 +8252,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>107-71</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -7244,21 +8264,21 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>164.5</v>
+        <v>167.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45388</v>
+        <v>45774</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7268,12 +8288,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7283,11 +8303,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>73-63</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-8.5</v>
+        <v>12.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -7295,7 +8315,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>165.5</v>
+        <v>174.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -7305,11 +8325,11 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45029</v>
+        <v>45750</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7324,31 +8344,796 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>46-63</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>72-71</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>107-56</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Adelaide</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>78-68</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>62-118</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>87-90</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="J68" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MCG</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>107-66</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>63-108</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>175.5</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>62-65</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>71-153</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>52-117</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>125-66</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>135-56</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>132-60</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>59-81</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>127-36</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Western Bulldogs</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>127-56</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>Over</t>
         </is>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45837</v>
+        <v>45843</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,29 +516,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>122-54</t>
+          <t>92-120</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-37.5</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,58 +548,58 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45821</v>
+        <v>45834</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>44-47</t>
+          <t>110-60</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>161.5</v>
+        <v>164.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45814</v>
+        <v>45829</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,21 +618,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-10.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,26 +650,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45808</v>
+        <v>45823</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -701,26 +701,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45802</v>
+        <v>45815</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,11 +730,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>66-50</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-50.5</v>
+        <v>16.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,36 +742,36 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>165.5</v>
+        <v>171.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -781,11 +781,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>85-104</t>
+          <t>52-111</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>26.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -793,26 +793,26 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>172.5</v>
+        <v>165.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>68-93</t>
+          <t>59-88</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>60.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -854,16 +854,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45817</v>
+        <v>45823</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -883,19 +883,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -905,26 +905,26 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>63-91</t>
+          <t>52-62</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-11.5</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,16 +956,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -975,29 +975,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>38.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45835</v>
+        <v>45843</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96-105</t>
+          <t>74-94</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1058,16 +1058,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1077,21 +1077,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>71-52</t>
+          <t>69-81</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.5</v>
+        <v>22.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>170.5</v>
+        <v>165.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1109,16 +1109,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1128,48 +1128,48 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80-36</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-24.5</v>
+        <v>30.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45808</v>
+        <v>45820</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>20.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1201,26 +1201,26 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1235,55 +1235,55 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>78-131</t>
+          <t>91-63</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-1.5</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45837</v>
+        <v>45844</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>W</t>
@@ -1291,38 +1291,38 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>81-69</t>
+          <t>94-83</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-22.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>165.5</v>
+        <v>158.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45827</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,29 +1332,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>104-63</t>
+          <t>96-105</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-29.5</v>
+        <v>8.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>153.5</v>
+        <v>172.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,19 +1393,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>71-52</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-31.5</v>
+        <v>9.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>75-64</t>
+          <t>80-36</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-18.5</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45837</v>
+        <v>45844</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>69-81</t>
+          <t>77-90</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>165.5</v>
+        <v>171.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1568,16 +1568,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>74-108</t>
+          <t>85-104</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>30.5</v>
+        <v>17.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1619,26 +1619,26 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45820</v>
+        <v>45823</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>68-93</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20.5</v>
+        <v>2.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1664,46 +1664,46 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45809</v>
+        <v>45817</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>91-63</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,28 +1721,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Traeger Park</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Gold Coast</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>L</t>
@@ -1750,11 +1750,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>63-91</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45836</v>
+        <v>45841</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,29 +1791,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>150-65</t>
+          <t>85-134</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>-32.5</v>
+        <v>40.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>157.5</v>
+        <v>180.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45821</v>
+        <v>45836</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1832,58 +1832,58 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Hawthorn</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Adelaide</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>47-44</t>
+          <t>65-150</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-2.5</v>
+        <v>32.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>161.5</v>
+        <v>157.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45813</v>
+        <v>45829</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>81-59</t>
+          <t>84-73</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.5</v>
+        <v>24.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1925,26 +1925,26 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45807</v>
+        <v>45822</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,19 +1954,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>56-107</t>
+          <t>67-73</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.5</v>
+        <v>31.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170.5</v>
+        <v>161.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45801</v>
+        <v>45816</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1995,29 +1995,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>60-93</t>
+          <t>62-52</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-10.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45828</v>
+        <v>45844</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,48 +2046,48 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>92-51</t>
+          <t>83-94</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>168.5</v>
+        <v>158.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45822</v>
+        <v>45837</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2097,21 +2097,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96-107</t>
+          <t>81-69</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-19.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2119,50 +2119,50 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45814</v>
+        <v>45827</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>63-68</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2170,36 +2170,36 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>171.5</v>
+        <v>153.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45806</v>
+        <v>45822</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-42.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>174.5</v>
+        <v>161.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2260,11 +2260,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>93-60</t>
+          <t>75-64</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>172.5</v>
+        <v>170.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2282,26 +2282,26 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45834</v>
+        <v>45843</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>110-60</t>
+          <t>94-74</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-5.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>164.5</v>
+        <v>166.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,48 +2352,48 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>52-71</t>
+          <t>150-65</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-9.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>170.5</v>
+        <v>157.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2435,16 +2435,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45815</v>
+        <v>45813</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>66-50</t>
+          <t>81-59</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2486,16 +2486,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>51-100</t>
+          <t>56-107</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45828</v>
+        <v>45843</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2546,19 +2546,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Geelong</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>L</t>
@@ -2566,11 +2566,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>51-92</t>
+          <t>52-124</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-15.5</v>
+        <v>59.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>168.5</v>
+        <v>176.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45822</v>
+        <v>45837</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2597,39 +2597,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>151-56</t>
+          <t>54-122</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-30.5</v>
+        <v>37.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2639,95 +2639,95 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45815</v>
+        <v>45830</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>56-135</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-10.5</v>
+        <v>48.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45809</v>
+        <v>45815</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>116-73</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-38.5</v>
+        <v>24.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2735,46 +2735,46 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>77-80</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-1.5</v>
+        <v>44.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2782,26 +2782,26 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>178.5</v>
+        <v>173.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45837</v>
+        <v>45843</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>54-122</t>
+          <t>74-115</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>37.5</v>
+        <v>22.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45830</v>
+        <v>45827</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>56-135</t>
+          <t>63-104</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>48.5</v>
+        <v>29.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>170.5</v>
+        <v>153.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>56-151</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>24.5</v>
+        <v>30.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2939,22 +2939,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>77-80</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>44.5</v>
+        <v>18.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2996,16 +2996,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3025,19 +3025,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>72-90</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>165.5</v>
+        <v>174.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45827</v>
+        <v>45842</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,48 +3066,48 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>63-104</t>
+          <t>111-52</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>29.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>153.5</v>
+        <v>165.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3117,29 +3117,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>56-151</t>
+          <t>106-99</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>30.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3149,16 +3149,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45816</v>
+        <v>45822</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3168,21 +3168,21 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>107-96</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3194,32 +3194,32 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45806</v>
+        <v>45815</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3229,19 +3229,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>72-90</t>
+          <t>50-66</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>42.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3280,19 +3280,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-18.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3331,11 +3331,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>104-85</t>
+          <t>124-52</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-17.5</v>
+        <v>-59.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,36 +3343,36 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>99-106</t>
+          <t>51-92</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>4.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,26 +3394,26 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>160.5</v>
+        <v>168.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,25 +3423,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>37-61</t>
+          <t>151-56</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>10.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3449,54 +3449,54 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Gold Coast</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>80-61</t>
+          <t>116-73</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-12.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3551,13 +3551,13 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45836</v>
+        <v>45841</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,21 +3576,21 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>59-88</t>
+          <t>134-85</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>60.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3598,156 +3598,156 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>172.5</v>
+        <v>180.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45823</v>
+        <v>45835</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>52-86</t>
+          <t>105-96</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>25.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>155.5</v>
+        <v>172.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45816</v>
+        <v>45830</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>52-62</t>
+          <t>135-56</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>5.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45809</v>
+        <v>45820</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>132-60</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>38.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3761,26 +3761,26 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45802</v>
+        <v>45813</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>62-128</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>50.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3802,26 +3802,26 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>165.5</v>
+        <v>171.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3841,38 +3841,38 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>106-99</t>
+          <t>90-77</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-4.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>160.5</v>
+        <v>171.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45822</v>
+        <v>45837</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>107-96</t>
+          <t>122-54</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>19.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3914,26 +3914,26 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45815</v>
+        <v>45821</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>50-66</t>
+          <t>44-47</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-16.5</v>
+        <v>2.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3994,11 +3994,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-44.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4016,16 +4016,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>131-41</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,26 +4057,26 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45834</v>
+        <v>45843</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4086,29 +4086,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>60-110</t>
+          <t>115-74</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>5.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4118,16 +4118,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4137,48 +4137,48 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>73-84</t>
+          <t>104-85</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-24.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>165.5</v>
+        <v>172.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4188,72 +4188,72 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>86-52</t>
+          <t>99-106</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-25.5</v>
+        <v>4.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>155.5</v>
+        <v>160.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>37-61</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-18.5</v>
+        <v>10.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4271,16 +4271,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4300,11 +4300,11 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-4.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4312,21 +4312,21 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4351,29 +4351,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>88-59</t>
+          <t>115-59</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-60.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>172.5</v>
+        <v>161.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4402,33 +4402,33 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>108-74</t>
+          <t>88-59</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-30.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45817</v>
+        <v>45829</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4453,29 +4453,29 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>108-74</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-24.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45807</v>
+        <v>45817</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4489,12 +4489,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4504,19 +4504,19 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>72-71</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-8.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4526,11 +4526,11 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4555,11 +4555,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>108-63</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-34.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4577,26 +4577,26 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4606,11 +4606,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>65-150</t>
+          <t>59-115</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>32.5</v>
+        <v>26.5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>157.5</v>
+        <v>161.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4628,16 +4628,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45829</v>
+        <v>45834</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4647,60 +4647,60 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>84-73</t>
+          <t>60-110</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>24.5</v>
+        <v>5.5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>165.5</v>
+        <v>164.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>North Melbourne</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>L</t>
@@ -4708,19 +4708,19 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>67-73</t>
+          <t>73-84</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>31.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>161.5</v>
+        <v>165.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4730,21 +4730,21 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>62-52</t>
+          <t>86-52</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>-5.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4781,16 +4781,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45801</v>
+        <v>45816</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4800,21 +4800,21 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>63-108</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>34.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4832,26 +4832,26 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45835</v>
+        <v>45843</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4861,11 +4861,11 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>105-96</t>
+          <t>120-92</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>-8.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>172.5</v>
+        <v>170.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4883,26 +4883,26 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4912,11 +4912,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>135-56</t>
+          <t>92-51</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>-48.5</v>
+        <v>15.5</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4924,54 +4924,54 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-20.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -4985,26 +4985,26 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5014,15 +5014,15 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>63-68</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-1.5</v>
+        <v>10.5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5036,40 +5036,40 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>113-127</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -5077,11 +5077,11 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>178.5</v>
+        <v>174.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45814</v>
+        <v>45834</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5192,29 +5192,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>110-60</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-10.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>171.5</v>
+        <v>164.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45802</v>
+        <v>45829</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5233,39 +5233,39 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-50.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>165.5</v>
+        <v>170.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45787</v>
+        <v>45823</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -5274,17 +5274,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-9.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5335,29 +5335,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-16.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>174.5</v>
+        <v>175.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45766</v>
+        <v>45787</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -5376,31 +5376,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adelaide</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>52-34</t>
+          <t>84-89</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-5.5</v>
+        <v>9.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>185.5</v>
+        <v>175.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45823</v>
+        <v>45802</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5447,11 +5447,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>68-93</t>
+          <t>62-128</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>50.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5459,11 +5459,11 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
@@ -5478,17 +5478,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5498,11 +5498,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>57-96</t>
+          <t>50-121</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-1.5</v>
+        <v>32.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>169.5</v>
+        <v>176.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45386</v>
+        <v>45438</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5544,34 +5544,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>78-63</t>
+          <t>38-137</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-1.5</v>
+        <v>29.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>169.5</v>
+        <v>163.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45381</v>
+        <v>45368</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5595,24 +5595,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96-89</t>
+          <t>70-120</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>45.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45065</v>
+        <v>45087</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>76-80</t>
+          <t>52-174</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-4.5</v>
+        <v>61.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -5663,26 +5663,26 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>170.5</v>
+        <v>173.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45835</v>
+        <v>45843</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5702,11 +5702,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96-105</t>
+          <t>74-94</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5724,26 +5724,26 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45808</v>
+        <v>45829</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5753,11 +5753,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>30.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5765,26 +5765,26 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45793</v>
+        <v>45820</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5794,48 +5794,48 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-4.5</v>
+        <v>20.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45781</v>
+        <v>45802</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5845,29 +5845,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -5877,16 +5877,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45767</v>
+        <v>45779</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5896,29 +5896,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>77-85</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-19.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5928,16 +5928,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45472</v>
+        <v>45787</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5947,48 +5947,48 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>99-98</t>
+          <t>63-71</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>24.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45059</v>
+        <v>45752</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>103-86</t>
+          <t>117-52</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>24.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -6020,17 +6020,17 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>166.5</v>
+        <v>175.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45829</v>
+        <v>45520</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6049,39 +6049,39 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>74-108</t>
+          <t>98-59</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>30.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45820</v>
+        <v>45480</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -6090,19 +6090,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>L</t>
@@ -6110,11 +6110,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>82-84</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>20.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -6122,17 +6122,17 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45802</v>
+        <v>45435</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -6141,31 +6141,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>102-88</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -6173,26 +6173,26 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45779</v>
+        <v>45817</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6202,21 +6202,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-1.5</v>
+        <v>24.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45773</v>
+        <v>45802</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6253,29 +6253,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>73-118</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>180.5</v>
+        <v>167.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -6285,48 +6285,48 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45813</v>
+        <v>45787</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Hawthorn</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>81-59</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.5</v>
+        <v>23.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -6336,16 +6336,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6365,38 +6365,38 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>124-74</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-60.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>180.5</v>
+        <v>176.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45438</v>
+        <v>45766</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6416,11 +6416,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>100-75</t>
+          <t>107-97</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15.5</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -6438,16 +6438,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45417</v>
+        <v>45829</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6467,11 +6467,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>98-91</t>
+          <t>84-73</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -6479,26 +6479,26 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>172.5</v>
+        <v>165.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45403</v>
+        <v>45795</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6518,48 +6518,48 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>113-68</t>
+          <t>78-74</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-16.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45822</v>
+        <v>45465</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6569,94 +6569,94 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96-107</t>
+          <t>67-70</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-19.5</v>
+        <v>33.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45806</v>
+        <v>45157</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>72-101</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-42.5</v>
+        <v>31.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45795</v>
+        <v>45045</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>49-139</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-31.5</v>
+        <v>44.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>175.5</v>
+        <v>177.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -6693,16 +6693,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45781</v>
+        <v>45837</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6722,19 +6722,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>81-69</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-12.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -6744,16 +6744,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45764</v>
+        <v>45827</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6763,48 +6763,48 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>53-105</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-12.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>174.5</v>
+        <v>153.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45178</v>
+        <v>45822</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6814,21 +6814,21 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>75-123</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6836,58 +6836,58 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>167.5</v>
+        <v>161.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44639</v>
+        <v>45801</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>69-80</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>168.5</v>
+        <v>167.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -6897,16 +6897,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45828</v>
+        <v>45785</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>51-92</t>
+          <t>83-97</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-15.5</v>
+        <v>8.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -6938,36 +6938,36 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>168.5</v>
+        <v>160.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45815</v>
+        <v>45473</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>94-33</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-10.5</v>
+        <v>-14.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>171.5</v>
+        <v>163.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -6999,77 +6999,77 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45799</v>
+        <v>45052</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>48-117</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-1.5</v>
+        <v>20.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>178.5</v>
+        <v>165.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45788</v>
+        <v>44723</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -7079,19 +7079,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>82-95</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-15.5</v>
+        <v>31.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>174.5</v>
+        <v>155.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -7101,16 +7101,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45751</v>
+        <v>45837</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7120,43 +7120,43 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>85-46</t>
+          <t>54-122</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-22.5</v>
+        <v>37.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>173.5</v>
+        <v>174.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45444</v>
+        <v>45815</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7166,12 +7166,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7181,19 +7181,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>69-99</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>44.5</v>
+        <v>24.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -7203,28 +7203,28 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45794</v>
+        <v>45800</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Essendon</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>L</t>
@@ -7232,11 +7232,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>36-127</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>23.5</v>
+        <v>18.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>175.5</v>
+        <v>165.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -7254,16 +7254,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45787</v>
+        <v>45795</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7273,21 +7273,21 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>171.5</v>
+        <v>175.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7305,16 +7305,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45778</v>
+        <v>45788</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7334,11 +7334,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>81-79</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-17.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>184.5</v>
+        <v>172.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -7356,11 +7356,11 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45743</v>
+        <v>45822</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7375,43 +7375,43 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>72-60</t>
+          <t>56-151</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.5</v>
+        <v>30.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45520</v>
+        <v>45816</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7436,19 +7436,19 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>59-98</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -7458,26 +7458,26 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45802</v>
+        <v>45800</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7487,11 +7487,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>80-61</t>
+          <t>81-58</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-12.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -7509,16 +7509,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45766</v>
+        <v>45772</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -7538,11 +7538,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>69-80</t>
+          <t>66-107</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-36.5</v>
+        <v>17.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -7550,58 +7550,58 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>184.5</v>
+        <v>168.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45514</v>
+        <v>45738</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>87-86</t>
+          <t>100-161</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -7611,91 +7611,91 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45479</v>
+        <v>45830</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Gold Coast</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>83-87</t>
+          <t>106-99</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-20.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>172.5</v>
+        <v>160.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45451</v>
+        <v>45808</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>48-51</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-13.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>162.5</v>
+        <v>173.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -7713,16 +7713,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45823</v>
+        <v>45794</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>52-86</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>25.5</v>
+        <v>6.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>155.5</v>
+        <v>175.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -7764,48 +7764,48 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45809</v>
+        <v>45753</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>West Coast</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>132-51</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>38.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -7815,16 +7815,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45795</v>
+        <v>45725</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7844,11 +7844,11 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>104-52</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>19.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -7856,58 +7856,58 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45780</v>
+        <v>45841</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>134-85</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>14.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>161.5</v>
+        <v>180.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -7917,16 +7917,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45765</v>
+        <v>45830</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7936,21 +7936,21 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>75-77</t>
+          <t>135-56</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>19.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -7958,26 +7958,26 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45375</v>
+        <v>45820</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>108-43</t>
+          <t>132-60</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-40.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -8009,36 +8009,36 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45011</v>
+        <v>45813</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -8048,11 +8048,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>81-100</t>
+          <t>59-81</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-8.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -8060,58 +8060,58 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44660</v>
+        <v>45794</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>54-88</t>
+          <t>127-36</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-2.5</v>
+        <v>-23.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>158.5</v>
+        <v>175.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -8121,79 +8121,79 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45829</v>
+        <v>45492</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>73-84</t>
+          <t>115-113</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-24.5</v>
+        <v>14.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>165.5</v>
+        <v>169.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45816</v>
+        <v>45395</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>W</t>
@@ -8201,38 +8201,38 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>100-98</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-18.5</v>
+        <v>21.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45786</v>
+        <v>45116</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8242,80 +8242,80 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>97-115</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-7.5</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>167.5</v>
+        <v>171.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45774</v>
+        <v>44752</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>54-86</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -8325,28 +8325,28 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45750</v>
+        <v>44689</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Collingwood</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>L</t>
@@ -8354,11 +8354,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>46-63</t>
+          <t>68-116</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -8366,31 +8366,31 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45817</v>
+        <v>45836</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -8405,38 +8405,38 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>104-85</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-24.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -8446,25 +8446,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-8.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -8478,16 +8478,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45794</v>
+        <v>45774</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -8507,38 +8507,38 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-15.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45780</v>
+        <v>45752</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8548,21 +8548,21 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>91-90</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -8570,26 +8570,26 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>171.5</v>
+        <v>185.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45772</v>
+        <v>45521</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8599,29 +8599,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>107-66</t>
+          <t>63-117</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-17.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>168.5</v>
+        <v>167.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -8631,26 +8631,26 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45801</v>
+        <v>45472</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8660,11 +8660,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>63-108</t>
+          <t>90-101</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>34.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -8672,26 +8672,26 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45778</v>
+        <v>45108</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8701,21 +8701,21 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>62-65</t>
+          <t>120-42</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>17.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>184.5</v>
+        <v>163.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -8733,58 +8733,58 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45765</v>
+        <v>44744</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>71-153</t>
+          <t>67-62</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>15.5</v>
+        <v>1.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>178.5</v>
+        <v>144.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45752</v>
+        <v>45801</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8813,11 +8813,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>52-117</t>
+          <t>82-110</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>10.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -8825,17 +8825,17 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>175.5</v>
+        <v>169.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45739</v>
+        <v>45765</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8844,19 +8844,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>North Melbourne</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>W</t>
@@ -8864,11 +8864,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>125-66</t>
+          <t>153-71</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>18.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>173.5</v>
+        <v>178.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45830</v>
+        <v>45744</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8895,35 +8895,35 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Western Bulldogs</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>135-56</t>
+          <t>75-83</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-48.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -8931,13 +8931,13 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45820</v>
+        <v>45529</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -8946,12 +8946,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8961,34 +8961,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>74-76</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-20.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45813</v>
+        <v>45499</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -9017,11 +9017,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>65-79</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-1.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>171.5</v>
+        <v>180.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45794</v>
+        <v>45773</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -9048,17 +9048,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9068,11 +9068,11 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>118-73</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-23.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -9080,17 +9080,17 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>175.5</v>
+        <v>180.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45767</v>
+        <v>45508</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -9099,43 +9099,196 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>124-39</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Western Bulldogs</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>114-71</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>75-100</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Marvel Stadium</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Brisbane Lions</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>127-56</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="I79" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>84-56</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J79" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Over</t>
+      <c r="J82" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Under</t>
         </is>
       </c>
     </row>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,29 +516,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>92-120</t>
+          <t>109-98</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>170.5</v>
+        <v>179.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45834</v>
+        <v>45844</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,121 +577,121 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>110-60</t>
+          <t>90-77</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-5.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>52-71</t>
+          <t>122-54</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-9.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>44-47</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -701,26 +701,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -730,15 +730,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>66-50</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -752,16 +752,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -771,29 +771,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>52-111</t>
+          <t>69-63</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>26.5</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>165.5</v>
+        <v>172.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -822,21 +822,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>59-88</t>
+          <t>115-74</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>60.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -844,26 +844,26 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -873,48 +873,48 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52-86</t>
+          <t>104-85</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>25.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>155.5</v>
+        <v>172.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45816</v>
+        <v>45830</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>52-62</t>
+          <t>99-106</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,31 +946,31 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45809</v>
+        <v>45815</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -985,11 +985,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>37-61</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>38.5</v>
+        <v>10.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45843</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>74-94</t>
+          <t>63-69</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1048,26 +1048,26 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>166.5</v>
+        <v>172.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45837</v>
+        <v>45842</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1077,21 +1077,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>69-81</t>
+          <t>115-59</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1099,17 +1099,17 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>165.5</v>
+        <v>161.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1118,31 +1118,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>74-108</t>
+          <t>88-59</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>30.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45820</v>
+        <v>45829</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1169,39 +1169,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>St Kilda</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>108-74</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>20.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45809</v>
+        <v>45817</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1240,19 +1240,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>91-63</t>
+          <t>72-71</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>11.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45844</v>
+        <v>45850</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>94-83</t>
+          <t>77-64</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-7.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1303,17 +1303,17 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>158.5</v>
+        <v>156.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45835</v>
+        <v>45844</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1322,19 +1322,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Fremantle</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Sydney</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>L</t>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96-105</t>
+          <t>83-94</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>172.5</v>
+        <v>158.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1364,26 +1364,26 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,19 +1393,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>71-52</t>
+          <t>81-69</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>170.5</v>
+        <v>165.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,26 +1415,26 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45815</v>
+        <v>45827</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80-36</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-24.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1456,50 +1456,50 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>171.5</v>
+        <v>153.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45808</v>
+        <v>45822</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>175.5</v>
+        <v>161.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45844</v>
+        <v>45850</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1546,15 +1546,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>77-90</t>
+          <t>85-111</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>24.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1562,83 +1562,83 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>85-104</t>
+          <t>124-52</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17.5</v>
+        <v>-59.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45823</v>
+        <v>45828</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>68-93</t>
+          <t>51-92</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>171.5</v>
+        <v>168.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45817</v>
+        <v>45822</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1679,31 +1679,31 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>151-56</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>24.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1715,22 +1715,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45809</v>
+        <v>45815</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Traeger Park</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1740,29 +1740,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>63-91</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-11.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>169.5</v>
+        <v>171.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45841</v>
+        <v>45851</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1801,19 +1801,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>85-134</t>
+          <t>87-92</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>40.5</v>
+        <v>8.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>180.5</v>
+        <v>166.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1823,21 +1823,21 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>65-150</t>
+          <t>74-94</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>32.5</v>
+        <v>18.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>157.5</v>
+        <v>166.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1874,16 +1874,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1893,21 +1893,21 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>84-73</t>
+          <t>69-81</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1925,26 +1925,26 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1954,38 +1954,38 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>67-73</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45816</v>
+        <v>45820</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1995,25 +1995,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>62-52</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-5.5</v>
+        <v>20.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45844</v>
+        <v>45851</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,29 +2056,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>83-94</t>
+          <t>61-87</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7.5</v>
+        <v>37.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>158.5</v>
+        <v>167.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45837</v>
+        <v>45842</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2097,21 +2097,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>81-69</t>
+          <t>52-111</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-22.5</v>
+        <v>26.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2129,40 +2129,40 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45827</v>
+        <v>45836</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>104-63</t>
+          <t>59-88</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-29.5</v>
+        <v>60.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2170,17 +2170,17 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>153.5</v>
+        <v>172.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2189,31 +2189,31 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-31.5</v>
+        <v>25.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>161.5</v>
+        <v>155.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Bunbury</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2250,29 +2250,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>75-64</t>
+          <t>52-62</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2282,26 +2282,26 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>94-74</t>
+          <t>46-37</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-18.5</v>
+        <v>15.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2323,77 +2323,77 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>166.5</v>
+        <v>163.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>150-65</t>
+          <t>52-124</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-32.5</v>
+        <v>59.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>157.5</v>
+        <v>176.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45821</v>
+        <v>45837</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2408,34 +2408,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>47-44</t>
+          <t>54-122</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-2.5</v>
+        <v>37.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>161.5</v>
+        <v>174.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45813</v>
+        <v>45830</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2459,34 +2459,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>81-59</t>
+          <t>56-135</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.5</v>
+        <v>48.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45807</v>
+        <v>45815</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2495,17 +2495,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>56-107</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8.5</v>
+        <v>24.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2537,26 +2537,26 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45843</v>
+        <v>45848</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2566,11 +2566,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>52-124</t>
+          <t>66-103</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>59.5</v>
+        <v>26.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2578,17 +2578,17 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>176.5</v>
+        <v>168.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45837</v>
+        <v>45842</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2617,11 +2617,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>54-122</t>
+          <t>59-115</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>37.5</v>
+        <v>26.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>174.5</v>
+        <v>161.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2639,16 +2639,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45830</v>
+        <v>45834</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>56-135</t>
+          <t>60-110</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>48.5</v>
+        <v>5.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>170.5</v>
+        <v>164.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>73-84</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>24.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45808</v>
+        <v>45823</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2760,21 +2760,21 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>77-80</t>
+          <t>86-52</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>44.5</v>
+        <v>-25.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>173.5</v>
+        <v>155.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45843</v>
+        <v>45851</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,29 +2811,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>74-115</t>
+          <t>119-83</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>22.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>171.5</v>
+        <v>167.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45827</v>
+        <v>45844</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,48 +2872,48 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>63-104</t>
+          <t>77-90</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>29.5</v>
+        <v>24.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>153.5</v>
+        <v>171.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45822</v>
+        <v>45836</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>56-151</t>
+          <t>85-104</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>30.5</v>
+        <v>17.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2945,16 +2945,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2974,15 +2974,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>68-93</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>18.5</v>
+        <v>2.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2996,26 +2996,26 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45806</v>
+        <v>45817</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>72-90</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>42.5</v>
+        <v>24.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45842</v>
+        <v>45851</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3076,38 +3076,38 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111-52</t>
+          <t>92-87</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-26.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>165.5</v>
+        <v>166.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>106-99</t>
+          <t>94-83</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>160.5</v>
+        <v>158.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3149,48 +3149,48 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45822</v>
+        <v>45835</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>107-96</t>
+          <t>96-105</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>19.5</v>
+        <v>8.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3200,21 +3200,21 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>50-66</t>
+          <t>71-52</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-16.5</v>
+        <v>9.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3251,21 +3251,21 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3280,19 +3280,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>80-36</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-44.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3302,67 +3302,67 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45843</v>
+        <v>45851</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>124-52</t>
+          <t>83-119</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-59.5</v>
+        <v>26.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>176.5</v>
+        <v>167.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45828</v>
+        <v>45841</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>51-92</t>
+          <t>85-134</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-15.5</v>
+        <v>40.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3394,26 +3394,26 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>168.5</v>
+        <v>180.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45822</v>
+        <v>45836</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3423,29 +3423,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>151-56</t>
+          <t>65-150</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-30.5</v>
+        <v>32.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>171.5</v>
+        <v>157.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,26 +3455,26 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>84-73</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-10.5</v>
+        <v>24.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45809</v>
+        <v>45822</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3515,31 +3515,31 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>116-73</t>
+          <t>67-73</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-38.5</v>
+        <v>31.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3547,26 +3547,26 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45841</v>
+        <v>45850</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,48 +3576,48 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>134-85</t>
+          <t>64-77</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-40.5</v>
+        <v>0.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>180.5</v>
+        <v>156.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45835</v>
+        <v>45843</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>105-96</t>
+          <t>94-74</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-8.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>172.5</v>
+        <v>166.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45830</v>
+        <v>45836</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>135-56</t>
+          <t>150-65</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-48.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>170.5</v>
+        <v>157.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3710,26 +3710,26 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3739,11 +3739,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-20.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3751,11 +3751,11 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
@@ -3770,35 +3770,35 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Hawthorn</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Western Bulldogs</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>81-59</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3812,7 +3812,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45844</v>
+        <v>45851</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>90-77</t>
+          <t>87-61</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-24.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>171.5</v>
+        <v>167.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45837</v>
+        <v>45843</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,29 +3882,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>122-54</t>
+          <t>92-120</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-37.5</v>
+        <v>26.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3914,58 +3914,58 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45821</v>
+        <v>45834</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>44-47</t>
+          <t>110-60</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>161.5</v>
+        <v>164.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45814</v>
+        <v>45829</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,21 +3984,21 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-10.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4016,26 +4016,26 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45808</v>
+        <v>45823</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>131-41</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45843</v>
+        <v>45848</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4096,11 +4096,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>115-74</t>
+          <t>103-66</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-22.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>171.5</v>
+        <v>168.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4118,16 +4118,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4147,11 +4147,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>104-85</t>
+          <t>120-92</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-17.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>172.5</v>
+        <v>170.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4188,58 +4188,58 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>99-106</t>
+          <t>92-51</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>160.5</v>
+        <v>168.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>37-61</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>10.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4265,32 +4265,32 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4300,19 +4300,19 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>63-68</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-16.5</v>
+        <v>10.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -4322,48 +4322,48 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45842</v>
+        <v>45850</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>115-59</t>
+          <t>98-109</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-26.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>161.5</v>
+        <v>179.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45836</v>
+        <v>45841</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4382,17 +4382,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4402,48 +4402,48 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>88-59</t>
+          <t>134-85</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-60.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>172.5</v>
+        <v>180.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4453,11 +4453,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>108-74</t>
+          <t>105-96</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-30.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4475,26 +4475,26 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45817</v>
+        <v>45830</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4504,48 +4504,48 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>135-56</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-24.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45807</v>
+        <v>45820</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4555,11 +4555,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>132-60</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-8.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4567,17 +4567,17 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45842</v>
+        <v>45850</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4586,17 +4586,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4606,11 +4606,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>59-115</t>
+          <t>37-46</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>26.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4618,36 +4618,36 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>161.5</v>
+        <v>163.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45834</v>
+        <v>45843</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4657,11 +4657,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>60-110</t>
+          <t>74-115</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>5.5</v>
+        <v>22.5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4679,26 +4679,26 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4708,11 +4708,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>73-84</t>
+          <t>63-104</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>-24.5</v>
+        <v>29.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4720,62 +4720,62 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>165.5</v>
+        <v>153.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45823</v>
+        <v>45822</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>86-52</t>
+          <t>56-151</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>-25.5</v>
+        <v>30.5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>155.5</v>
+        <v>171.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
@@ -4790,35 +4790,35 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Essendon</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>-18.5</v>
+        <v>18.5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -4832,16 +4832,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4861,11 +4861,11 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>120-92</t>
+          <t>111-85</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>-26.5</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4883,16 +4883,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45828</v>
+        <v>45842</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4912,11 +4912,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>92-51</t>
+          <t>111-52</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>15.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>168.5</v>
+        <v>165.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4934,16 +4934,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4953,29 +4953,29 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>96-107</t>
+          <t>106-99</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-19.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4985,40 +4985,40 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45814</v>
+        <v>45822</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Brisbane Lions</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Adelaide</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>63-68</t>
+          <t>107-96</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5030,22 +5030,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45806</v>
+        <v>45815</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Manuka Oval</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5055,21 +5055,21 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>50-66</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-42.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45834</v>
+        <v>45844</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5192,29 +5192,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>110-60</t>
+          <t>90-77</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-5.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45829</v>
+        <v>45814</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5233,21 +5233,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>52-71</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45823</v>
+        <v>45802</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5294,11 +5294,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-2.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5306,17 +5306,17 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45794</v>
+        <v>45787</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -5325,31 +5325,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Adelaide</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Geelong</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>39-115</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-18.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45787</v>
+        <v>45780</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5386,21 +5386,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>84-89</t>
+          <t>110-50</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45802</v>
+        <v>45143</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5447,11 +5447,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>62-128</t>
+          <t>61-89</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>50.5</v>
+        <v>20.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5459,17 +5459,17 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45759</v>
+        <v>45115</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5498,11 +5498,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>50-121</t>
+          <t>73-106</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>32.5</v>
+        <v>29.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -5510,17 +5510,17 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>176.5</v>
+        <v>156.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45438</v>
+        <v>44738</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5549,19 +5549,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>38-137</t>
+          <t>91-93</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>29.5</v>
+        <v>15.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>163.5</v>
+        <v>154.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5571,16 +5571,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45368</v>
+        <v>45842</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5590,29 +5590,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>70-120</t>
+          <t>115-59</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>45.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>173.5</v>
+        <v>161.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5622,16 +5622,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45087</v>
+        <v>45817</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5641,21 +5641,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>52-174</t>
+          <t>72-71</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>61.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -5663,26 +5663,26 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>173.5</v>
+        <v>171.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45843</v>
+        <v>45807</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5697,67 +5697,67 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>74-94</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>166.5</v>
+        <v>170.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45829</v>
+        <v>45794</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>74-108</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>30.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5765,26 +5765,26 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>170.5</v>
+        <v>173.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45820</v>
+        <v>45780</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5804,11 +5804,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>87-90</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>20.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5826,26 +5826,26 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45802</v>
+        <v>45766</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5855,11 +5855,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>61-80</t>
+          <t>97-107</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>12.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5867,46 +5867,46 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45779</v>
+        <v>45508</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>89-90</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -5914,30 +5914,30 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>174.5</v>
+        <v>167.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45787</v>
+        <v>45417</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5947,29 +5947,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>63-71</t>
+          <t>103-49</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-8.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>171.5</v>
+        <v>163.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5979,16 +5979,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45752</v>
+        <v>45164</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>117-52</t>
+          <t>93-56</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-10.5</v>
+        <v>13.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>175.5</v>
+        <v>167.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -6030,16 +6030,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45520</v>
+        <v>45122</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6049,80 +6049,80 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>98-59</t>
+          <t>67-113</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-8.5</v>
+        <v>35.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>174.5</v>
+        <v>157.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45480</v>
+        <v>45843</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>82-84</t>
+          <t>124-52</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-22.5</v>
+        <v>-59.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>169.5</v>
+        <v>176.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -6132,40 +6132,40 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45435</v>
+        <v>45828</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>102-88</t>
+          <t>51-92</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-17.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -6173,26 +6173,26 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>169.5</v>
+        <v>168.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45817</v>
+        <v>45815</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6202,21 +6202,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>61-37</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>24.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45802</v>
+        <v>45799</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>127-113</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>167.5</v>
+        <v>178.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -6285,16 +6285,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45787</v>
+        <v>45788</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6314,11 +6314,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>101-105</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>23.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6326,50 +6326,50 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>169.5</v>
+        <v>174.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45771</v>
+        <v>45367</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>68-76</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-19.5</v>
+        <v>11.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>176.5</v>
+        <v>162.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -6387,48 +6387,48 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45766</v>
+        <v>44779</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>107-97</t>
+          <t>65-110</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>33.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>166.5</v>
+        <v>155.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -6438,44 +6438,44 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45829</v>
+        <v>45842</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>84-73</t>
+          <t>52-111</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -6489,40 +6489,40 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45795</v>
+        <v>45823</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>78-74</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-9.5</v>
+        <v>25.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>175.5</v>
+        <v>155.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -6540,26 +6540,26 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45465</v>
+        <v>45809</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6569,62 +6569,62 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>67-70</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>33.5</v>
+        <v>38.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45157</v>
+        <v>45795</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>72-101</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>31.5</v>
+        <v>19.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170.5</v>
+        <v>175.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -6642,21 +6642,21 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45045</v>
+        <v>45780</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>49-139</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>44.5</v>
+        <v>14.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>177.5</v>
+        <v>161.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45837</v>
+        <v>45479</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -6702,31 +6702,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>81-69</t>
+          <t>54-105</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-22.5</v>
+        <v>36.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45827</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -6753,39 +6753,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>104-63</t>
+          <t>70-109</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-29.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>153.5</v>
+        <v>172.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45822</v>
+        <v>45123</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>98-60</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-31.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>161.5</v>
+        <v>173.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45801</v>
+        <v>45087</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6855,19 +6855,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>W</t>
@@ -6875,11 +6875,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>100-51</t>
+          <t>85-70</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-18.5</v>
+        <v>22.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>167.5</v>
+        <v>165.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45785</v>
+        <v>44680</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6906,39 +6906,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>83-97</t>
+          <t>165-56</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160.5</v>
+        <v>162.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -6948,77 +6948,77 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45473</v>
+        <v>45842</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>94-33</t>
+          <t>59-115</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-14.5</v>
+        <v>26.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>163.5</v>
+        <v>161.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45052</v>
+        <v>45829</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -7028,11 +7028,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>48-117</t>
+          <t>73-84</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -7050,58 +7050,58 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44723</v>
+        <v>45816</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>82-95</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>31.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>155.5</v>
+        <v>171.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45837</v>
+        <v>45786</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -7110,49 +7110,49 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>54-122</t>
+          <t>77-62</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>37.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>174.5</v>
+        <v>167.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45815</v>
+        <v>45774</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7171,29 +7171,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>94-76</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>24.5</v>
+        <v>12.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45800</v>
+        <v>45851</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -7212,49 +7212,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>58-81</t>
+          <t>119-83</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>18.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45795</v>
+        <v>45817</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>74-78</t>
+          <t>71-72</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45788</v>
+        <v>45802</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7334,29 +7334,29 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>81-79</t>
+          <t>131-78</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-10.5</v>
+        <v>1.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>172.5</v>
+        <v>167.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45822</v>
+        <v>45787</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7385,11 +7385,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>56-151</t>
+          <t>56-91</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -7397,17 +7397,17 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>171.5</v>
+        <v>169.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45816</v>
+        <v>45771</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -7416,31 +7416,31 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>83-63</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>18.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>171.5</v>
+        <v>176.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -7458,16 +7458,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45800</v>
+        <v>45844</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7487,11 +7487,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>81-58</t>
+          <t>94-83</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-18.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -7499,36 +7499,36 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>165.5</v>
+        <v>158.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45772</v>
+        <v>45835</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -7538,11 +7538,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>66-107</t>
+          <t>96-105</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>168.5</v>
+        <v>172.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -7560,16 +7560,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45738</v>
+        <v>45808</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>100-161</t>
+          <t>41-131</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-2.5</v>
+        <v>5.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -7601,26 +7601,26 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>176.5</v>
+        <v>175.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45830</v>
+        <v>45793</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>106-99</t>
+          <t>78-62</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -7652,38 +7652,38 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>160.5</v>
+        <v>164.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45808</v>
+        <v>45781</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Greater Western Sydney</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>W</t>
@@ -7691,19 +7691,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>80-77</t>
+          <t>87-73</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-44.5</v>
+        <v>6.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>173.5</v>
+        <v>169.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -7713,26 +7713,26 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45794</v>
+        <v>45486</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>61-95</t>
+          <t>59-138</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6.5</v>
+        <v>55.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -7754,26 +7754,26 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45753</v>
+        <v>44765</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7783,29 +7783,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>132-51</t>
+          <t>75-121</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-42.5</v>
+        <v>28.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -7815,40 +7815,40 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45725</v>
+        <v>44660</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>104-52</t>
+          <t>75-86</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-7.5</v>
+        <v>40.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -7856,31 +7856,31 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>169.5</v>
+        <v>155.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45841</v>
+        <v>45836</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7895,11 +7895,11 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>134-85</t>
+          <t>150-65</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-40.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>180.5</v>
+        <v>157.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -7917,16 +7917,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45830</v>
+        <v>45821</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7946,11 +7946,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>135-56</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-48.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -7958,36 +7958,36 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>170.5</v>
+        <v>161.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45820</v>
+        <v>45745</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7997,38 +7997,38 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>76-64</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-20.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45813</v>
+        <v>45528</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -8038,48 +8038,48 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>59-81</t>
+          <t>170-46</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-1.5</v>
+        <v>-38.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>171.5</v>
+        <v>176.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45794</v>
+        <v>45486</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>127-36</t>
+          <t>87-74</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-23.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -8111,36 +8111,36 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>175.5</v>
+        <v>159.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45492</v>
+        <v>45843</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -8150,11 +8150,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>115-113</t>
+          <t>120-92</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>14.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>169.5</v>
+        <v>170.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -8172,48 +8172,48 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45395</v>
+        <v>45822</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>100-98</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>21.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>165.5</v>
+        <v>171.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -8223,21 +8223,21 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45116</v>
+        <v>45806</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -8247,16 +8247,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>97-115</t>
+          <t>90-72</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -8264,36 +8264,36 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44752</v>
+        <v>45795</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -8303,11 +8303,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>54-86</t>
+          <t>88-99</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>10.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -8315,109 +8315,109 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44689</v>
+        <v>45781</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>68-116</t>
+          <t>66-49</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>15.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45836</v>
+        <v>44742</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>104-85</t>
+          <t>67-108</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-17.5</v>
+        <v>15.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>172.5</v>
+        <v>174.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -8427,28 +8427,28 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45808</v>
+        <v>45843</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Essendon</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Gold Coast</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Fremantle</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>L</t>
@@ -8456,11 +8456,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>64-75</t>
+          <t>74-115</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>-16.5</v>
+        <v>22.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -8468,54 +8468,54 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45774</v>
+        <v>45794</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>117-79</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-11.5</v>
+        <v>23.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -8523,22 +8523,22 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45752</v>
+        <v>45787</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8558,19 +8558,19 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>91-90</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-2.5</v>
+        <v>8.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>185.5</v>
+        <v>171.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -8580,16 +8580,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45521</v>
+        <v>45778</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8599,21 +8599,21 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>63-117</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-12.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -8621,77 +8621,77 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>167.5</v>
+        <v>184.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45472</v>
+        <v>45743</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>90-101</t>
+          <t>72-60</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45108</v>
+        <v>45801</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8711,11 +8711,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>120-42</t>
+          <t>110-82</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-11.5</v>
+        <v>4.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -8723,26 +8723,26 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>163.5</v>
+        <v>169.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44744</v>
+        <v>45423</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -8752,29 +8752,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>67-62</t>
+          <t>62-82</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>144.5</v>
+        <v>177.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45801</v>
+        <v>45402</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8793,19 +8793,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>L</t>
@@ -8813,11 +8813,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>82-110</t>
+          <t>98-117</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45765</v>
+        <v>45165</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8844,19 +8844,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>Greater Western Sydney</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>North Melbourne</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>W</t>
@@ -8864,11 +8864,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>153-71</t>
+          <t>105-73</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-15.5</v>
+        <v>21.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>178.5</v>
+        <v>170.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45744</v>
+        <v>45025</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8895,17 +8895,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8915,11 +8915,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>75-83</t>
+          <t>75-88</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-1.5</v>
+        <v>10.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -8927,366 +8927,9 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K75" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45529</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>74-76</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45499</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Port Adelaide</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>65-79</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>-18.5</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>118-73</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45508</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>124-39</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Under</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45450</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Western Bulldogs</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>114-71</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45438</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>75-100</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45100</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Marvel Stadium</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Brisbane Lions</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>St Kilda</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>84-56</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>168.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>Under</t>
         </is>

--- a/upcoming_round_summary.xlsx
+++ b/upcoming_round_summary.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,21 +516,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>109-98</t>
+          <t>82-113</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>179.5</v>
+        <v>170.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -548,16 +548,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45844</v>
+        <v>45851</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,80 +567,80 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90-77</t>
+          <t>87-92</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-24.5</v>
+        <v>8.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45837</v>
+        <v>45843</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>122-54</t>
+          <t>74-94</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-37.5</v>
+        <v>18.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>174.5</v>
+        <v>166.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45821</v>
+        <v>45837</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,19 +679,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>44-47</t>
+          <t>69-81</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>161.5</v>
+        <v>165.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -701,40 +701,40 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45814</v>
+        <v>45829</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-10.5</v>
+        <v>30.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -742,58 +742,58 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45849</v>
+        <v>45857</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>69-63</t>
+          <t>70-78</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>172.5</v>
+        <v>163.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,26 +803,26 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45843</v>
+        <v>45851</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +832,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>115-74</t>
+          <t>119-83</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-22.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>171.5</v>
+        <v>167.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -854,40 +854,40 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45836</v>
+        <v>45844</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>104-85</t>
+          <t>77-90</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-17.5</v>
+        <v>24.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -895,38 +895,38 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45830</v>
+        <v>45836</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Gold Coast</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>L</t>
@@ -934,11 +934,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>99-106</t>
+          <t>85-104</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160.5</v>
+        <v>172.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -956,16 +956,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45815</v>
+        <v>45823</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -985,11 +985,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>37-61</t>
+          <t>68-93</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45849</v>
+        <v>45857</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,39 +1026,39 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>63-69</t>
+          <t>105-56</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>172.5</v>
+        <v>160.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45842</v>
+        <v>45850</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1087,11 +1087,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>115-59</t>
+          <t>46-37</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-26.5</v>
+        <v>15.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1099,50 +1099,50 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>161.5</v>
+        <v>163.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>88-59</t>
+          <t>52-124</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-60.5</v>
+        <v>59.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>172.5</v>
+        <v>176.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1179,29 +1179,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>108-74</t>
+          <t>54-122</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-30.5</v>
+        <v>37.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>170.5</v>
+        <v>174.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45817</v>
+        <v>45830</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1230,21 +1230,21 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>56-135</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-24.5</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1252,58 +1252,58 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Hawthorn</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>77-64</t>
+          <t>78-79</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-0.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>156.5</v>
+        <v>163.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45844</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>83-94</t>
+          <t>63-69</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1354,36 +1354,36 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>158.5</v>
+        <v>172.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45837</v>
+        <v>45842</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,38 +1393,38 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>81-69</t>
+          <t>115-59</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-22.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>165.5</v>
+        <v>161.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45827</v>
+        <v>45836</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1444,48 +1444,48 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>104-63</t>
+          <t>88-59</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-29.5</v>
+        <v>-60.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>153.5</v>
+        <v>172.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1495,99 +1495,99 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>73-67</t>
+          <t>108-74</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-31.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>85-111</t>
+          <t>107-46</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-3.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>124-52</t>
+          <t>109-98</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-59.5</v>
+        <v>8.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1609,26 +1609,26 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>176.5</v>
+        <v>179.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45828</v>
+        <v>45844</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1638,21 +1638,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>51-92</t>
+          <t>90-77</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-15.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>168.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45822</v>
+        <v>45837</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>151-56</t>
+          <t>122-54</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-30.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1721,48 +1721,48 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45815</v>
+        <v>45821</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>44-47</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-10.5</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1772,26 +1772,26 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45851</v>
+        <v>45857</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1801,38 +1801,38 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>87-92</t>
+          <t>49-87</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
+        <v>29.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>166.5</v>
+        <v>152.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45843</v>
+        <v>45851</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1842,21 +1842,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>74-94</t>
+          <t>87-61</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1864,26 +1864,26 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>166.5</v>
+        <v>167.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45837</v>
+        <v>45843</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1903,70 +1903,70 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>69-81</t>
+          <t>92-120</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>165.5</v>
+        <v>170.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45829</v>
+        <v>45834</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>74-108</t>
+          <t>110-60</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>30.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>170.5</v>
+        <v>164.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45820</v>
+        <v>45829</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>60-132</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2017,26 +2017,26 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45851</v>
+        <v>45857</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>61-87</t>
+          <t>53-84</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2078,26 +2078,26 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45842</v>
+        <v>45851</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>52-111</t>
+          <t>83-119</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2119,17 +2119,17 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45836</v>
+        <v>45841</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2138,17 +2138,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2158,48 +2158,48 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>59-88</t>
+          <t>85-134</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>60.5</v>
+        <v>40.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>172.5</v>
+        <v>180.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>52-86</t>
+          <t>65-150</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>25.5</v>
+        <v>32.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2221,26 +2221,26 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>155.5</v>
+        <v>157.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45816</v>
+        <v>45829</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bunbury</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2250,29 +2250,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>52-62</t>
+          <t>84-73</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>24.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2311,38 +2311,38 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>46-37</t>
+          <t>113-82</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15.5</v>
+        <v>-33.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>163.5</v>
+        <v>170.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>52-124</t>
+          <t>85-111</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>59.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2374,87 +2374,87 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>176.5</v>
+        <v>171.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45837</v>
+        <v>45843</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Adelaide</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54-122</t>
+          <t>124-52</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>37.5</v>
+        <v>-59.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>174.5</v>
+        <v>176.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>56-135</t>
+          <t>51-92</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>48.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2476,17 +2476,17 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>170.5</v>
+        <v>168.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2495,35 +2495,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>36-80</t>
+          <t>151-56</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>24.5</v>
+        <v>-30.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2531,73 +2531,73 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45848</v>
+        <v>45858</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>66-103</t>
+          <t>79-78</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>168.5</v>
+        <v>163.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45842</v>
+        <v>45850</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2607,48 +2607,48 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>59-115</t>
+          <t>77-64</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>26.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>161.5</v>
+        <v>156.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45834</v>
+        <v>45844</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>60-110</t>
+          <t>83-94</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>164.5</v>
+        <v>158.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2690,16 +2690,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2709,21 +2709,21 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>73-84</t>
+          <t>81-69</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-24.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45823</v>
+        <v>45827</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2750,17 +2750,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>86-52</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-25.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2782,26 +2782,26 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>155.5</v>
+        <v>153.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45851</v>
+        <v>45857</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2811,29 +2811,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>119-83</t>
+          <t>56-105</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-26.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>167.5</v>
+        <v>160.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45844</v>
+        <v>45851</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>77-90</t>
+          <t>61-87</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24.5</v>
+        <v>37.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>171.5</v>
+        <v>167.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2894,26 +2894,26 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>People First Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>85-104</t>
+          <t>52-111</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>17.5</v>
+        <v>26.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2935,26 +2935,26 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>172.5</v>
+        <v>165.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2974,19 +2974,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>68-93</t>
+          <t>59-88</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2.5</v>
+        <v>60.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>171.5</v>
+        <v>172.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2996,16 +2996,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45817</v>
+        <v>45823</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3025,19 +3025,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>171.5</v>
+        <v>155.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45851</v>
+        <v>45858</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3066,21 +3066,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>92-87</t>
+          <t>46-107</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-8.5</v>
+        <v>16.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3088,26 +3088,26 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>166.5</v>
+        <v>174.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45844</v>
+        <v>45849</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>94-83</t>
+          <t>69-63</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-7.5</v>
+        <v>4.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3139,58 +3139,58 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>158.5</v>
+        <v>172.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45835</v>
+        <v>45843</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>96-105</t>
+          <t>115-74</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>172.5</v>
+        <v>171.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3200,26 +3200,26 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3229,11 +3229,11 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>71-52</t>
+          <t>104-85</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>9.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3241,26 +3241,26 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45815</v>
+        <v>45830</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3270,72 +3270,72 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80-36</t>
+          <t>99-106</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-24.5</v>
+        <v>4.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45851</v>
+        <v>45856</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>83-119</t>
+          <t>86-76</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>26.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3343,17 +3343,17 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3362,39 +3362,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>85-134</t>
+          <t>103-66</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>40.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>180.5</v>
+        <v>168.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3404,48 +3404,48 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>65-150</t>
+          <t>120-92</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>32.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>157.5</v>
+        <v>170.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45829</v>
+        <v>45828</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GMHBA Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>84-73</t>
+          <t>92-51</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>24.5</v>
+        <v>15.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>165.5</v>
+        <v>168.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3510,12 +3510,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3535,38 +3535,38 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>67-73</t>
+          <t>96-107</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>31.5</v>
+        <v>-19.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>161.5</v>
+        <v>171.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45850</v>
+        <v>45855</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3576,29 +3576,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>64-77</t>
+          <t>104-56</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>156.5</v>
+        <v>170.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3608,26 +3608,26 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>94-74</t>
+          <t>111-85</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-18.5</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>166.5</v>
+        <v>171.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3659,26 +3659,26 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>150-65</t>
+          <t>111-52</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-32.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3700,26 +3700,26 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>157.5</v>
+        <v>165.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45821</v>
+        <v>45830</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3739,11 +3739,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>47-44</t>
+          <t>106-99</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3751,26 +3751,26 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>161.5</v>
+        <v>160.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45813</v>
+        <v>45822</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>81-59</t>
+          <t>107-96</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1.5</v>
+        <v>19.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45851</v>
+        <v>45857</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>87-61</t>
+          <t>84-53</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-37.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45843</v>
+        <v>45851</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3882,21 +3882,21 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>92-120</t>
+          <t>92-87</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>26.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>170.5</v>
+        <v>166.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3914,16 +3914,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45834</v>
+        <v>45844</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>110-60</t>
+          <t>94-83</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-5.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>164.5</v>
+        <v>158.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3994,11 +3994,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>52-71</t>
+          <t>96-105</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-9.5</v>
+        <v>8.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4006,17 +4006,17 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45823</v>
+        <v>45829</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4025,19 +4025,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Port Adelaide</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>W</t>
@@ -4045,11 +4045,11 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>93-68</t>
+          <t>71-52</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-2.5</v>
+        <v>9.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45848</v>
+        <v>45855</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4076,170 +4076,170 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>103-66</t>
+          <t>56-104</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-26.5</v>
+        <v>44.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>168.5</v>
+        <v>170.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>120-92</t>
+          <t>37-46</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-26.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>170.5</v>
+        <v>163.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45828</v>
+        <v>45843</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>92-51</t>
+          <t>74-115</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>15.5</v>
+        <v>22.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>168.5</v>
+        <v>171.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45822</v>
+        <v>45827</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>96-107</t>
+          <t>63-104</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-19.5</v>
+        <v>29.5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>171.5</v>
+        <v>153.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4271,26 +4271,26 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45814</v>
+        <v>45822</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4300,15 +4300,15 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>63-68</t>
+          <t>56-151</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>10.5</v>
+        <v>30.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45850</v>
+        <v>45856</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Gabba</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4351,29 +4351,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>98-109</t>
+          <t>76-86</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-8.5</v>
+        <v>11.5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>179.5</v>
+        <v>170.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45841</v>
+        <v>45850</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4387,34 +4387,34 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>134-85</t>
+          <t>98-109</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-40.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>180.5</v>
+        <v>179.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4424,11 +4424,11 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45835</v>
+        <v>45841</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4453,11 +4453,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>105-96</t>
+          <t>134-85</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-8.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>172.5</v>
+        <v>180.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4475,11 +4475,11 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45830</v>
+        <v>45835</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4489,12 +4489,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>135-56</t>
+          <t>105-96</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-48.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45820</v>
+        <v>45830</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4540,12 +4540,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4555,11 +4555,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>132-60</t>
+          <t>135-56</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-20.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4577,48 +4577,48 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45850</v>
+        <v>45857</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>37-46</t>
+          <t>87-49</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>-15.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>163.5</v>
+        <v>152.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4628,26 +4628,26 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4657,11 +4657,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>74-115</t>
+          <t>64-77</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>22.5</v>
+        <v>0.5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4669,26 +4669,26 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>171.5</v>
+        <v>156.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45827</v>
+        <v>45843</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4698,29 +4698,29 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>63-104</t>
+          <t>94-74</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>29.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>153.5</v>
+        <v>166.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4730,16 +4730,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45822</v>
+        <v>45836</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4749,29 +4749,29 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>56-151</t>
+          <t>150-65</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>30.5</v>
+        <v>-32.5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>171.5</v>
+        <v>157.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4781,40 +4781,40 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45816</v>
+        <v>45821</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>UTAS Stadium</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>70-78</t>
+          <t>47-44</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>18.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>171.5</v>
+        <v>161.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4832,16 +4832,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45850</v>
+        <v>45857</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4861,11 +4861,11 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>111-85</t>
+          <t>78-70</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4873,77 +4873,77 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>171.5</v>
+        <v>163.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45842</v>
+        <v>45848</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>111-52</t>
+          <t>66-103</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>-26.5</v>
+        <v>26.5</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>165.5</v>
+        <v>168.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45830</v>
+        <v>45842</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ENGIE Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4953,29 +4953,29 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>106-99</t>
+          <t>59-115</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-4.5</v>
+        <v>26.5</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>160.5</v>
+        <v>161.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4985,16 +4985,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45822</v>
+        <v>45834</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5004,29 +5004,29 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>107-96</t>
+          <t>60-110</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>19.5</v>
+        <v>5.5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>171.5</v>
+        <v>164.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -5036,16 +5036,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Manuka Oval</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5065,11 +5065,11 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>50-66</t>
+          <t>73-84</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-16.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,16 +5163,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45844</v>
+        <v>45851</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5182,48 +5182,48 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>90-77</t>
+          <t>87-92</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-24.5</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45814</v>
+        <v>45843</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5233,21 +5233,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>68-63</t>
+          <t>74-94</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-10.5</v>
+        <v>18.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -5255,58 +5255,58 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>171.5</v>
+        <v>166.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45802</v>
+        <v>45829</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>128-62</t>
+          <t>74-108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-50.5</v>
+        <v>30.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>165.5</v>
+        <v>170.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5316,40 +5316,40 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45787</v>
+        <v>45820</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>89-84</t>
+          <t>60-132</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-9.5</v>
+        <v>20.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -5357,26 +5357,26 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45780</v>
+        <v>45802</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5386,29 +5386,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>110-50</t>
+          <t>61-80</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-16.5</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5418,16 +5418,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45143</v>
+        <v>45739</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5447,11 +5447,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>61-89</t>
+          <t>66-125</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5463,22 +5463,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45115</v>
+        <v>45506</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5498,11 +5498,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>73-106</t>
+          <t>59-110</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>29.5</v>
+        <v>13.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -5510,26 +5510,26 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>156.5</v>
+        <v>171.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44738</v>
+        <v>45115</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adelaide Oval</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5539,21 +5539,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>91-93</t>
+          <t>79-58</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -5561,26 +5561,26 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>154.5</v>
+        <v>161.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45842</v>
+        <v>44765</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5590,29 +5590,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>115-59</t>
+          <t>100-110</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-26.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>161.5</v>
+        <v>166.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5622,16 +5622,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45817</v>
+        <v>44702</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>72-71</t>
+          <t>100-53</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-24.5</v>
+        <v>-69.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>171.5</v>
+        <v>163.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45807</v>
+        <v>45850</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5702,11 +5702,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>107-56</t>
+          <t>46-37</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-8.5</v>
+        <v>15.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>170.5</v>
+        <v>163.5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45794</v>
+        <v>45837</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5748,16 +5748,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>78-68</t>
+          <t>54-122</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-15.5</v>
+        <v>37.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5765,17 +5765,17 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>173.5</v>
+        <v>174.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45780</v>
+        <v>45815</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5804,11 +5804,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>87-90</t>
+          <t>36-80</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-3.5</v>
+        <v>24.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5820,13 +5820,13 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45766</v>
+        <v>45800</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5855,11 +5855,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>97-107</t>
+          <t>58-81</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-4.5</v>
+        <v>18.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5867,17 +5867,17 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>166.5</v>
+        <v>165.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45508</v>
+        <v>45795</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -5886,17 +5886,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5906,29 +5906,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>89-90</t>
+          <t>74-78</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-1.5</v>
+        <v>9.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>167.5</v>
+        <v>175.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45417</v>
+        <v>45858</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -5937,35 +5937,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Collingwood</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Fremantle</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>103-49</t>
+          <t>78-79</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-7.5</v>
+        <v>-20.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -5979,7 +5979,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45164</v>
+        <v>45842</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>93-56</t>
+          <t>115-59</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13.5</v>
+        <v>-26.5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -6020,17 +6020,17 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>167.5</v>
+        <v>161.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45122</v>
+        <v>45817</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6049,21 +6049,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>67-113</t>
+          <t>72-71</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>35.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -6071,26 +6071,26 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>157.5</v>
+        <v>171.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45843</v>
+        <v>45807</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -6110,11 +6110,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>124-52</t>
+          <t>107-56</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-59.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>176.5</v>
+        <v>170.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -6132,16 +6132,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45828</v>
+        <v>45794</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6151,17 +6151,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>51-92</t>
+          <t>78-68</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>168.5</v>
+        <v>173.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -6183,16 +6183,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45815</v>
+        <v>45858</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6212,11 +6212,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>61-37</t>
+          <t>107-46</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-10.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45799</v>
+        <v>45844</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6263,38 +6263,38 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>127-113</t>
+          <t>90-77</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-1.5</v>
+        <v>-24.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>178.5</v>
+        <v>171.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45788</v>
+        <v>45814</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6304,21 +6304,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>101-105</t>
+          <t>68-63</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-15.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6326,50 +6326,50 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45367</v>
+        <v>45802</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>68-76</t>
+          <t>128-62</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.5</v>
+        <v>-50.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -6377,26 +6377,26 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>162.5</v>
+        <v>165.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44779</v>
+        <v>45787</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GMHBA Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6406,21 +6406,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>65-110</t>
+          <t>89-84</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>33.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -6428,50 +6428,50 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>155.5</v>
+        <v>175.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45842</v>
+        <v>45851</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Port Adelaide</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>West Coast</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Greater Western Sydney</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>52-111</t>
+          <t>87-61</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>26.5</v>
+        <v>-37.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -6489,16 +6489,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45823</v>
+        <v>45834</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6513,43 +6513,43 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>52-86</t>
+          <t>110-60</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>25.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>155.5</v>
+        <v>164.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45809</v>
+        <v>45829</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6569,11 +6569,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>73-116</t>
+          <t>52-71</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>38.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6581,26 +6581,26 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>171.5</v>
+        <v>170.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45795</v>
+        <v>45823</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6620,11 +6620,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>108-80</t>
+          <t>93-68</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6632,26 +6632,26 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Adelaide Oval</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>39-115</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6683,36 +6683,36 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>161.5</v>
+        <v>175.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45479</v>
+        <v>45841</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6722,11 +6722,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54-105</t>
+          <t>85-134</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -6734,36 +6734,36 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>167.5</v>
+        <v>180.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45396</v>
+        <v>45801</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6773,11 +6773,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>70-109</t>
+          <t>63-108</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-18.5</v>
+        <v>34.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6785,26 +6785,26 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45123</v>
+        <v>45778</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6814,29 +6814,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>98-60</t>
+          <t>62-65</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-40.5</v>
+        <v>17.5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>173.5</v>
+        <v>184.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -6846,128 +6846,128 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45087</v>
+        <v>45765</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>85-70</t>
+          <t>71-153</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>22.5</v>
+        <v>15.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>165.5</v>
+        <v>178.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44680</v>
+        <v>45752</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Optus Stadium</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>165-56</t>
+          <t>52-117</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-6.5</v>
+        <v>10.5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>162.5</v>
+        <v>175.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45842</v>
+        <v>45738</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>59-115</t>
+          <t>91-98</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>26.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>161.5</v>
+        <v>173.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -6999,26 +6999,26 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45829</v>
+        <v>45521</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -7028,11 +7028,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>73-84</t>
+          <t>89-107</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-24.5</v>
+        <v>-14.5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -7044,46 +7044,46 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45816</v>
+        <v>45157</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>78-70</t>
+          <t>55-88</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-18.5</v>
+        <v>-10.5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>171.5</v>
+        <v>162.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -7101,16 +7101,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45786</v>
+        <v>45080</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>St Kilda</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -7130,11 +7130,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>77-62</t>
+          <t>97-75</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -7142,36 +7142,36 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>167.5</v>
+        <v>165.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45774</v>
+        <v>44715</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Marvel Stadium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Geelong</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7181,11 +7181,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>94-76</t>
+          <t>83-70</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>12.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>174.5</v>
+        <v>168.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -7203,16 +7203,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Hawthorn</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>119-83</t>
+          <t>77-64</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-26.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -7244,26 +7244,26 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>167.5</v>
+        <v>156.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45817</v>
+        <v>45837</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7273,29 +7273,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>71-72</t>
+          <t>81-69</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>24.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>171.5</v>
+        <v>165.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7305,16 +7305,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45802</v>
+        <v>45827</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7334,11 +7334,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>131-78</t>
+          <t>104-63</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.5</v>
+        <v>-29.5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>167.5</v>
+        <v>153.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -7356,40 +7356,40 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45787</v>
+        <v>45822</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>56-91</t>
+          <t>73-67</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>23.5</v>
+        <v>-31.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>169.5</v>
+        <v>161.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -7407,16 +7407,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45771</v>
+        <v>45801</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Port Adelaide</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7436,11 +7436,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>83-63</t>
+          <t>100-51</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-19.5</v>
+        <v>-18.5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>176.5</v>
+        <v>167.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -7458,16 +7458,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45844</v>
+        <v>45857</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7477,29 +7477,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>94-83</t>
+          <t>56-105</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>158.5</v>
+        <v>160.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -7509,16 +7509,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -7538,11 +7538,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96-105</t>
+          <t>52-111</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.5</v>
+        <v>26.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -7550,26 +7550,26 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>172.5</v>
+        <v>165.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45808</v>
+        <v>45823</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>41-131</t>
+          <t>52-86</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>25.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>175.5</v>
+        <v>155.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -7611,16 +7611,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45793</v>
+        <v>45809</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7630,48 +7630,48 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>78-62</t>
+          <t>73-116</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-4.5</v>
+        <v>38.5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>164.5</v>
+        <v>171.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45781</v>
+        <v>45795</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>Optus Stadium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>St Kilda</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7691,11 +7691,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>87-73</t>
+          <t>108-80</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6.5</v>
+        <v>19.5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7703,77 +7703,77 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>169.5</v>
+        <v>175.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45486</v>
+        <v>45849</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>59-138</t>
+          <t>69-63</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>55.5</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>174.5</v>
+        <v>172.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44765</v>
+        <v>45836</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7783,29 +7783,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>75-121</t>
+          <t>104-85</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>28.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>170.5</v>
+        <v>172.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -7815,26 +7815,26 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44660</v>
+        <v>45808</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7844,38 +7844,38 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>75-86</t>
+          <t>64-75</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>40.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>155.5</v>
+        <v>170.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45836</v>
+        <v>45774</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7895,11 +7895,11 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>150-65</t>
+          <t>117-79</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-32.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>157.5</v>
+        <v>175.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -7917,16 +7917,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45821</v>
+        <v>45752</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>47-44</t>
+          <t>91-90</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -7954,11 +7954,11 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>161.5</v>
+        <v>185.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -7968,26 +7968,26 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45745</v>
+        <v>45500</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7997,19 +7997,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>76-64</t>
+          <t>93-65</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-12.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>166.5</v>
+        <v>172.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -8019,77 +8019,77 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45528</v>
+        <v>45136</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>170-46</t>
+          <t>55-96</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>176.5</v>
+        <v>165.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45486</v>
+        <v>44675</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UTAS Stadium</t>
+          <t>People First Stadium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Hawthorn</t>
+          <t>Brisbane Lions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fremantle</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>87-74</t>
+          <t>132-80</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-3.5</v>
+        <v>-16.5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>159.5</v>
+        <v>165.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -8121,16 +8121,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45843</v>
+        <v>45850</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Geelong</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -8150,11 +8150,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>120-92</t>
+          <t>111-85</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-26.5</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8191,29 +8191,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>96-107</t>
+          <t>106-99</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-19.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>171.5</v>
+        <v>160.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -8223,16 +8223,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45806</v>
+        <v>45808</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8252,11 +8252,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>90-72</t>
+          <t>80-77</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-42.5</v>
+        <v>-44.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>174.5</v>
+        <v>173.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -8274,16 +8274,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Fremantle</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -8303,11 +8303,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>88-99</t>
+          <t>61-95</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-31.5</v>
+        <v>6.5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -8319,22 +8319,22 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45781</v>
+        <v>45753</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -8354,11 +8354,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>66-49</t>
+          <t>132-51</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-12.5</v>
+        <v>-42.5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -8366,26 +8366,26 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>175.5</v>
+        <v>174.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44742</v>
+        <v>45465</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gabba</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8395,29 +8395,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Brisbane Lions</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>67-108</t>
+          <t>102-75</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>15.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>174.5</v>
+        <v>168.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -8427,48 +8427,48 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45843</v>
+        <v>45143</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marvel Stadium</t>
+          <t>ENGIE Stadium</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Gold Coast</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>74-115</t>
+          <t>96-85</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>22.5</v>
+        <v>4.5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>171.5</v>
+        <v>157.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45794</v>
+        <v>45855</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -8492,12 +8492,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Western Bulldogs</t>
+          <t>Greater Western Sydney</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -8507,11 +8507,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>36-127</t>
+          <t>56-104</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>23.5</v>
+        <v>44.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>175.5</v>
+        <v>170.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45787</v>
+        <v>45843</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -8548,25 +8548,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Gold Coast</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>71-63</t>
+          <t>74-115</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8.5</v>
+        <v>22.5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -8574,13 +8574,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45778</v>
+        <v>45794</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -8594,26 +8594,26 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>65-62</t>
+          <t>36-127</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-17.5</v>
+        <v>23.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>184.5</v>
+        <v>175.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45743</v>
+        <v>45787</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Port Adelaide</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8660,11 +8660,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>72-60</t>
+          <t>71-63</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>175.5</v>
+        <v>171.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45801</v>
+        <v>45778</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -8691,17 +8691,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Essendon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8711,29 +8711,29 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>110-82</t>
+          <t>65-62</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>4.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>169.5</v>
+        <v>184.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45423</v>
+        <v>45850</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -8742,17 +8742,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Essendon</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8762,11 +8762,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>62-82</t>
+          <t>98-109</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-9.5</v>
+        <v>-8.5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -8774,17 +8774,17 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>177.5</v>
+        <v>179.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45402</v>
+        <v>45841</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8803,29 +8803,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>98-117</t>
+          <t>134-85</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>-40.5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>175.5</v>
+        <v>180.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45165</v>
+        <v>45830</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8844,17 +8844,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8864,11 +8864,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>105-73</t>
+          <t>135-56</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>21.5</v>
+        <v>-48.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45025</v>
+        <v>45820</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Greater Western Sydney</t>
+          <t>Western Bulldogs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -8905,31 +8905,592 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>St Kilda</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>132-60</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="I75" t="inli